--- a/BackTest/2020-01-10 BackTest ETH.xlsx
+++ b/BackTest/2020-01-10 BackTest ETH.xlsx
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -28031,13 +28031,17 @@
         <v>157075</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I790" t="n">
         <v>0</v>
       </c>
-      <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K790" t="n">
+        <v>155100</v>
+      </c>
       <c r="L790" t="inlineStr"/>
       <c r="M790" t="n">
         <v>1</v>
@@ -28066,14 +28070,22 @@
         <v>157035</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I791" t="n">
         <v>0</v>
       </c>
-      <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
-      <c r="L791" t="inlineStr"/>
+      <c r="J791" t="n">
+        <v>155300</v>
+      </c>
+      <c r="K791" t="n">
+        <v>155100</v>
+      </c>
+      <c r="L791" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M791" t="n">
         <v>1</v>
       </c>
@@ -28107,8 +28119,14 @@
         <v>0</v>
       </c>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
-      <c r="L792" t="inlineStr"/>
+      <c r="K792" t="n">
+        <v>155100</v>
+      </c>
+      <c r="L792" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M792" t="n">
         <v>1</v>
       </c>
@@ -28142,8 +28160,14 @@
         <v>0</v>
       </c>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
-      <c r="L793" t="inlineStr"/>
+      <c r="K793" t="n">
+        <v>155100</v>
+      </c>
+      <c r="L793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M793" t="n">
         <v>1</v>
       </c>
@@ -28177,8 +28201,14 @@
         <v>0</v>
       </c>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
-      <c r="L794" t="inlineStr"/>
+      <c r="K794" t="n">
+        <v>155100</v>
+      </c>
+      <c r="L794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M794" t="n">
         <v>1</v>
       </c>
@@ -28212,8 +28242,14 @@
         <v>0</v>
       </c>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
-      <c r="L795" t="inlineStr"/>
+      <c r="K795" t="n">
+        <v>155100</v>
+      </c>
+      <c r="L795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M795" t="n">
         <v>1</v>
       </c>
@@ -28247,12 +28283,14 @@
         <v>0</v>
       </c>
       <c r="J796" t="n">
-        <v>155700</v>
-      </c>
-      <c r="K796" t="inlineStr"/>
+        <v>155500</v>
+      </c>
+      <c r="K796" t="n">
+        <v>155100</v>
+      </c>
       <c r="L796" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M796" t="n">
@@ -28288,9 +28326,11 @@
         <v>0</v>
       </c>
       <c r="J797" t="n">
-        <v>156000</v>
-      </c>
-      <c r="K797" t="inlineStr"/>
+        <v>155900</v>
+      </c>
+      <c r="K797" t="n">
+        <v>155100</v>
+      </c>
       <c r="L797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28323,13 +28363,17 @@
         <v>156760</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I798" t="n">
         <v>0</v>
       </c>
-      <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="J798" t="n">
+        <v>155500</v>
+      </c>
+      <c r="K798" t="n">
+        <v>155100</v>
+      </c>
       <c r="L798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28362,13 +28406,17 @@
         <v>156721.6666666667</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I799" t="n">
         <v>0</v>
       </c>
-      <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="J799" t="n">
+        <v>155500</v>
+      </c>
+      <c r="K799" t="n">
+        <v>155100</v>
+      </c>
       <c r="L799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28401,13 +28449,17 @@
         <v>156680</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I800" t="n">
         <v>0</v>
       </c>
-      <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="J800" t="n">
+        <v>155400</v>
+      </c>
+      <c r="K800" t="n">
+        <v>155100</v>
+      </c>
       <c r="L800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28446,7 +28498,9 @@
         <v>0</v>
       </c>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="n">
+        <v>155100</v>
+      </c>
       <c r="L801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28479,15 +28533,15 @@
         <v>156605</v>
       </c>
       <c r="H802" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I802" t="n">
         <v>0</v>
       </c>
-      <c r="J802" t="n">
-        <v>155500</v>
-      </c>
-      <c r="K802" t="inlineStr"/>
+      <c r="J802" t="inlineStr"/>
+      <c r="K802" t="n">
+        <v>155100</v>
+      </c>
       <c r="L802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28520,15 +28574,15 @@
         <v>156568.3333333333</v>
       </c>
       <c r="H803" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I803" t="n">
         <v>0</v>
       </c>
-      <c r="J803" t="n">
-        <v>155600</v>
-      </c>
-      <c r="K803" t="inlineStr"/>
+      <c r="J803" t="inlineStr"/>
+      <c r="K803" t="n">
+        <v>155100</v>
+      </c>
       <c r="L803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28561,15 +28615,15 @@
         <v>156531.6666666667</v>
       </c>
       <c r="H804" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I804" t="n">
         <v>0</v>
       </c>
-      <c r="J804" t="n">
-        <v>155600</v>
-      </c>
-      <c r="K804" t="inlineStr"/>
+      <c r="J804" t="inlineStr"/>
+      <c r="K804" t="n">
+        <v>155100</v>
+      </c>
       <c r="L804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28602,15 +28656,15 @@
         <v>156495</v>
       </c>
       <c r="H805" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I805" t="n">
         <v>0</v>
       </c>
-      <c r="J805" t="n">
-        <v>155600</v>
-      </c>
-      <c r="K805" t="inlineStr"/>
+      <c r="J805" t="inlineStr"/>
+      <c r="K805" t="n">
+        <v>155100</v>
+      </c>
       <c r="L805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28643,15 +28697,15 @@
         <v>156458.3333333333</v>
       </c>
       <c r="H806" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I806" t="n">
         <v>0</v>
       </c>
-      <c r="J806" t="n">
-        <v>155600</v>
-      </c>
-      <c r="K806" t="inlineStr"/>
+      <c r="J806" t="inlineStr"/>
+      <c r="K806" t="n">
+        <v>155100</v>
+      </c>
       <c r="L806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28684,15 +28738,15 @@
         <v>156423.3333333333</v>
       </c>
       <c r="H807" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I807" t="n">
         <v>0</v>
       </c>
-      <c r="J807" t="n">
-        <v>155600</v>
-      </c>
-      <c r="K807" t="inlineStr"/>
+      <c r="J807" t="inlineStr"/>
+      <c r="K807" t="n">
+        <v>155100</v>
+      </c>
       <c r="L807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28725,15 +28779,15 @@
         <v>156386.6666666667</v>
       </c>
       <c r="H808" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I808" t="n">
         <v>0</v>
       </c>
-      <c r="J808" t="n">
-        <v>155600</v>
-      </c>
-      <c r="K808" t="inlineStr"/>
+      <c r="J808" t="inlineStr"/>
+      <c r="K808" t="n">
+        <v>155100</v>
+      </c>
       <c r="L808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28766,15 +28820,15 @@
         <v>156343.3333333333</v>
       </c>
       <c r="H809" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I809" t="n">
         <v>0</v>
       </c>
-      <c r="J809" t="n">
-        <v>155500</v>
-      </c>
-      <c r="K809" t="inlineStr"/>
+      <c r="J809" t="inlineStr"/>
+      <c r="K809" t="n">
+        <v>155100</v>
+      </c>
       <c r="L809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28807,15 +28861,15 @@
         <v>156301.6666666667</v>
       </c>
       <c r="H810" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I810" t="n">
         <v>0</v>
       </c>
-      <c r="J810" t="n">
-        <v>155500</v>
-      </c>
-      <c r="K810" t="inlineStr"/>
+      <c r="J810" t="inlineStr"/>
+      <c r="K810" t="n">
+        <v>155100</v>
+      </c>
       <c r="L810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28848,15 +28902,15 @@
         <v>156263.3333333333</v>
       </c>
       <c r="H811" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I811" t="n">
         <v>0</v>
       </c>
-      <c r="J811" t="n">
-        <v>155600</v>
-      </c>
-      <c r="K811" t="inlineStr"/>
+      <c r="J811" t="inlineStr"/>
+      <c r="K811" t="n">
+        <v>155100</v>
+      </c>
       <c r="L811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28889,15 +28943,15 @@
         <v>156221.6666666667</v>
       </c>
       <c r="H812" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I812" t="n">
         <v>0</v>
       </c>
-      <c r="J812" t="n">
-        <v>155300</v>
-      </c>
-      <c r="K812" t="inlineStr"/>
+      <c r="J812" t="inlineStr"/>
+      <c r="K812" t="n">
+        <v>155100</v>
+      </c>
       <c r="L812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28930,15 +28984,15 @@
         <v>156180</v>
       </c>
       <c r="H813" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I813" t="n">
         <v>0</v>
       </c>
-      <c r="J813" t="n">
-        <v>155300</v>
-      </c>
-      <c r="K813" t="inlineStr"/>
+      <c r="J813" t="inlineStr"/>
+      <c r="K813" t="n">
+        <v>155100</v>
+      </c>
       <c r="L813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28971,15 +29025,15 @@
         <v>156135</v>
       </c>
       <c r="H814" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I814" t="n">
         <v>0</v>
       </c>
-      <c r="J814" t="n">
-        <v>155300</v>
-      </c>
-      <c r="K814" t="inlineStr"/>
+      <c r="J814" t="inlineStr"/>
+      <c r="K814" t="n">
+        <v>155100</v>
+      </c>
       <c r="L814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29012,15 +29066,15 @@
         <v>156093.3333333333</v>
       </c>
       <c r="H815" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I815" t="n">
         <v>0</v>
       </c>
-      <c r="J815" t="n">
-        <v>155300</v>
-      </c>
-      <c r="K815" t="inlineStr"/>
+      <c r="J815" t="inlineStr"/>
+      <c r="K815" t="n">
+        <v>155100</v>
+      </c>
       <c r="L815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29053,15 +29107,15 @@
         <v>156048.3333333333</v>
       </c>
       <c r="H816" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I816" t="n">
         <v>0</v>
       </c>
-      <c r="J816" t="n">
+      <c r="J816" t="inlineStr"/>
+      <c r="K816" t="n">
         <v>155100</v>
       </c>
-      <c r="K816" t="inlineStr"/>
       <c r="L816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29094,15 +29148,15 @@
         <v>156008.3333333333</v>
       </c>
       <c r="H817" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I817" t="n">
         <v>0</v>
       </c>
-      <c r="J817" t="n">
-        <v>155400</v>
-      </c>
-      <c r="K817" t="inlineStr"/>
+      <c r="J817" t="inlineStr"/>
+      <c r="K817" t="n">
+        <v>155100</v>
+      </c>
       <c r="L817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29135,15 +29189,15 @@
         <v>155965</v>
       </c>
       <c r="H818" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I818" t="n">
         <v>0</v>
       </c>
-      <c r="J818" t="n">
-        <v>155200</v>
-      </c>
-      <c r="K818" t="inlineStr"/>
+      <c r="J818" t="inlineStr"/>
+      <c r="K818" t="n">
+        <v>155100</v>
+      </c>
       <c r="L818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29176,15 +29230,15 @@
         <v>155925</v>
       </c>
       <c r="H819" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I819" t="n">
         <v>0</v>
       </c>
-      <c r="J819" t="n">
-        <v>155500</v>
-      </c>
-      <c r="K819" t="inlineStr"/>
+      <c r="J819" t="inlineStr"/>
+      <c r="K819" t="n">
+        <v>155100</v>
+      </c>
       <c r="L819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29217,15 +29271,15 @@
         <v>155886.6666666667</v>
       </c>
       <c r="H820" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I820" t="n">
         <v>0</v>
       </c>
-      <c r="J820" t="n">
-        <v>155600</v>
-      </c>
-      <c r="K820" t="inlineStr"/>
+      <c r="J820" t="inlineStr"/>
+      <c r="K820" t="n">
+        <v>155100</v>
+      </c>
       <c r="L820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29258,15 +29312,15 @@
         <v>155845</v>
       </c>
       <c r="H821" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I821" t="n">
         <v>0</v>
       </c>
-      <c r="J821" t="n">
-        <v>155300</v>
-      </c>
-      <c r="K821" t="inlineStr"/>
+      <c r="J821" t="inlineStr"/>
+      <c r="K821" t="n">
+        <v>155100</v>
+      </c>
       <c r="L821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29299,15 +29353,15 @@
         <v>155801.6666666667</v>
       </c>
       <c r="H822" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I822" t="n">
         <v>0</v>
       </c>
-      <c r="J822" t="n">
-        <v>155300</v>
-      </c>
-      <c r="K822" t="inlineStr"/>
+      <c r="J822" t="inlineStr"/>
+      <c r="K822" t="n">
+        <v>155100</v>
+      </c>
       <c r="L822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29340,15 +29394,15 @@
         <v>155763.3333333333</v>
       </c>
       <c r="H823" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I823" t="n">
         <v>0</v>
       </c>
-      <c r="J823" t="n">
-        <v>155200</v>
-      </c>
-      <c r="K823" t="inlineStr"/>
+      <c r="J823" t="inlineStr"/>
+      <c r="K823" t="n">
+        <v>155100</v>
+      </c>
       <c r="L823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29381,15 +29435,15 @@
         <v>155725</v>
       </c>
       <c r="H824" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I824" t="n">
         <v>0</v>
       </c>
-      <c r="J824" t="n">
-        <v>155400</v>
-      </c>
-      <c r="K824" t="inlineStr"/>
+      <c r="J824" t="inlineStr"/>
+      <c r="K824" t="n">
+        <v>155100</v>
+      </c>
       <c r="L824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29422,15 +29476,15 @@
         <v>155691.6666666667</v>
       </c>
       <c r="H825" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I825" t="n">
         <v>0</v>
       </c>
-      <c r="J825" t="n">
-        <v>155400</v>
-      </c>
-      <c r="K825" t="inlineStr"/>
+      <c r="J825" t="inlineStr"/>
+      <c r="K825" t="n">
+        <v>155100</v>
+      </c>
       <c r="L825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29463,15 +29517,15 @@
         <v>155655</v>
       </c>
       <c r="H826" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I826" t="n">
         <v>0</v>
       </c>
-      <c r="J826" t="n">
-        <v>155400</v>
-      </c>
-      <c r="K826" t="inlineStr"/>
+      <c r="J826" t="inlineStr"/>
+      <c r="K826" t="n">
+        <v>155100</v>
+      </c>
       <c r="L826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29504,15 +29558,15 @@
         <v>155623.3333333333</v>
       </c>
       <c r="H827" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I827" t="n">
         <v>0</v>
       </c>
-      <c r="J827" t="n">
-        <v>155300</v>
-      </c>
-      <c r="K827" t="inlineStr"/>
+      <c r="J827" t="inlineStr"/>
+      <c r="K827" t="n">
+        <v>155100</v>
+      </c>
       <c r="L827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29545,15 +29599,15 @@
         <v>155591.6666666667</v>
       </c>
       <c r="H828" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I828" t="n">
         <v>0</v>
       </c>
-      <c r="J828" t="n">
-        <v>155400</v>
-      </c>
-      <c r="K828" t="inlineStr"/>
+      <c r="J828" t="inlineStr"/>
+      <c r="K828" t="n">
+        <v>155100</v>
+      </c>
       <c r="L828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29586,15 +29640,15 @@
         <v>155560</v>
       </c>
       <c r="H829" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I829" t="n">
         <v>0</v>
       </c>
-      <c r="J829" t="n">
-        <v>155300</v>
-      </c>
-      <c r="K829" t="inlineStr"/>
+      <c r="J829" t="inlineStr"/>
+      <c r="K829" t="n">
+        <v>155100</v>
+      </c>
       <c r="L829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29627,15 +29681,15 @@
         <v>155533.3333333333</v>
       </c>
       <c r="H830" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I830" t="n">
         <v>0</v>
       </c>
-      <c r="J830" t="n">
-        <v>155300</v>
-      </c>
-      <c r="K830" t="inlineStr"/>
+      <c r="J830" t="inlineStr"/>
+      <c r="K830" t="n">
+        <v>155100</v>
+      </c>
       <c r="L830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29668,15 +29722,15 @@
         <v>155516.6666666667</v>
       </c>
       <c r="H831" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I831" t="n">
         <v>0</v>
       </c>
-      <c r="J831" t="n">
-        <v>155300</v>
-      </c>
-      <c r="K831" t="inlineStr"/>
+      <c r="J831" t="inlineStr"/>
+      <c r="K831" t="n">
+        <v>155100</v>
+      </c>
       <c r="L831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29709,15 +29763,15 @@
         <v>155503.3333333333</v>
       </c>
       <c r="H832" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I832" t="n">
         <v>0</v>
       </c>
-      <c r="J832" t="n">
-        <v>155400</v>
-      </c>
-      <c r="K832" t="inlineStr"/>
+      <c r="J832" t="inlineStr"/>
+      <c r="K832" t="n">
+        <v>155100</v>
+      </c>
       <c r="L832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29750,15 +29804,15 @@
         <v>155485</v>
       </c>
       <c r="H833" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I833" t="n">
         <v>0</v>
       </c>
-      <c r="J833" t="n">
-        <v>155600</v>
-      </c>
-      <c r="K833" t="inlineStr"/>
+      <c r="J833" t="inlineStr"/>
+      <c r="K833" t="n">
+        <v>155100</v>
+      </c>
       <c r="L833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29791,15 +29845,15 @@
         <v>155475</v>
       </c>
       <c r="H834" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I834" t="n">
         <v>0</v>
       </c>
-      <c r="J834" t="n">
-        <v>155500</v>
-      </c>
-      <c r="K834" t="inlineStr"/>
+      <c r="J834" t="inlineStr"/>
+      <c r="K834" t="n">
+        <v>155100</v>
+      </c>
       <c r="L834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29832,15 +29886,15 @@
         <v>155466.6666666667</v>
       </c>
       <c r="H835" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I835" t="n">
         <v>0</v>
       </c>
-      <c r="J835" t="n">
-        <v>155700</v>
-      </c>
-      <c r="K835" t="inlineStr"/>
+      <c r="J835" t="inlineStr"/>
+      <c r="K835" t="n">
+        <v>155100</v>
+      </c>
       <c r="L835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29873,15 +29927,15 @@
         <v>155458.3333333333</v>
       </c>
       <c r="H836" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I836" t="n">
         <v>0</v>
       </c>
-      <c r="J836" t="n">
-        <v>155700</v>
-      </c>
-      <c r="K836" t="inlineStr"/>
+      <c r="J836" t="inlineStr"/>
+      <c r="K836" t="n">
+        <v>155100</v>
+      </c>
       <c r="L836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29914,15 +29968,15 @@
         <v>155446.6666666667</v>
       </c>
       <c r="H837" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I837" t="n">
         <v>0</v>
       </c>
-      <c r="J837" t="n">
-        <v>155700</v>
-      </c>
-      <c r="K837" t="inlineStr"/>
+      <c r="J837" t="inlineStr"/>
+      <c r="K837" t="n">
+        <v>155100</v>
+      </c>
       <c r="L837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29955,15 +30009,15 @@
         <v>155433.3333333333</v>
       </c>
       <c r="H838" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I838" t="n">
         <v>0</v>
       </c>
-      <c r="J838" t="n">
-        <v>155500</v>
-      </c>
-      <c r="K838" t="inlineStr"/>
+      <c r="J838" t="inlineStr"/>
+      <c r="K838" t="n">
+        <v>155100</v>
+      </c>
       <c r="L838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29996,15 +30050,15 @@
         <v>155420</v>
       </c>
       <c r="H839" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I839" t="n">
         <v>0</v>
       </c>
-      <c r="J839" t="n">
-        <v>155400</v>
-      </c>
-      <c r="K839" t="inlineStr"/>
+      <c r="J839" t="inlineStr"/>
+      <c r="K839" t="n">
+        <v>155100</v>
+      </c>
       <c r="L839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30037,15 +30091,15 @@
         <v>155413.3333333333</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I840" t="n">
         <v>0</v>
       </c>
-      <c r="J840" t="n">
-        <v>155500</v>
-      </c>
-      <c r="K840" t="inlineStr"/>
+      <c r="J840" t="inlineStr"/>
+      <c r="K840" t="n">
+        <v>155100</v>
+      </c>
       <c r="L840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30078,15 +30132,15 @@
         <v>155408.3333333333</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I841" t="n">
         <v>0</v>
       </c>
-      <c r="J841" t="n">
-        <v>155700</v>
-      </c>
-      <c r="K841" t="inlineStr"/>
+      <c r="J841" t="inlineStr"/>
+      <c r="K841" t="n">
+        <v>155100</v>
+      </c>
       <c r="L841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30119,15 +30173,15 @@
         <v>155411.6666666667</v>
       </c>
       <c r="H842" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I842" t="n">
         <v>0</v>
       </c>
-      <c r="J842" t="n">
-        <v>155800</v>
-      </c>
-      <c r="K842" t="inlineStr"/>
+      <c r="J842" t="inlineStr"/>
+      <c r="K842" t="n">
+        <v>155100</v>
+      </c>
       <c r="L842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30160,15 +30214,15 @@
         <v>155418.3333333333</v>
       </c>
       <c r="H843" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I843" t="n">
         <v>0</v>
       </c>
-      <c r="J843" t="n">
-        <v>155600</v>
-      </c>
-      <c r="K843" t="inlineStr"/>
+      <c r="J843" t="inlineStr"/>
+      <c r="K843" t="n">
+        <v>155100</v>
+      </c>
       <c r="L843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30201,15 +30255,15 @@
         <v>155425</v>
       </c>
       <c r="H844" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I844" t="n">
         <v>0</v>
       </c>
-      <c r="J844" t="n">
-        <v>155700</v>
-      </c>
-      <c r="K844" t="inlineStr"/>
+      <c r="J844" t="inlineStr"/>
+      <c r="K844" t="n">
+        <v>155100</v>
+      </c>
       <c r="L844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30242,15 +30296,15 @@
         <v>155431.6666666667</v>
       </c>
       <c r="H845" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I845" t="n">
         <v>0</v>
       </c>
-      <c r="J845" t="n">
-        <v>155700</v>
-      </c>
-      <c r="K845" t="inlineStr"/>
+      <c r="J845" t="inlineStr"/>
+      <c r="K845" t="n">
+        <v>155100</v>
+      </c>
       <c r="L845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30283,15 +30337,15 @@
         <v>155438.3333333333</v>
       </c>
       <c r="H846" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I846" t="n">
         <v>0</v>
       </c>
-      <c r="J846" t="n">
-        <v>155600</v>
-      </c>
-      <c r="K846" t="inlineStr"/>
+      <c r="J846" t="inlineStr"/>
+      <c r="K846" t="n">
+        <v>155100</v>
+      </c>
       <c r="L846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30324,15 +30378,15 @@
         <v>155446.6666666667</v>
       </c>
       <c r="H847" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I847" t="n">
         <v>0</v>
       </c>
-      <c r="J847" t="n">
-        <v>155600</v>
-      </c>
-      <c r="K847" t="inlineStr"/>
+      <c r="J847" t="inlineStr"/>
+      <c r="K847" t="n">
+        <v>155100</v>
+      </c>
       <c r="L847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30365,15 +30419,15 @@
         <v>155453.3333333333</v>
       </c>
       <c r="H848" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I848" t="n">
         <v>0</v>
       </c>
-      <c r="J848" t="n">
-        <v>155500</v>
-      </c>
-      <c r="K848" t="inlineStr"/>
+      <c r="J848" t="inlineStr"/>
+      <c r="K848" t="n">
+        <v>155100</v>
+      </c>
       <c r="L848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30406,15 +30460,15 @@
         <v>155460</v>
       </c>
       <c r="H849" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I849" t="n">
         <v>0</v>
       </c>
-      <c r="J849" t="n">
-        <v>155500</v>
-      </c>
-      <c r="K849" t="inlineStr"/>
+      <c r="J849" t="inlineStr"/>
+      <c r="K849" t="n">
+        <v>155100</v>
+      </c>
       <c r="L849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30447,15 +30501,15 @@
         <v>155461.6666666667</v>
       </c>
       <c r="H850" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I850" t="n">
         <v>0</v>
       </c>
-      <c r="J850" t="n">
-        <v>155400</v>
-      </c>
-      <c r="K850" t="inlineStr"/>
+      <c r="J850" t="inlineStr"/>
+      <c r="K850" t="n">
+        <v>155100</v>
+      </c>
       <c r="L850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30488,15 +30542,15 @@
         <v>155461.6666666667</v>
       </c>
       <c r="H851" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I851" t="n">
         <v>0</v>
       </c>
-      <c r="J851" t="n">
-        <v>155400</v>
-      </c>
-      <c r="K851" t="inlineStr"/>
+      <c r="J851" t="inlineStr"/>
+      <c r="K851" t="n">
+        <v>155100</v>
+      </c>
       <c r="L851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30529,15 +30583,15 @@
         <v>155465</v>
       </c>
       <c r="H852" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I852" t="n">
         <v>0</v>
       </c>
-      <c r="J852" t="n">
-        <v>155300</v>
-      </c>
-      <c r="K852" t="inlineStr"/>
+      <c r="J852" t="inlineStr"/>
+      <c r="K852" t="n">
+        <v>155100</v>
+      </c>
       <c r="L852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30570,15 +30624,15 @@
         <v>155471.6666666667</v>
       </c>
       <c r="H853" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I853" t="n">
         <v>0</v>
       </c>
-      <c r="J853" t="n">
-        <v>155500</v>
-      </c>
-      <c r="K853" t="inlineStr"/>
+      <c r="J853" t="inlineStr"/>
+      <c r="K853" t="n">
+        <v>155100</v>
+      </c>
       <c r="L853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30611,15 +30665,15 @@
         <v>155473.3333333333</v>
       </c>
       <c r="H854" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I854" t="n">
         <v>0</v>
       </c>
-      <c r="J854" t="n">
-        <v>155300</v>
-      </c>
-      <c r="K854" t="inlineStr"/>
+      <c r="J854" t="inlineStr"/>
+      <c r="K854" t="n">
+        <v>155100</v>
+      </c>
       <c r="L854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30652,15 +30706,15 @@
         <v>155468.3333333333</v>
       </c>
       <c r="H855" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I855" t="n">
         <v>0</v>
       </c>
-      <c r="J855" t="n">
-        <v>155200</v>
-      </c>
-      <c r="K855" t="inlineStr"/>
+      <c r="J855" t="inlineStr"/>
+      <c r="K855" t="n">
+        <v>155100</v>
+      </c>
       <c r="L855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30693,15 +30747,15 @@
         <v>155456.6666666667</v>
       </c>
       <c r="H856" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I856" t="n">
         <v>0</v>
       </c>
-      <c r="J856" t="n">
-        <v>155200</v>
-      </c>
-      <c r="K856" t="inlineStr"/>
+      <c r="J856" t="inlineStr"/>
+      <c r="K856" t="n">
+        <v>155100</v>
+      </c>
       <c r="L856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30734,15 +30788,15 @@
         <v>155455</v>
       </c>
       <c r="H857" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I857" t="n">
         <v>0</v>
       </c>
-      <c r="J857" t="n">
-        <v>155400</v>
-      </c>
-      <c r="K857" t="inlineStr"/>
+      <c r="J857" t="inlineStr"/>
+      <c r="K857" t="n">
+        <v>155100</v>
+      </c>
       <c r="L857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30775,15 +30829,15 @@
         <v>155453.3333333333</v>
       </c>
       <c r="H858" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I858" t="n">
         <v>0</v>
       </c>
-      <c r="J858" t="n">
-        <v>155400</v>
-      </c>
-      <c r="K858" t="inlineStr"/>
+      <c r="J858" t="inlineStr"/>
+      <c r="K858" t="n">
+        <v>155100</v>
+      </c>
       <c r="L858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30816,15 +30870,15 @@
         <v>155455</v>
       </c>
       <c r="H859" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I859" t="n">
         <v>0</v>
       </c>
-      <c r="J859" t="n">
-        <v>155400</v>
-      </c>
-      <c r="K859" t="inlineStr"/>
+      <c r="J859" t="inlineStr"/>
+      <c r="K859" t="n">
+        <v>155100</v>
+      </c>
       <c r="L859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30857,15 +30911,15 @@
         <v>155456.6666666667</v>
       </c>
       <c r="H860" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I860" t="n">
         <v>0</v>
       </c>
-      <c r="J860" t="n">
-        <v>155500</v>
-      </c>
-      <c r="K860" t="inlineStr"/>
+      <c r="J860" t="inlineStr"/>
+      <c r="K860" t="n">
+        <v>155100</v>
+      </c>
       <c r="L860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30898,15 +30952,15 @@
         <v>155453.3333333333</v>
       </c>
       <c r="H861" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I861" t="n">
         <v>0</v>
       </c>
-      <c r="J861" t="n">
-        <v>155300</v>
-      </c>
-      <c r="K861" t="inlineStr"/>
+      <c r="J861" t="inlineStr"/>
+      <c r="K861" t="n">
+        <v>155100</v>
+      </c>
       <c r="L861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30939,15 +30993,15 @@
         <v>155446.6666666667</v>
       </c>
       <c r="H862" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I862" t="n">
         <v>0</v>
       </c>
-      <c r="J862" t="n">
-        <v>155200</v>
-      </c>
-      <c r="K862" t="inlineStr"/>
+      <c r="J862" t="inlineStr"/>
+      <c r="K862" t="n">
+        <v>155100</v>
+      </c>
       <c r="L862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30980,15 +31034,15 @@
         <v>155440</v>
       </c>
       <c r="H863" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I863" t="n">
         <v>0</v>
       </c>
-      <c r="J863" t="n">
-        <v>155200</v>
-      </c>
-      <c r="K863" t="inlineStr"/>
+      <c r="J863" t="inlineStr"/>
+      <c r="K863" t="n">
+        <v>155100</v>
+      </c>
       <c r="L863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31021,15 +31075,15 @@
         <v>155435</v>
       </c>
       <c r="H864" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I864" t="n">
         <v>0</v>
       </c>
-      <c r="J864" t="n">
-        <v>155400</v>
-      </c>
-      <c r="K864" t="inlineStr"/>
+      <c r="J864" t="inlineStr"/>
+      <c r="K864" t="n">
+        <v>155100</v>
+      </c>
       <c r="L864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31062,15 +31116,15 @@
         <v>155431.6666666667</v>
       </c>
       <c r="H865" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I865" t="n">
         <v>0</v>
       </c>
-      <c r="J865" t="n">
-        <v>155400</v>
-      </c>
-      <c r="K865" t="inlineStr"/>
+      <c r="J865" t="inlineStr"/>
+      <c r="K865" t="n">
+        <v>155100</v>
+      </c>
       <c r="L865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31103,15 +31157,15 @@
         <v>155431.6666666667</v>
       </c>
       <c r="H866" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I866" t="n">
         <v>0</v>
       </c>
-      <c r="J866" t="n">
-        <v>155600</v>
-      </c>
-      <c r="K866" t="inlineStr"/>
+      <c r="J866" t="inlineStr"/>
+      <c r="K866" t="n">
+        <v>155100</v>
+      </c>
       <c r="L866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31144,15 +31198,15 @@
         <v>155431.6666666667</v>
       </c>
       <c r="H867" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I867" t="n">
         <v>0</v>
       </c>
-      <c r="J867" t="n">
-        <v>155700</v>
-      </c>
-      <c r="K867" t="inlineStr"/>
+      <c r="J867" t="inlineStr"/>
+      <c r="K867" t="n">
+        <v>155100</v>
+      </c>
       <c r="L867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31185,15 +31239,15 @@
         <v>155431.6666666667</v>
       </c>
       <c r="H868" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I868" t="n">
         <v>0</v>
       </c>
-      <c r="J868" t="n">
-        <v>155700</v>
-      </c>
-      <c r="K868" t="inlineStr"/>
+      <c r="J868" t="inlineStr"/>
+      <c r="K868" t="n">
+        <v>155100</v>
+      </c>
       <c r="L868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31226,15 +31280,15 @@
         <v>155435</v>
       </c>
       <c r="H869" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I869" t="n">
         <v>0</v>
       </c>
-      <c r="J869" t="n">
-        <v>155600</v>
-      </c>
-      <c r="K869" t="inlineStr"/>
+      <c r="J869" t="inlineStr"/>
+      <c r="K869" t="n">
+        <v>155100</v>
+      </c>
       <c r="L869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31267,15 +31321,15 @@
         <v>155435</v>
       </c>
       <c r="H870" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I870" t="n">
         <v>0</v>
       </c>
-      <c r="J870" t="n">
-        <v>155500</v>
-      </c>
-      <c r="K870" t="inlineStr"/>
+      <c r="J870" t="inlineStr"/>
+      <c r="K870" t="n">
+        <v>155100</v>
+      </c>
       <c r="L870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31308,15 +31362,15 @@
         <v>155431.6666666667</v>
       </c>
       <c r="H871" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I871" t="n">
         <v>0</v>
       </c>
-      <c r="J871" t="n">
-        <v>155300</v>
-      </c>
-      <c r="K871" t="inlineStr"/>
+      <c r="J871" t="inlineStr"/>
+      <c r="K871" t="n">
+        <v>155100</v>
+      </c>
       <c r="L871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31349,15 +31403,15 @@
         <v>155431.6666666667</v>
       </c>
       <c r="H872" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I872" t="n">
         <v>0</v>
       </c>
-      <c r="J872" t="n">
-        <v>155300</v>
-      </c>
-      <c r="K872" t="inlineStr"/>
+      <c r="J872" t="inlineStr"/>
+      <c r="K872" t="n">
+        <v>155100</v>
+      </c>
       <c r="L872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31390,15 +31444,15 @@
         <v>155436.6666666667</v>
       </c>
       <c r="H873" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I873" t="n">
         <v>0</v>
       </c>
-      <c r="J873" t="n">
-        <v>155400</v>
-      </c>
-      <c r="K873" t="inlineStr"/>
+      <c r="J873" t="inlineStr"/>
+      <c r="K873" t="n">
+        <v>155100</v>
+      </c>
       <c r="L873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31431,15 +31485,15 @@
         <v>155436.6666666667</v>
       </c>
       <c r="H874" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I874" t="n">
         <v>0</v>
       </c>
-      <c r="J874" t="n">
-        <v>155400</v>
-      </c>
-      <c r="K874" t="inlineStr"/>
+      <c r="J874" t="inlineStr"/>
+      <c r="K874" t="n">
+        <v>155100</v>
+      </c>
       <c r="L874" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31472,15 +31526,15 @@
         <v>155436.6666666667</v>
       </c>
       <c r="H875" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I875" t="n">
         <v>0</v>
       </c>
-      <c r="J875" t="n">
-        <v>155300</v>
-      </c>
-      <c r="K875" t="inlineStr"/>
+      <c r="J875" t="inlineStr"/>
+      <c r="K875" t="n">
+        <v>155100</v>
+      </c>
       <c r="L875" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31513,15 +31567,15 @@
         <v>155441.6666666667</v>
       </c>
       <c r="H876" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I876" t="n">
         <v>0</v>
       </c>
-      <c r="J876" t="n">
-        <v>155400</v>
-      </c>
-      <c r="K876" t="inlineStr"/>
+      <c r="J876" t="inlineStr"/>
+      <c r="K876" t="n">
+        <v>155100</v>
+      </c>
       <c r="L876" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31554,15 +31608,15 @@
         <v>155441.6666666667</v>
       </c>
       <c r="H877" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I877" t="n">
         <v>0</v>
       </c>
-      <c r="J877" t="n">
-        <v>155400</v>
-      </c>
-      <c r="K877" t="inlineStr"/>
+      <c r="J877" t="inlineStr"/>
+      <c r="K877" t="n">
+        <v>155100</v>
+      </c>
       <c r="L877" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31595,15 +31649,15 @@
         <v>155445</v>
       </c>
       <c r="H878" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I878" t="n">
         <v>0</v>
       </c>
-      <c r="J878" t="n">
-        <v>155400</v>
-      </c>
-      <c r="K878" t="inlineStr"/>
+      <c r="J878" t="inlineStr"/>
+      <c r="K878" t="n">
+        <v>155100</v>
+      </c>
       <c r="L878" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31636,15 +31690,15 @@
         <v>155445</v>
       </c>
       <c r="H879" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I879" t="n">
         <v>0</v>
       </c>
-      <c r="J879" t="n">
-        <v>155400</v>
-      </c>
-      <c r="K879" t="inlineStr"/>
+      <c r="J879" t="inlineStr"/>
+      <c r="K879" t="n">
+        <v>155100</v>
+      </c>
       <c r="L879" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31677,15 +31731,15 @@
         <v>155445</v>
       </c>
       <c r="H880" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I880" t="n">
         <v>0</v>
       </c>
-      <c r="J880" t="n">
-        <v>155500</v>
-      </c>
-      <c r="K880" t="inlineStr"/>
+      <c r="J880" t="inlineStr"/>
+      <c r="K880" t="n">
+        <v>155100</v>
+      </c>
       <c r="L880" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31718,15 +31772,15 @@
         <v>155453.3333333333</v>
       </c>
       <c r="H881" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I881" t="n">
         <v>0</v>
       </c>
-      <c r="J881" t="n">
-        <v>155800</v>
-      </c>
-      <c r="K881" t="inlineStr"/>
+      <c r="J881" t="inlineStr"/>
+      <c r="K881" t="n">
+        <v>155100</v>
+      </c>
       <c r="L881" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31759,15 +31813,15 @@
         <v>155463.3333333333</v>
       </c>
       <c r="H882" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I882" t="n">
         <v>0</v>
       </c>
-      <c r="J882" t="n">
-        <v>155900</v>
-      </c>
-      <c r="K882" t="inlineStr"/>
+      <c r="J882" t="inlineStr"/>
+      <c r="K882" t="n">
+        <v>155100</v>
+      </c>
       <c r="L882" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31800,15 +31854,15 @@
         <v>155473.3333333333</v>
       </c>
       <c r="H883" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I883" t="n">
         <v>0</v>
       </c>
-      <c r="J883" t="n">
-        <v>156100</v>
-      </c>
-      <c r="K883" t="inlineStr"/>
+      <c r="J883" t="inlineStr"/>
+      <c r="K883" t="n">
+        <v>155100</v>
+      </c>
       <c r="L883" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31841,15 +31895,15 @@
         <v>155480</v>
       </c>
       <c r="H884" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I884" t="n">
         <v>0</v>
       </c>
-      <c r="J884" t="n">
-        <v>155800</v>
-      </c>
-      <c r="K884" t="inlineStr"/>
+      <c r="J884" t="inlineStr"/>
+      <c r="K884" t="n">
+        <v>155100</v>
+      </c>
       <c r="L884" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31882,15 +31936,15 @@
         <v>155488.3333333333</v>
       </c>
       <c r="H885" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I885" t="n">
         <v>0</v>
       </c>
-      <c r="J885" t="n">
-        <v>156000</v>
-      </c>
-      <c r="K885" t="inlineStr"/>
+      <c r="J885" t="inlineStr"/>
+      <c r="K885" t="n">
+        <v>155100</v>
+      </c>
       <c r="L885" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31923,15 +31977,15 @@
         <v>155493.3333333333</v>
       </c>
       <c r="H886" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I886" t="n">
         <v>0</v>
       </c>
-      <c r="J886" t="n">
-        <v>155900</v>
-      </c>
-      <c r="K886" t="inlineStr"/>
+      <c r="J886" t="inlineStr"/>
+      <c r="K886" t="n">
+        <v>155100</v>
+      </c>
       <c r="L886" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31964,15 +32018,15 @@
         <v>155500</v>
       </c>
       <c r="H887" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I887" t="n">
         <v>0</v>
       </c>
-      <c r="J887" t="n">
-        <v>155900</v>
-      </c>
-      <c r="K887" t="inlineStr"/>
+      <c r="J887" t="inlineStr"/>
+      <c r="K887" t="n">
+        <v>155100</v>
+      </c>
       <c r="L887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32005,15 +32059,15 @@
         <v>155511.6666666667</v>
       </c>
       <c r="H888" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I888" t="n">
         <v>0</v>
       </c>
-      <c r="J888" t="n">
-        <v>156100</v>
-      </c>
-      <c r="K888" t="inlineStr"/>
+      <c r="J888" t="inlineStr"/>
+      <c r="K888" t="n">
+        <v>155100</v>
+      </c>
       <c r="L888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32046,15 +32100,15 @@
         <v>155525</v>
       </c>
       <c r="H889" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I889" t="n">
         <v>0</v>
       </c>
-      <c r="J889" t="n">
-        <v>156000</v>
-      </c>
-      <c r="K889" t="inlineStr"/>
+      <c r="J889" t="inlineStr"/>
+      <c r="K889" t="n">
+        <v>155100</v>
+      </c>
       <c r="L889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32093,7 +32147,9 @@
         <v>0</v>
       </c>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="n">
+        <v>155100</v>
+      </c>
       <c r="L890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32132,7 +32188,9 @@
         <v>0</v>
       </c>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="n">
+        <v>155100</v>
+      </c>
       <c r="L891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32171,7 +32229,9 @@
         <v>0</v>
       </c>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="n">
+        <v>155100</v>
+      </c>
       <c r="L892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32210,7 +32270,9 @@
         <v>0</v>
       </c>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="n">
+        <v>155100</v>
+      </c>
       <c r="L893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32249,7 +32311,9 @@
         <v>0</v>
       </c>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="n">
+        <v>155100</v>
+      </c>
       <c r="L894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32288,7 +32352,9 @@
         <v>0</v>
       </c>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="n">
+        <v>155100</v>
+      </c>
       <c r="L895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32327,7 +32393,9 @@
         <v>0</v>
       </c>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="n">
+        <v>155100</v>
+      </c>
       <c r="L896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32366,7 +32434,9 @@
         <v>0</v>
       </c>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="n">
+        <v>155100</v>
+      </c>
       <c r="L897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32405,7 +32475,9 @@
         <v>0</v>
       </c>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="n">
+        <v>155100</v>
+      </c>
       <c r="L898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32444,7 +32516,9 @@
         <v>0</v>
       </c>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="n">
+        <v>155100</v>
+      </c>
       <c r="L899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32483,7 +32557,9 @@
         <v>0</v>
       </c>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="n">
+        <v>155100</v>
+      </c>
       <c r="L900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32522,7 +32598,9 @@
         <v>0</v>
       </c>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="n">
+        <v>155100</v>
+      </c>
       <c r="L901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32561,7 +32639,9 @@
         <v>0</v>
       </c>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="n">
+        <v>155100</v>
+      </c>
       <c r="L902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32600,7 +32680,9 @@
         <v>0</v>
       </c>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="n">
+        <v>155100</v>
+      </c>
       <c r="L903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32639,7 +32721,9 @@
         <v>0</v>
       </c>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="n">
+        <v>155100</v>
+      </c>
       <c r="L904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32678,7 +32762,9 @@
         <v>0</v>
       </c>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="n">
+        <v>155100</v>
+      </c>
       <c r="L905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32717,7 +32803,9 @@
         <v>0</v>
       </c>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="n">
+        <v>155100</v>
+      </c>
       <c r="L906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32756,7 +32844,9 @@
         <v>0</v>
       </c>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="n">
+        <v>155100</v>
+      </c>
       <c r="L907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32795,7 +32885,9 @@
         <v>0</v>
       </c>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="n">
+        <v>155100</v>
+      </c>
       <c r="L908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32834,7 +32926,9 @@
         <v>0</v>
       </c>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="n">
+        <v>155100</v>
+      </c>
       <c r="L909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32870,17 +32964,19 @@
         <v>0</v>
       </c>
       <c r="I910" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="n">
+        <v>155100</v>
+      </c>
       <c r="L910" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M910" t="n">
-        <v>1</v>
+        <v>1.013052869116699</v>
       </c>
     </row>
     <row r="911">
@@ -32913,11 +33009,7 @@
       </c>
       <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr"/>
-      <c r="L911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L911" t="inlineStr"/>
       <c r="M911" t="n">
         <v>1</v>
       </c>
@@ -32952,11 +33044,7 @@
       </c>
       <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr"/>
-      <c r="L912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L912" t="inlineStr"/>
       <c r="M912" t="n">
         <v>1</v>
       </c>
@@ -32991,11 +33079,7 @@
       </c>
       <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr"/>
-      <c r="L913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L913" t="inlineStr"/>
       <c r="M913" t="n">
         <v>1</v>
       </c>
@@ -33030,11 +33114,7 @@
       </c>
       <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr"/>
-      <c r="L914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L914" t="inlineStr"/>
       <c r="M914" t="n">
         <v>1</v>
       </c>
@@ -33069,11 +33149,7 @@
       </c>
       <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr"/>
-      <c r="L915" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L915" t="inlineStr"/>
       <c r="M915" t="n">
         <v>1</v>
       </c>
@@ -33108,11 +33184,7 @@
       </c>
       <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr"/>
-      <c r="L916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L916" t="inlineStr"/>
       <c r="M916" t="n">
         <v>1</v>
       </c>
@@ -33147,11 +33219,7 @@
       </c>
       <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr"/>
-      <c r="L917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L917" t="inlineStr"/>
       <c r="M917" t="n">
         <v>1</v>
       </c>
@@ -33186,11 +33254,7 @@
       </c>
       <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr"/>
-      <c r="L918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L918" t="inlineStr"/>
       <c r="M918" t="n">
         <v>1</v>
       </c>
@@ -33225,11 +33289,7 @@
       </c>
       <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr"/>
-      <c r="L919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L919" t="inlineStr"/>
       <c r="M919" t="n">
         <v>1</v>
       </c>
@@ -33264,11 +33324,7 @@
       </c>
       <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr"/>
-      <c r="L920" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L920" t="inlineStr"/>
       <c r="M920" t="n">
         <v>1</v>
       </c>
@@ -33303,11 +33359,7 @@
       </c>
       <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr"/>
-      <c r="L921" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L921" t="inlineStr"/>
       <c r="M921" t="n">
         <v>1</v>
       </c>
@@ -33342,11 +33394,7 @@
       </c>
       <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr"/>
-      <c r="L922" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L922" t="inlineStr"/>
       <c r="M922" t="n">
         <v>1</v>
       </c>
@@ -33381,11 +33429,7 @@
       </c>
       <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr"/>
-      <c r="L923" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L923" t="inlineStr"/>
       <c r="M923" t="n">
         <v>1</v>
       </c>
@@ -33420,11 +33464,7 @@
       </c>
       <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr"/>
-      <c r="L924" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L924" t="inlineStr"/>
       <c r="M924" t="n">
         <v>1</v>
       </c>
@@ -33459,11 +33499,7 @@
       </c>
       <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr"/>
-      <c r="L925" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L925" t="inlineStr"/>
       <c r="M925" t="n">
         <v>1</v>
       </c>
@@ -33498,11 +33534,7 @@
       </c>
       <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr"/>
-      <c r="L926" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L926" t="inlineStr"/>
       <c r="M926" t="n">
         <v>1</v>
       </c>
@@ -33537,11 +33569,7 @@
       </c>
       <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr"/>
-      <c r="L927" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L927" t="inlineStr"/>
       <c r="M927" t="n">
         <v>1</v>
       </c>
@@ -33576,11 +33604,7 @@
       </c>
       <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr"/>
-      <c r="L928" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L928" t="inlineStr"/>
       <c r="M928" t="n">
         <v>1</v>
       </c>
@@ -33615,11 +33639,7 @@
       </c>
       <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr"/>
-      <c r="L929" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L929" t="inlineStr"/>
       <c r="M929" t="n">
         <v>1</v>
       </c>
@@ -33654,11 +33674,7 @@
       </c>
       <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr"/>
-      <c r="L930" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L930" t="inlineStr"/>
       <c r="M930" t="n">
         <v>1</v>
       </c>
@@ -33693,11 +33709,7 @@
       </c>
       <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr"/>
-      <c r="L931" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L931" t="inlineStr"/>
       <c r="M931" t="n">
         <v>1</v>
       </c>
@@ -33732,11 +33744,7 @@
       </c>
       <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr"/>
-      <c r="L932" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L932" t="inlineStr"/>
       <c r="M932" t="n">
         <v>1</v>
       </c>
@@ -33771,11 +33779,7 @@
       </c>
       <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr"/>
-      <c r="L933" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L933" t="inlineStr"/>
       <c r="M933" t="n">
         <v>1</v>
       </c>
@@ -33810,11 +33814,7 @@
       </c>
       <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr"/>
-      <c r="L934" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L934" t="inlineStr"/>
       <c r="M934" t="n">
         <v>1</v>
       </c>
@@ -33849,11 +33849,7 @@
       </c>
       <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr"/>
-      <c r="L935" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L935" t="inlineStr"/>
       <c r="M935" t="n">
         <v>1</v>
       </c>
@@ -33888,11 +33884,7 @@
       </c>
       <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr"/>
-      <c r="L936" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L936" t="inlineStr"/>
       <c r="M936" t="n">
         <v>1</v>
       </c>
@@ -33927,11 +33919,7 @@
       </c>
       <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr"/>
-      <c r="L937" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L937" t="inlineStr"/>
       <c r="M937" t="n">
         <v>1</v>
       </c>
@@ -33966,11 +33954,7 @@
       </c>
       <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr"/>
-      <c r="L938" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L938" t="inlineStr"/>
       <c r="M938" t="n">
         <v>1</v>
       </c>
@@ -34005,11 +33989,7 @@
       </c>
       <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr"/>
-      <c r="L939" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L939" t="inlineStr"/>
       <c r="M939" t="n">
         <v>1</v>
       </c>
@@ -34044,11 +34024,7 @@
       </c>
       <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr"/>
-      <c r="L940" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L940" t="inlineStr"/>
       <c r="M940" t="n">
         <v>1</v>
       </c>
@@ -34083,11 +34059,7 @@
       </c>
       <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr"/>
-      <c r="L941" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L941" t="inlineStr"/>
       <c r="M941" t="n">
         <v>1</v>
       </c>
@@ -34122,11 +34094,7 @@
       </c>
       <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr"/>
-      <c r="L942" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L942" t="inlineStr"/>
       <c r="M942" t="n">
         <v>1</v>
       </c>
@@ -34161,11 +34129,7 @@
       </c>
       <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr"/>
-      <c r="L943" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L943" t="inlineStr"/>
       <c r="M943" t="n">
         <v>1</v>
       </c>
@@ -34200,11 +34164,7 @@
       </c>
       <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr"/>
-      <c r="L944" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L944" t="inlineStr"/>
       <c r="M944" t="n">
         <v>1</v>
       </c>
@@ -34239,11 +34199,7 @@
       </c>
       <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr"/>
-      <c r="L945" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L945" t="inlineStr"/>
       <c r="M945" t="n">
         <v>1</v>
       </c>
@@ -34278,11 +34234,7 @@
       </c>
       <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr"/>
-      <c r="L946" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L946" t="inlineStr"/>
       <c r="M946" t="n">
         <v>1</v>
       </c>
@@ -34317,11 +34269,7 @@
       </c>
       <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr"/>
-      <c r="L947" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L947" t="inlineStr"/>
       <c r="M947" t="n">
         <v>1</v>
       </c>
@@ -34356,11 +34304,7 @@
       </c>
       <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr"/>
-      <c r="L948" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L948" t="inlineStr"/>
       <c r="M948" t="n">
         <v>1</v>
       </c>
@@ -34395,11 +34339,7 @@
       </c>
       <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr"/>
-      <c r="L949" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L949" t="inlineStr"/>
       <c r="M949" t="n">
         <v>1</v>
       </c>
@@ -34434,11 +34374,7 @@
       </c>
       <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr"/>
-      <c r="L950" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L950" t="inlineStr"/>
       <c r="M950" t="n">
         <v>1</v>
       </c>
@@ -34473,11 +34409,7 @@
       </c>
       <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr"/>
-      <c r="L951" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L951" t="inlineStr"/>
       <c r="M951" t="n">
         <v>1</v>
       </c>
@@ -34512,11 +34444,7 @@
       </c>
       <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr"/>
-      <c r="L952" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L952" t="inlineStr"/>
       <c r="M952" t="n">
         <v>1</v>
       </c>
@@ -34551,11 +34479,7 @@
       </c>
       <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr"/>
-      <c r="L953" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L953" t="inlineStr"/>
       <c r="M953" t="n">
         <v>1</v>
       </c>
@@ -34590,11 +34514,7 @@
       </c>
       <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr"/>
-      <c r="L954" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L954" t="inlineStr"/>
       <c r="M954" t="n">
         <v>1</v>
       </c>
@@ -34629,11 +34549,7 @@
       </c>
       <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr"/>
-      <c r="L955" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L955" t="inlineStr"/>
       <c r="M955" t="n">
         <v>1</v>
       </c>
@@ -34668,11 +34584,7 @@
       </c>
       <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr"/>
-      <c r="L956" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L956" t="inlineStr"/>
       <c r="M956" t="n">
         <v>1</v>
       </c>
@@ -34707,11 +34619,7 @@
       </c>
       <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr"/>
-      <c r="L957" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L957" t="inlineStr"/>
       <c r="M957" t="n">
         <v>1</v>
       </c>
@@ -34746,11 +34654,7 @@
       </c>
       <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr"/>
-      <c r="L958" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L958" t="inlineStr"/>
       <c r="M958" t="n">
         <v>1</v>
       </c>
@@ -34785,11 +34689,7 @@
       </c>
       <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr"/>
-      <c r="L959" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L959" t="inlineStr"/>
       <c r="M959" t="n">
         <v>1</v>
       </c>
@@ -34824,11 +34724,7 @@
       </c>
       <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr"/>
-      <c r="L960" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L960" t="inlineStr"/>
       <c r="M960" t="n">
         <v>1</v>
       </c>
@@ -34863,11 +34759,7 @@
       </c>
       <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr"/>
-      <c r="L961" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L961" t="inlineStr"/>
       <c r="M961" t="n">
         <v>1</v>
       </c>
@@ -34902,11 +34794,7 @@
       </c>
       <c r="J962" t="inlineStr"/>
       <c r="K962" t="inlineStr"/>
-      <c r="L962" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L962" t="inlineStr"/>
       <c r="M962" t="n">
         <v>1</v>
       </c>
@@ -34941,11 +34829,7 @@
       </c>
       <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr"/>
-      <c r="L963" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L963" t="inlineStr"/>
       <c r="M963" t="n">
         <v>1</v>
       </c>
@@ -34980,11 +34864,7 @@
       </c>
       <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr"/>
-      <c r="L964" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L964" t="inlineStr"/>
       <c r="M964" t="n">
         <v>1</v>
       </c>
@@ -35019,11 +34899,7 @@
       </c>
       <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr"/>
-      <c r="L965" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L965" t="inlineStr"/>
       <c r="M965" t="n">
         <v>1</v>
       </c>
@@ -35058,11 +34934,7 @@
       </c>
       <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr"/>
-      <c r="L966" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L966" t="inlineStr"/>
       <c r="M966" t="n">
         <v>1</v>
       </c>
@@ -35097,11 +34969,7 @@
       </c>
       <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr"/>
-      <c r="L967" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L967" t="inlineStr"/>
       <c r="M967" t="n">
         <v>1</v>
       </c>
@@ -35136,11 +35004,7 @@
       </c>
       <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr"/>
-      <c r="L968" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L968" t="inlineStr"/>
       <c r="M968" t="n">
         <v>1</v>
       </c>
@@ -35175,11 +35039,7 @@
       </c>
       <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr"/>
-      <c r="L969" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L969" t="inlineStr"/>
       <c r="M969" t="n">
         <v>1</v>
       </c>
@@ -35214,11 +35074,7 @@
       </c>
       <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr"/>
-      <c r="L970" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L970" t="inlineStr"/>
       <c r="M970" t="n">
         <v>1</v>
       </c>
@@ -35253,11 +35109,7 @@
       </c>
       <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr"/>
-      <c r="L971" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L971" t="inlineStr"/>
       <c r="M971" t="n">
         <v>1</v>
       </c>
@@ -35292,11 +35144,7 @@
       </c>
       <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr"/>
-      <c r="L972" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L972" t="inlineStr"/>
       <c r="M972" t="n">
         <v>1</v>
       </c>
@@ -35331,11 +35179,7 @@
       </c>
       <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr"/>
-      <c r="L973" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L973" t="inlineStr"/>
       <c r="M973" t="n">
         <v>1</v>
       </c>
@@ -35370,11 +35214,7 @@
       </c>
       <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr"/>
-      <c r="L974" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L974" t="inlineStr"/>
       <c r="M974" t="n">
         <v>1</v>
       </c>
@@ -35409,11 +35249,7 @@
       </c>
       <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr"/>
-      <c r="L975" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L975" t="inlineStr"/>
       <c r="M975" t="n">
         <v>1</v>
       </c>
@@ -35448,11 +35284,7 @@
       </c>
       <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr"/>
-      <c r="L976" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L976" t="inlineStr"/>
       <c r="M976" t="n">
         <v>1</v>
       </c>
@@ -35487,11 +35319,7 @@
       </c>
       <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr"/>
-      <c r="L977" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L977" t="inlineStr"/>
       <c r="M977" t="n">
         <v>1</v>
       </c>
@@ -35526,11 +35354,7 @@
       </c>
       <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr"/>
-      <c r="L978" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L978" t="inlineStr"/>
       <c r="M978" t="n">
         <v>1</v>
       </c>
@@ -35565,11 +35389,7 @@
       </c>
       <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr"/>
-      <c r="L979" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L979" t="inlineStr"/>
       <c r="M979" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-10 BackTest ETH.xlsx
+++ b/BackTest/2020-01-10 BackTest ETH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-55.16827920049975</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-81.49477920049975</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-81.49477920049975</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-27.68797920049975</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>40.68312079950025</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-8.009379200499751</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-8.009379200499751</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>26.16862079950025</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>33.46337257614999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>29.75337257614999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-27.08462742385001</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-55.31002742385001</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-55.31002742385001</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-92.82472742385001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>113.59937257615</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>303.75167257615</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>370.66767257615</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>370.66767257615</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>377.8608651259259</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>377.8608651259259</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>419.8564651259259</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>416.233165125926</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>413.286065125926</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>413.286065125926</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>430.457265125926</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>433.4532299279373</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>400.1786299279373</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>552.4337299279373</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>555.9111299279373</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>545.3267299279373</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>588.6544299279374</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>617.1958299279373</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>565.7058299279373</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>565.9272299279373</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>565.9272299279373</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>565.9272299279373</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>565.2148299279373</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>565.2148299279373</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>527.1082250815556</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>530.9288250815556</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>531.4288250815556</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>532.7629250815556</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>467.5928250815556</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>546.9829250815557</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>574.5873250815557</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>517.6976250815558</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>442.6533888370143</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>473.7694888370143</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>376.6951888370143</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>383.6880014928747</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>382.8645014928746</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>382.8645014928746</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>395.9000014928747</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>447.2048014928747</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>447.2048014928747</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>447.2048014928747</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>501.6323014928746</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>370.1225014928746</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>384.4092014928746</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>451.4376014928746</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>423.1352014928746</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>441.8250014928746</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>264.9176014928746</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>264.9176014928746</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>166.9434014928746</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>130.4773014928746</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>154.9000014928746</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>93.24770149287463</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>93.24770149287463</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>98.68400149287463</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>92.94180149287463</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>98.27870149287463</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>76.14060149287462</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>76.14060149287462</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>73.14060149287462</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>67.73160149287462</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>56.75540149287462</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>33.90070149287462</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>44.82860149287462</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>2.505901492874615</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>2.505901492874615</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-153.0766985071254</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-153.2719985071254</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-153.2719985071254</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-153.2719985071254</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-153.2719985071254</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-195.9338985071254</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-127.5076985071254</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-133.5684985071254</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-133.5684985071254</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-133.5684985071254</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-117.6142978762106</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-390.4425978762106</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-358.6642978762106</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-645.0287978762105</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-480.3434978762106</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-464.1605978762105</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-464.1605978762105</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-478.2315978762106</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-478.2315978762106</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-476.8315978762106</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-607.6408422606903</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-633.6408422606903</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-633.3713913834973</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-663.3713913834973</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-663.3713913834973</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-641.0834913834973</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-641.0834913834973</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-608.8788851178331</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-608.8788851178331</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-608.8488851178331</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-937.1563851178331</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-938.7953851178331</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-938.7953851178331</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-938.7953851178331</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-938.7953851178331</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-938.7953851178331</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-931.1837851178332</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-938.3850851178331</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-938.3850851178331</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-1061.226070679666</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-1068.660970679666</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-1068.660970679666</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-1052.741570679666</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-1052.741570679666</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-1058.682970679666</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-1058.682970679666</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-974.8166882457731</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -28369,10 +28369,14 @@
         <v>-3420.920770757321</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>155100</v>
+      </c>
+      <c r="J848" t="n">
+        <v>155100</v>
+      </c>
       <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
@@ -28402,11 +28406,19 @@
         <v>-3334.107870757321</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>155100</v>
+      </c>
+      <c r="J849" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28435,11 +28447,19 @@
         <v>-3331.078270757321</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>155300</v>
+      </c>
+      <c r="J850" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28468,11 +28488,19 @@
         <v>-3344.829270757321</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I851" t="n">
+        <v>155400</v>
+      </c>
+      <c r="J851" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28501,11 +28529,19 @@
         <v>-3344.829270757321</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I852" t="n">
+        <v>155100</v>
+      </c>
+      <c r="J852" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28534,11 +28570,19 @@
         <v>-3325.877070757321</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I853" t="n">
+        <v>155100</v>
+      </c>
+      <c r="J853" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28567,11 +28611,19 @@
         <v>-3269.347970757321</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
-      </c>
-      <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I854" t="n">
+        <v>155200</v>
+      </c>
+      <c r="J854" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28600,11 +28652,19 @@
         <v>-3209.628770757321</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>155500</v>
+      </c>
+      <c r="J855" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28633,11 +28693,19 @@
         <v>-3227.753870757321</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>155900</v>
+      </c>
+      <c r="J856" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28666,11 +28734,19 @@
         <v>-3227.753870757321</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
-      <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>155500</v>
+      </c>
+      <c r="J857" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28699,11 +28775,19 @@
         <v>-3231.096270757321</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
-      <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>155500</v>
+      </c>
+      <c r="J858" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -28732,11 +28816,19 @@
         <v>-3231.096270757321</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
-      <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I859" t="n">
+        <v>155400</v>
+      </c>
+      <c r="J859" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -28765,11 +28857,19 @@
         <v>-3226.096270757321</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
-      </c>
-      <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I860" t="n">
+        <v>155400</v>
+      </c>
+      <c r="J860" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -28798,11 +28898,19 @@
         <v>-3194.626570757321</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
-      <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I861" t="n">
+        <v>155500</v>
+      </c>
+      <c r="J861" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -28834,8 +28942,14 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="J862" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -28864,11 +28978,19 @@
         <v>-3181.566870757321</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
-      <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I863" t="n">
+        <v>155600</v>
+      </c>
+      <c r="J863" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -28897,11 +29019,19 @@
         <v>-3182.786170757322</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
-      <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I864" t="n">
+        <v>155700</v>
+      </c>
+      <c r="J864" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -28930,11 +29060,19 @@
         <v>-3182.786170757322</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
-      <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>155600</v>
+      </c>
+      <c r="J865" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -28966,8 +29104,14 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="J866" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -28999,8 +29143,14 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="J867" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29029,11 +29179,19 @@
         <v>-3186.421470757321</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
-      <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>155700</v>
+      </c>
+      <c r="J868" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29062,11 +29220,19 @@
         <v>-3186.391470757321</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
-      <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>155400</v>
+      </c>
+      <c r="J869" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29095,11 +29261,19 @@
         <v>-3186.391470757321</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
-      <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>155500</v>
+      </c>
+      <c r="J870" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29128,11 +29302,19 @@
         <v>-3186.658270757321</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
-      <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>155500</v>
+      </c>
+      <c r="J871" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29161,11 +29343,19 @@
         <v>-3186.658270757321</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
-      <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>155300</v>
+      </c>
+      <c r="J872" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29194,11 +29384,19 @@
         <v>-3186.658270757321</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
-      <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I873" t="n">
+        <v>155300</v>
+      </c>
+      <c r="J873" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29227,11 +29425,19 @@
         <v>-3186.658270757321</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
-      <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>155300</v>
+      </c>
+      <c r="J874" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29263,8 +29469,14 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="J875" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29293,11 +29505,19 @@
         <v>-3207.534270757321</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
-      </c>
-      <c r="I876" t="inlineStr"/>
-      <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I876" t="n">
+        <v>155100</v>
+      </c>
+      <c r="J876" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29326,11 +29546,19 @@
         <v>-3216.234170757321</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
-      <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I877" t="n">
+        <v>155400</v>
+      </c>
+      <c r="J877" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29359,11 +29587,19 @@
         <v>-3201.234170757321</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
-      <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I878" t="n">
+        <v>155200</v>
+      </c>
+      <c r="J878" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29392,11 +29628,19 @@
         <v>-3199.082270757322</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
-      <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I879" t="n">
+        <v>155400</v>
+      </c>
+      <c r="J879" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29428,8 +29672,14 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="J880" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29458,11 +29708,19 @@
         <v>-3202.964270757322</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
-      </c>
-      <c r="I881" t="inlineStr"/>
-      <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I881" t="n">
+        <v>155300</v>
+      </c>
+      <c r="J881" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29494,8 +29752,14 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="J882" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29524,11 +29788,19 @@
         <v>-3192.804070757322</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
-      <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I883" t="n">
+        <v>155500</v>
+      </c>
+      <c r="J883" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29557,11 +29829,19 @@
         <v>-3192.804070757322</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
-      <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>155400</v>
+      </c>
+      <c r="J884" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -29590,11 +29870,19 @@
         <v>-3192.804070757322</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
-      <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>155400</v>
+      </c>
+      <c r="J885" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -29623,11 +29911,19 @@
         <v>-3168.441070757322</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
-      <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>155400</v>
+      </c>
+      <c r="J886" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -29656,11 +29952,19 @@
         <v>-3168.731270757322</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
-      <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>155500</v>
+      </c>
+      <c r="J887" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -29689,11 +29993,19 @@
         <v>-3176.467670757322</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
-      <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>155400</v>
+      </c>
+      <c r="J888" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -29722,11 +30034,19 @@
         <v>-3176.467670757322</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
-      <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I889" t="n">
+        <v>155300</v>
+      </c>
+      <c r="J889" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -29755,11 +30075,19 @@
         <v>-3176.467670757322</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
-      </c>
-      <c r="I890" t="inlineStr"/>
-      <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I890" t="n">
+        <v>155300</v>
+      </c>
+      <c r="J890" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -29788,11 +30116,19 @@
         <v>-3176.191570757322</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
-      <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I891" t="n">
+        <v>155300</v>
+      </c>
+      <c r="J891" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -29821,11 +30157,19 @@
         <v>-3176.191570757322</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
-      <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>155400</v>
+      </c>
+      <c r="J892" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -29857,8 +30201,14 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="J893" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -29890,8 +30240,14 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="J894" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -29923,8 +30279,14 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="J895" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -29956,8 +30318,14 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="J896" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -29986,11 +30354,19 @@
         <v>-3200.454170757322</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
-      <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>155500</v>
+      </c>
+      <c r="J897" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30019,11 +30395,19 @@
         <v>-3200.454170757322</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
-      <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>155300</v>
+      </c>
+      <c r="J898" t="n">
+        <v>155100</v>
+      </c>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30052,15 +30436,19 @@
         <v>-3199.755370757322</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I899" t="n">
         <v>155300</v>
       </c>
       <c r="J899" t="n">
-        <v>155300</v>
-      </c>
-      <c r="K899" t="inlineStr"/>
+        <v>155100</v>
+      </c>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30089,17 +30477,17 @@
         <v>-3198.756070757322</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I900" t="n">
         <v>155600</v>
       </c>
       <c r="J900" t="n">
-        <v>155300</v>
+        <v>155100</v>
       </c>
       <c r="K900" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L900" t="n">
@@ -30130,17 +30518,17 @@
         <v>-3198.123970757322</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I901" t="n">
         <v>155700</v>
       </c>
       <c r="J901" t="n">
-        <v>155300</v>
+        <v>155100</v>
       </c>
       <c r="K901" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L901" t="n">
@@ -30171,15 +30559,19 @@
         <v>-3198.268970757322</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I902" t="n">
         <v>155800</v>
       </c>
       <c r="J902" t="n">
-        <v>155800</v>
-      </c>
-      <c r="K902" t="inlineStr"/>
+        <v>155100</v>
+      </c>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30208,17 +30600,17 @@
         <v>-3198.268970757322</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I903" t="n">
         <v>155600</v>
       </c>
       <c r="J903" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K903" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L903" t="n">
@@ -30249,13 +30641,13 @@
         <v>-3198.268970757322</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I904" t="n">
         <v>155600</v>
       </c>
       <c r="J904" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K904" t="inlineStr">
         <is>
@@ -30290,13 +30682,13 @@
         <v>-3198.268970757322</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I905" t="n">
         <v>155600</v>
       </c>
       <c r="J905" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K905" t="inlineStr">
         <is>
@@ -30331,11 +30723,13 @@
         <v>-3204.166470757322</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
-      </c>
-      <c r="I906" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I906" t="n">
+        <v>155600</v>
+      </c>
       <c r="J906" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K906" t="inlineStr">
         <is>
@@ -30370,11 +30764,13 @@
         <v>-3204.166470757322</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
-      </c>
-      <c r="I907" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I907" t="n">
+        <v>155500</v>
+      </c>
       <c r="J907" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K907" t="inlineStr">
         <is>
@@ -30409,13 +30805,13 @@
         <v>-3204.166470757322</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I908" t="n">
         <v>155500</v>
       </c>
       <c r="J908" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K908" t="inlineStr">
         <is>
@@ -30450,13 +30846,13 @@
         <v>-3209.016670757322</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I909" t="n">
         <v>155500</v>
       </c>
       <c r="J909" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K909" t="inlineStr">
         <is>
@@ -30491,13 +30887,13 @@
         <v>-3209.016670757322</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I910" t="n">
         <v>155400</v>
       </c>
       <c r="J910" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K910" t="inlineStr">
         <is>
@@ -30532,13 +30928,13 @@
         <v>-3210.016670757322</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I911" t="n">
         <v>155400</v>
       </c>
       <c r="J911" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K911" t="inlineStr">
         <is>
@@ -30573,13 +30969,13 @@
         <v>-3209.702470757322</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I912" t="n">
         <v>155300</v>
       </c>
       <c r="J912" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K912" t="inlineStr">
         <is>
@@ -30614,13 +31010,13 @@
         <v>-3242.171970757322</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I913" t="n">
         <v>155500</v>
       </c>
       <c r="J913" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K913" t="inlineStr">
         <is>
@@ -30655,13 +31051,13 @@
         <v>-3253.107070757322</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I914" t="n">
         <v>155300</v>
       </c>
       <c r="J914" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K914" t="inlineStr">
         <is>
@@ -30696,13 +31092,13 @@
         <v>-3253.107070757322</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I915" t="n">
         <v>155200</v>
       </c>
       <c r="J915" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K915" t="inlineStr">
         <is>
@@ -30737,13 +31133,13 @@
         <v>-3253.100370757322</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I916" t="n">
         <v>155200</v>
       </c>
       <c r="J916" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K916" t="inlineStr">
         <is>
@@ -30778,13 +31174,13 @@
         <v>-3253.100370757322</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I917" t="n">
         <v>155400</v>
       </c>
       <c r="J917" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K917" t="inlineStr">
         <is>
@@ -30819,13 +31215,13 @@
         <v>-3242.568716609412</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I918" t="n">
         <v>155400</v>
       </c>
       <c r="J918" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K918" t="inlineStr">
         <is>
@@ -30860,13 +31256,13 @@
         <v>-3242.568716609412</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I919" t="n">
         <v>155500</v>
       </c>
       <c r="J919" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K919" t="inlineStr">
         <is>
@@ -30901,13 +31297,13 @@
         <v>-3247.488716609412</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I920" t="n">
         <v>155500</v>
       </c>
       <c r="J920" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K920" t="inlineStr">
         <is>
@@ -30942,13 +31338,13 @@
         <v>-3248.838216609412</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I921" t="n">
         <v>155300</v>
       </c>
       <c r="J921" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K921" t="inlineStr">
         <is>
@@ -30983,13 +31379,13 @@
         <v>-3248.838216609412</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I922" t="n">
         <v>155200</v>
       </c>
       <c r="J922" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K922" t="inlineStr">
         <is>
@@ -31024,13 +31420,13 @@
         <v>-3247.832425103621</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I923" t="n">
         <v>155200</v>
       </c>
       <c r="J923" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K923" t="inlineStr">
         <is>
@@ -31065,13 +31461,13 @@
         <v>-3247.832425103621</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I924" t="n">
         <v>155400</v>
       </c>
       <c r="J924" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K924" t="inlineStr">
         <is>
@@ -31106,13 +31502,13 @@
         <v>-3247.770425103621</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I925" t="n">
         <v>155400</v>
       </c>
       <c r="J925" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K925" t="inlineStr">
         <is>
@@ -31147,13 +31543,13 @@
         <v>-3197.162525103621</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I926" t="n">
         <v>155600</v>
       </c>
       <c r="J926" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K926" t="inlineStr">
         <is>
@@ -31188,13 +31584,13 @@
         <v>-3197.162525103621</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I927" t="n">
         <v>155700</v>
       </c>
       <c r="J927" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K927" t="inlineStr">
         <is>
@@ -31229,13 +31625,13 @@
         <v>-3209.778425103621</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I928" t="n">
         <v>155700</v>
       </c>
       <c r="J928" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K928" t="inlineStr">
         <is>
@@ -31270,13 +31666,13 @@
         <v>-3210.161825103621</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I929" t="n">
         <v>155600</v>
       </c>
       <c r="J929" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K929" t="inlineStr">
         <is>
@@ -31311,13 +31707,13 @@
         <v>-3212.511825103621</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I930" t="n">
         <v>155500</v>
       </c>
       <c r="J930" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K930" t="inlineStr">
         <is>
@@ -31352,11 +31748,13 @@
         <v>-3212.511825103621</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
-      </c>
-      <c r="I931" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I931" t="n">
+        <v>155300</v>
+      </c>
       <c r="J931" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K931" t="inlineStr">
         <is>
@@ -31391,13 +31789,13 @@
         <v>-3210.43912510362</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I932" t="n">
         <v>155300</v>
       </c>
       <c r="J932" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K932" t="inlineStr">
         <is>
@@ -31432,13 +31830,13 @@
         <v>-3220.61152510362</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I933" t="n">
         <v>155600</v>
       </c>
       <c r="J933" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K933" t="inlineStr">
         <is>
@@ -31473,13 +31871,13 @@
         <v>-3220.61152510362</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I934" t="n">
         <v>155300</v>
       </c>
       <c r="J934" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K934" t="inlineStr">
         <is>
@@ -31514,13 +31912,13 @@
         <v>-3216.61152510362</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I935" t="n">
         <v>155300</v>
       </c>
       <c r="J935" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K935" t="inlineStr">
         <is>
@@ -31555,13 +31953,13 @@
         <v>-3216.61152510362</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I936" t="n">
         <v>155400</v>
       </c>
       <c r="J936" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K936" t="inlineStr">
         <is>
@@ -31596,13 +31994,13 @@
         <v>-3216.61152510362</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I937" t="n">
         <v>155400</v>
       </c>
       <c r="J937" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K937" t="inlineStr">
         <is>
@@ -31637,13 +32035,13 @@
         <v>-3216.61152510362</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I938" t="n">
         <v>155400</v>
       </c>
       <c r="J938" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K938" t="inlineStr">
         <is>
@@ -31678,13 +32076,13 @@
         <v>-3216.39302510362</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I939" t="n">
         <v>155400</v>
       </c>
       <c r="J939" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K939" t="inlineStr">
         <is>
@@ -31719,13 +32117,13 @@
         <v>-3215.99872510362</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I940" t="n">
         <v>155500</v>
       </c>
       <c r="J940" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K940" t="inlineStr">
         <is>
@@ -31760,13 +32158,13 @@
         <v>-3215.64072510362</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I941" t="n">
         <v>155800</v>
       </c>
       <c r="J941" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K941" t="inlineStr">
         <is>
@@ -31801,11 +32199,13 @@
         <v>-3204.44362510362</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
-      </c>
-      <c r="I942" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I942" t="n">
+        <v>155900</v>
+      </c>
       <c r="J942" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K942" t="inlineStr">
         <is>
@@ -31840,11 +32240,13 @@
         <v>-3209.44362510362</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
-      </c>
-      <c r="I943" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I943" t="n">
+        <v>156100</v>
+      </c>
       <c r="J943" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K943" t="inlineStr">
         <is>
@@ -31879,11 +32281,13 @@
         <v>-3194.733025103621</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
-      </c>
-      <c r="I944" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I944" t="n">
+        <v>155800</v>
+      </c>
       <c r="J944" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K944" t="inlineStr">
         <is>
@@ -31918,11 +32322,13 @@
         <v>-3204.25382510362</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
-      </c>
-      <c r="I945" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I945" t="n">
+        <v>155900</v>
+      </c>
       <c r="J945" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K945" t="inlineStr">
         <is>
@@ -31957,11 +32363,13 @@
         <v>-3202.46012510362</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
-      </c>
-      <c r="I946" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I946" t="n">
+        <v>155700</v>
+      </c>
       <c r="J946" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K946" t="inlineStr">
         <is>
@@ -31996,11 +32404,13 @@
         <v>-3201.46822510362</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
-      </c>
-      <c r="I947" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I947" t="n">
+        <v>155900</v>
+      </c>
       <c r="J947" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K947" t="inlineStr">
         <is>
@@ -32035,11 +32445,13 @@
         <v>-3201.46822510362</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
-      </c>
-      <c r="I948" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I948" t="n">
+        <v>156100</v>
+      </c>
       <c r="J948" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K948" t="inlineStr">
         <is>
@@ -32074,11 +32486,13 @@
         <v>-3200.96172510362</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
-      </c>
-      <c r="I949" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I949" t="n">
+        <v>156100</v>
+      </c>
       <c r="J949" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K949" t="inlineStr">
         <is>
@@ -32117,7 +32531,7 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K950" t="inlineStr">
         <is>
@@ -32156,7 +32570,7 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K951" t="inlineStr">
         <is>
@@ -32195,7 +32609,7 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K952" t="inlineStr">
         <is>
@@ -32234,7 +32648,7 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K953" t="inlineStr">
         <is>
@@ -32273,7 +32687,7 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K954" t="inlineStr">
         <is>
@@ -32312,7 +32726,7 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K955" t="inlineStr">
         <is>
@@ -32351,7 +32765,7 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K956" t="inlineStr">
         <is>
@@ -32390,7 +32804,7 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K957" t="inlineStr">
         <is>
@@ -32429,7 +32843,7 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K958" t="inlineStr">
         <is>
@@ -32468,7 +32882,7 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K959" t="inlineStr">
         <is>
@@ -32507,7 +32921,7 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K960" t="inlineStr">
         <is>
@@ -32546,7 +32960,7 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K961" t="inlineStr">
         <is>
@@ -32585,7 +32999,7 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K962" t="inlineStr">
         <is>
@@ -32624,7 +33038,7 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K963" t="inlineStr">
         <is>
@@ -32663,7 +33077,7 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K964" t="inlineStr">
         <is>
@@ -32702,7 +33116,7 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K965" t="inlineStr">
         <is>
@@ -32741,7 +33155,7 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K966" t="inlineStr">
         <is>
@@ -32780,7 +33194,7 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K967" t="inlineStr">
         <is>
@@ -32819,7 +33233,7 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K968" t="inlineStr">
         <is>
@@ -32858,7 +33272,7 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K969" t="inlineStr">
         <is>
@@ -32897,7 +33311,7 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K970" t="inlineStr">
         <is>
@@ -32932,11 +33346,11 @@
         <v>-2821.923008344425</v>
       </c>
       <c r="H971" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K971" t="inlineStr">
         <is>
@@ -32975,7 +33389,7 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K972" t="inlineStr">
         <is>
@@ -33010,11 +33424,11 @@
         <v>-2836.838608344426</v>
       </c>
       <c r="H973" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K973" t="inlineStr">
         <is>
@@ -33053,7 +33467,7 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K974" t="inlineStr">
         <is>
@@ -33088,11 +33502,11 @@
         <v>-2725.708008344426</v>
       </c>
       <c r="H975" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K975" t="inlineStr">
         <is>
@@ -33131,7 +33545,7 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K976" t="inlineStr">
         <is>
@@ -33170,7 +33584,7 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K977" t="inlineStr">
         <is>
@@ -33209,7 +33623,7 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K978" t="inlineStr">
         <is>
@@ -33244,11 +33658,11 @@
         <v>-2762.494108344426</v>
       </c>
       <c r="H979" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K979" t="inlineStr">
         <is>
@@ -33287,7 +33701,7 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K980" t="inlineStr">
         <is>
@@ -33326,7 +33740,7 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K981" t="inlineStr">
         <is>
@@ -33365,7 +33779,7 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K982" t="inlineStr">
         <is>
@@ -33404,7 +33818,7 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K983" t="inlineStr">
         <is>
@@ -33443,7 +33857,7 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K984" t="inlineStr">
         <is>
@@ -33482,7 +33896,7 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K985" t="inlineStr">
         <is>
@@ -33521,7 +33935,7 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K986" t="inlineStr">
         <is>
@@ -33560,7 +33974,7 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K987" t="inlineStr">
         <is>
@@ -33599,7 +34013,7 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K988" t="inlineStr">
         <is>
@@ -33638,7 +34052,7 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K989" t="inlineStr">
         <is>
@@ -33677,7 +34091,7 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K990" t="inlineStr">
         <is>
@@ -33716,7 +34130,7 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K991" t="inlineStr">
         <is>
@@ -33755,7 +34169,7 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K992" t="inlineStr">
         <is>
@@ -33794,7 +34208,7 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K993" t="inlineStr">
         <is>
@@ -33833,7 +34247,7 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K994" t="inlineStr">
         <is>
@@ -33872,7 +34286,7 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K995" t="inlineStr">
         <is>
@@ -33911,7 +34325,7 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K996" t="inlineStr">
         <is>
@@ -33950,7 +34364,7 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K997" t="inlineStr">
         <is>
@@ -33989,7 +34403,7 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K998" t="inlineStr">
         <is>
@@ -34028,7 +34442,7 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K999" t="inlineStr">
         <is>
@@ -34067,7 +34481,7 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1000" t="inlineStr">
         <is>
@@ -34106,7 +34520,7 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1001" t="inlineStr">
         <is>
@@ -34145,7 +34559,7 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1002" t="inlineStr">
         <is>
@@ -34184,7 +34598,7 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1003" t="inlineStr">
         <is>
@@ -34223,7 +34637,7 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1004" t="inlineStr">
         <is>
@@ -34262,7 +34676,7 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1005" t="inlineStr">
         <is>
@@ -34301,7 +34715,7 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1006" t="inlineStr">
         <is>
@@ -34340,7 +34754,7 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1007" t="inlineStr">
         <is>
@@ -34379,7 +34793,7 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1008" t="inlineStr">
         <is>
@@ -34418,7 +34832,7 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1009" t="inlineStr">
         <is>
@@ -34457,7 +34871,7 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1010" t="inlineStr">
         <is>
@@ -34496,7 +34910,7 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1011" t="inlineStr">
         <is>
@@ -34535,7 +34949,7 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1012" t="inlineStr">
         <is>
@@ -34574,7 +34988,7 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1013" t="inlineStr">
         <is>
@@ -34613,7 +35027,7 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1014" t="inlineStr">
         <is>
@@ -34652,7 +35066,7 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1015" t="inlineStr">
         <is>
@@ -34691,7 +35105,7 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1016" t="inlineStr">
         <is>
@@ -34730,7 +35144,7 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1017" t="inlineStr">
         <is>
@@ -34769,7 +35183,7 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1018" t="inlineStr">
         <is>
@@ -34808,7 +35222,7 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1019" t="inlineStr">
         <is>
@@ -34847,7 +35261,7 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1020" t="inlineStr">
         <is>
@@ -34886,7 +35300,7 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1021" t="inlineStr">
         <is>
@@ -34925,7 +35339,7 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1022" t="inlineStr">
         <is>
@@ -34964,7 +35378,7 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1023" t="inlineStr">
         <is>
@@ -35003,7 +35417,7 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1024" t="inlineStr">
         <is>
@@ -35042,7 +35456,7 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1025" t="inlineStr">
         <is>
@@ -35081,7 +35495,7 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1026" t="inlineStr">
         <is>
@@ -35120,7 +35534,7 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1027" t="inlineStr">
         <is>
@@ -35159,7 +35573,7 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1028" t="inlineStr">
         <is>
@@ -35198,7 +35612,7 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1029" t="inlineStr">
         <is>
@@ -35237,7 +35651,7 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1030" t="inlineStr">
         <is>
@@ -35276,7 +35690,7 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1031" t="inlineStr">
         <is>
@@ -35315,7 +35729,7 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1032" t="inlineStr">
         <is>
@@ -35354,7 +35768,7 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1033" t="inlineStr">
         <is>
@@ -35393,7 +35807,7 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1034" t="inlineStr">
         <is>
@@ -35432,7 +35846,7 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1035" t="inlineStr">
         <is>
@@ -35471,7 +35885,7 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1036" t="inlineStr">
         <is>
@@ -35510,7 +35924,7 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1037" t="inlineStr">
         <is>
@@ -35549,7 +35963,7 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1038" t="inlineStr">
         <is>
@@ -35588,7 +36002,7 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1039" t="inlineStr">
         <is>
@@ -35627,7 +36041,7 @@
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1040" t="inlineStr">
         <is>
@@ -35666,7 +36080,7 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1041" t="inlineStr">
         <is>
@@ -35705,7 +36119,7 @@
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1042" t="inlineStr">
         <is>
@@ -35744,7 +36158,7 @@
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1043" t="inlineStr">
         <is>
@@ -35783,7 +36197,7 @@
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1044" t="inlineStr">
         <is>
@@ -35822,7 +36236,7 @@
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1045" t="inlineStr">
         <is>
@@ -35861,7 +36275,7 @@
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1046" t="inlineStr">
         <is>
@@ -35900,7 +36314,7 @@
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1047" t="inlineStr">
         <is>
@@ -35939,7 +36353,7 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="n">
-        <v>155800</v>
+        <v>155100</v>
       </c>
       <c r="K1048" t="inlineStr">
         <is>
@@ -35952,6 +36366,6 @@
       <c r="M1048" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-10 BackTest ETH.xlsx
+++ b/BackTest/2020-01-10 BackTest ETH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-55.16827920049975</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-81.49477920049975</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-81.49477920049975</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-27.68797920049975</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>40.68312079950025</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-8.009379200499751</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-8.009379200499751</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>26.16862079950025</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>33.46337257614999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>413.286065125926</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>413.286065125926</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>574.5873250815557</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>517.6976250815558</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>442.6533888370143</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>473.7694888370143</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>376.6951888370143</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>383.6880014928747</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>382.8645014928746</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>382.8645014928746</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>395.9000014928747</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>447.2048014928747</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>447.2048014928747</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>447.2048014928747</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>441.8250014928746</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>264.9176014928746</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>264.9176014928746</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>166.9434014928746</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>130.4773014928746</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>154.9000014928746</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>93.24770149287463</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>93.24770149287463</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>98.68400149287463</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>92.94180149287463</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>98.27870149287463</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>76.14060149287462</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>76.14060149287462</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>73.14060149287462</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>67.73160149287462</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>56.75540149287462</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>33.90070149287462</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>44.82860149287462</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>2.505901492874615</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>2.505901492874615</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-153.0766985071254</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-153.2719985071254</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-153.2719985071254</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-153.2719985071254</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-153.2719985071254</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-195.9338985071254</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-127.5076985071254</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-133.5684985071254</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-133.5684985071254</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-133.5684985071254</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-117.6142978762106</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-390.4425978762106</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-358.6642978762106</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-645.0287978762105</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-480.3434978762106</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-464.1605978762105</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-464.1605978762105</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-478.2315978762106</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-931.1837851178332</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-938.3850851178331</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-938.3850851178331</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-1061.226070679666</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-1068.660970679666</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-1068.660970679666</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-1052.741570679666</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-1052.741570679666</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-1058.682970679666</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-1058.682970679666</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -28369,14 +28369,10 @@
         <v>-3420.920770757321</v>
       </c>
       <c r="H848" t="n">
-        <v>1</v>
-      </c>
-      <c r="I848" t="n">
-        <v>155100</v>
-      </c>
-      <c r="J848" t="n">
-        <v>155100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I848" t="inlineStr"/>
+      <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
@@ -28406,2254 +28402,1848 @@
         <v>-3334.107870757321</v>
       </c>
       <c r="H849" t="n">
-        <v>1</v>
-      </c>
-      <c r="I849" t="n">
+        <v>0</v>
+      </c>
+      <c r="I849" t="inlineStr"/>
+      <c r="J849" t="inlineStr"/>
+      <c r="K849" t="inlineStr"/>
+      <c r="L849" t="n">
+        <v>1</v>
+      </c>
+      <c r="M849" t="inlineStr"/>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="n">
+        <v>848</v>
+      </c>
+      <c r="B850" t="n">
+        <v>155300</v>
+      </c>
+      <c r="C850" t="n">
+        <v>155400</v>
+      </c>
+      <c r="D850" t="n">
+        <v>155400</v>
+      </c>
+      <c r="E850" t="n">
+        <v>155300</v>
+      </c>
+      <c r="F850" t="n">
+        <v>3.0296</v>
+      </c>
+      <c r="G850" t="n">
+        <v>-3331.078270757321</v>
+      </c>
+      <c r="H850" t="n">
+        <v>0</v>
+      </c>
+      <c r="I850" t="inlineStr"/>
+      <c r="J850" t="inlineStr"/>
+      <c r="K850" t="inlineStr"/>
+      <c r="L850" t="n">
+        <v>1</v>
+      </c>
+      <c r="M850" t="inlineStr"/>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="n">
+        <v>849</v>
+      </c>
+      <c r="B851" t="n">
+        <v>155300</v>
+      </c>
+      <c r="C851" t="n">
         <v>155100</v>
       </c>
-      <c r="J849" t="n">
+      <c r="D851" t="n">
+        <v>155300</v>
+      </c>
+      <c r="E851" t="n">
         <v>155100</v>
       </c>
-      <c r="K849" t="inlineStr">
+      <c r="F851" t="n">
+        <v>13.751</v>
+      </c>
+      <c r="G851" t="n">
+        <v>-3344.829270757321</v>
+      </c>
+      <c r="H851" t="n">
+        <v>0</v>
+      </c>
+      <c r="I851" t="inlineStr"/>
+      <c r="J851" t="inlineStr"/>
+      <c r="K851" t="inlineStr"/>
+      <c r="L851" t="n">
+        <v>1</v>
+      </c>
+      <c r="M851" t="inlineStr"/>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="n">
+        <v>850</v>
+      </c>
+      <c r="B852" t="n">
+        <v>154800</v>
+      </c>
+      <c r="C852" t="n">
+        <v>155100</v>
+      </c>
+      <c r="D852" t="n">
+        <v>155100</v>
+      </c>
+      <c r="E852" t="n">
+        <v>154800</v>
+      </c>
+      <c r="F852" t="n">
+        <v>4.0285</v>
+      </c>
+      <c r="G852" t="n">
+        <v>-3344.829270757321</v>
+      </c>
+      <c r="H852" t="n">
+        <v>0</v>
+      </c>
+      <c r="I852" t="inlineStr"/>
+      <c r="J852" t="inlineStr"/>
+      <c r="K852" t="inlineStr"/>
+      <c r="L852" t="n">
+        <v>1</v>
+      </c>
+      <c r="M852" t="inlineStr"/>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="n">
+        <v>851</v>
+      </c>
+      <c r="B853" t="n">
+        <v>155100</v>
+      </c>
+      <c r="C853" t="n">
+        <v>155200</v>
+      </c>
+      <c r="D853" t="n">
+        <v>155200</v>
+      </c>
+      <c r="E853" t="n">
+        <v>155100</v>
+      </c>
+      <c r="F853" t="n">
+        <v>18.9522</v>
+      </c>
+      <c r="G853" t="n">
+        <v>-3325.877070757321</v>
+      </c>
+      <c r="H853" t="n">
+        <v>0</v>
+      </c>
+      <c r="I853" t="inlineStr"/>
+      <c r="J853" t="inlineStr"/>
+      <c r="K853" t="inlineStr"/>
+      <c r="L853" t="n">
+        <v>1</v>
+      </c>
+      <c r="M853" t="inlineStr"/>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="n">
+        <v>852</v>
+      </c>
+      <c r="B854" t="n">
+        <v>155200</v>
+      </c>
+      <c r="C854" t="n">
+        <v>155500</v>
+      </c>
+      <c r="D854" t="n">
+        <v>155500</v>
+      </c>
+      <c r="E854" t="n">
+        <v>155200</v>
+      </c>
+      <c r="F854" t="n">
+        <v>56.5291</v>
+      </c>
+      <c r="G854" t="n">
+        <v>-3269.347970757321</v>
+      </c>
+      <c r="H854" t="n">
+        <v>0</v>
+      </c>
+      <c r="I854" t="inlineStr"/>
+      <c r="J854" t="inlineStr"/>
+      <c r="K854" t="inlineStr"/>
+      <c r="L854" t="n">
+        <v>1</v>
+      </c>
+      <c r="M854" t="inlineStr"/>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="n">
+        <v>853</v>
+      </c>
+      <c r="B855" t="n">
+        <v>155700</v>
+      </c>
+      <c r="C855" t="n">
+        <v>155900</v>
+      </c>
+      <c r="D855" t="n">
+        <v>156100</v>
+      </c>
+      <c r="E855" t="n">
+        <v>155700</v>
+      </c>
+      <c r="F855" t="n">
+        <v>59.7192</v>
+      </c>
+      <c r="G855" t="n">
+        <v>-3209.628770757321</v>
+      </c>
+      <c r="H855" t="n">
+        <v>0</v>
+      </c>
+      <c r="I855" t="inlineStr"/>
+      <c r="J855" t="inlineStr"/>
+      <c r="K855" t="inlineStr"/>
+      <c r="L855" t="n">
+        <v>1</v>
+      </c>
+      <c r="M855" t="inlineStr"/>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="n">
+        <v>854</v>
+      </c>
+      <c r="B856" t="n">
+        <v>156000</v>
+      </c>
+      <c r="C856" t="n">
+        <v>155500</v>
+      </c>
+      <c r="D856" t="n">
+        <v>156000</v>
+      </c>
+      <c r="E856" t="n">
+        <v>155500</v>
+      </c>
+      <c r="F856" t="n">
+        <v>18.1251</v>
+      </c>
+      <c r="G856" t="n">
+        <v>-3227.753870757321</v>
+      </c>
+      <c r="H856" t="n">
+        <v>0</v>
+      </c>
+      <c r="I856" t="inlineStr"/>
+      <c r="J856" t="inlineStr"/>
+      <c r="K856" t="inlineStr"/>
+      <c r="L856" t="n">
+        <v>1</v>
+      </c>
+      <c r="M856" t="inlineStr"/>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="n">
+        <v>855</v>
+      </c>
+      <c r="B857" t="n">
+        <v>155600</v>
+      </c>
+      <c r="C857" t="n">
+        <v>155500</v>
+      </c>
+      <c r="D857" t="n">
+        <v>155600</v>
+      </c>
+      <c r="E857" t="n">
+        <v>155500</v>
+      </c>
+      <c r="F857" t="n">
+        <v>1.1631</v>
+      </c>
+      <c r="G857" t="n">
+        <v>-3227.753870757321</v>
+      </c>
+      <c r="H857" t="n">
+        <v>0</v>
+      </c>
+      <c r="I857" t="inlineStr"/>
+      <c r="J857" t="inlineStr"/>
+      <c r="K857" t="inlineStr"/>
+      <c r="L857" t="n">
+        <v>1</v>
+      </c>
+      <c r="M857" t="inlineStr"/>
+    </row>
+    <row r="858">
+      <c r="A858" s="1" t="n">
+        <v>856</v>
+      </c>
+      <c r="B858" t="n">
+        <v>155500</v>
+      </c>
+      <c r="C858" t="n">
+        <v>155400</v>
+      </c>
+      <c r="D858" t="n">
+        <v>155500</v>
+      </c>
+      <c r="E858" t="n">
+        <v>155400</v>
+      </c>
+      <c r="F858" t="n">
+        <v>3.3424</v>
+      </c>
+      <c r="G858" t="n">
+        <v>-3231.096270757321</v>
+      </c>
+      <c r="H858" t="n">
+        <v>0</v>
+      </c>
+      <c r="I858" t="inlineStr"/>
+      <c r="J858" t="inlineStr"/>
+      <c r="K858" t="inlineStr"/>
+      <c r="L858" t="n">
+        <v>1</v>
+      </c>
+      <c r="M858" t="inlineStr"/>
+    </row>
+    <row r="859">
+      <c r="A859" s="1" t="n">
+        <v>857</v>
+      </c>
+      <c r="B859" t="n">
+        <v>155400</v>
+      </c>
+      <c r="C859" t="n">
+        <v>155400</v>
+      </c>
+      <c r="D859" t="n">
+        <v>155400</v>
+      </c>
+      <c r="E859" t="n">
+        <v>155400</v>
+      </c>
+      <c r="F859" t="n">
+        <v>8.6998</v>
+      </c>
+      <c r="G859" t="n">
+        <v>-3231.096270757321</v>
+      </c>
+      <c r="H859" t="n">
+        <v>0</v>
+      </c>
+      <c r="I859" t="inlineStr"/>
+      <c r="J859" t="inlineStr"/>
+      <c r="K859" t="inlineStr"/>
+      <c r="L859" t="n">
+        <v>1</v>
+      </c>
+      <c r="M859" t="inlineStr"/>
+    </row>
+    <row r="860">
+      <c r="A860" s="1" t="n">
+        <v>858</v>
+      </c>
+      <c r="B860" t="n">
+        <v>155500</v>
+      </c>
+      <c r="C860" t="n">
+        <v>155500</v>
+      </c>
+      <c r="D860" t="n">
+        <v>155500</v>
+      </c>
+      <c r="E860" t="n">
+        <v>155500</v>
+      </c>
+      <c r="F860" t="n">
+        <v>5</v>
+      </c>
+      <c r="G860" t="n">
+        <v>-3226.096270757321</v>
+      </c>
+      <c r="H860" t="n">
+        <v>0</v>
+      </c>
+      <c r="I860" t="inlineStr"/>
+      <c r="J860" t="inlineStr"/>
+      <c r="K860" t="inlineStr"/>
+      <c r="L860" t="n">
+        <v>1</v>
+      </c>
+      <c r="M860" t="inlineStr"/>
+    </row>
+    <row r="861">
+      <c r="A861" s="1" t="n">
+        <v>859</v>
+      </c>
+      <c r="B861" t="n">
+        <v>155500</v>
+      </c>
+      <c r="C861" t="n">
+        <v>155600</v>
+      </c>
+      <c r="D861" t="n">
+        <v>155600</v>
+      </c>
+      <c r="E861" t="n">
+        <v>155400</v>
+      </c>
+      <c r="F861" t="n">
+        <v>31.4697</v>
+      </c>
+      <c r="G861" t="n">
+        <v>-3194.626570757321</v>
+      </c>
+      <c r="H861" t="n">
+        <v>0</v>
+      </c>
+      <c r="I861" t="inlineStr"/>
+      <c r="J861" t="inlineStr"/>
+      <c r="K861" t="inlineStr"/>
+      <c r="L861" t="n">
+        <v>1</v>
+      </c>
+      <c r="M861" t="inlineStr"/>
+    </row>
+    <row r="862">
+      <c r="A862" s="1" t="n">
+        <v>860</v>
+      </c>
+      <c r="B862" t="n">
+        <v>155600</v>
+      </c>
+      <c r="C862" t="n">
+        <v>155600</v>
+      </c>
+      <c r="D862" t="n">
+        <v>155600</v>
+      </c>
+      <c r="E862" t="n">
+        <v>155600</v>
+      </c>
+      <c r="F862" t="n">
+        <v>1.0758</v>
+      </c>
+      <c r="G862" t="n">
+        <v>-3194.626570757321</v>
+      </c>
+      <c r="H862" t="n">
+        <v>0</v>
+      </c>
+      <c r="I862" t="inlineStr"/>
+      <c r="J862" t="inlineStr"/>
+      <c r="K862" t="inlineStr"/>
+      <c r="L862" t="n">
+        <v>1</v>
+      </c>
+      <c r="M862" t="inlineStr"/>
+    </row>
+    <row r="863">
+      <c r="A863" s="1" t="n">
+        <v>861</v>
+      </c>
+      <c r="B863" t="n">
+        <v>155600</v>
+      </c>
+      <c r="C863" t="n">
+        <v>155700</v>
+      </c>
+      <c r="D863" t="n">
+        <v>155700</v>
+      </c>
+      <c r="E863" t="n">
+        <v>155600</v>
+      </c>
+      <c r="F863" t="n">
+        <v>13.0597</v>
+      </c>
+      <c r="G863" t="n">
+        <v>-3181.566870757321</v>
+      </c>
+      <c r="H863" t="n">
+        <v>0</v>
+      </c>
+      <c r="I863" t="inlineStr"/>
+      <c r="J863" t="inlineStr"/>
+      <c r="K863" t="inlineStr"/>
+      <c r="L863" t="n">
+        <v>1</v>
+      </c>
+      <c r="M863" t="inlineStr"/>
+    </row>
+    <row r="864">
+      <c r="A864" s="1" t="n">
+        <v>862</v>
+      </c>
+      <c r="B864" t="n">
+        <v>155600</v>
+      </c>
+      <c r="C864" t="n">
+        <v>155600</v>
+      </c>
+      <c r="D864" t="n">
+        <v>155600</v>
+      </c>
+      <c r="E864" t="n">
+        <v>155600</v>
+      </c>
+      <c r="F864" t="n">
+        <v>1.2193</v>
+      </c>
+      <c r="G864" t="n">
+        <v>-3182.786170757322</v>
+      </c>
+      <c r="H864" t="n">
+        <v>0</v>
+      </c>
+      <c r="I864" t="inlineStr"/>
+      <c r="J864" t="inlineStr"/>
+      <c r="K864" t="inlineStr"/>
+      <c r="L864" t="n">
+        <v>1</v>
+      </c>
+      <c r="M864" t="inlineStr"/>
+    </row>
+    <row r="865">
+      <c r="A865" s="1" t="n">
+        <v>863</v>
+      </c>
+      <c r="B865" t="n">
+        <v>155600</v>
+      </c>
+      <c r="C865" t="n">
+        <v>155600</v>
+      </c>
+      <c r="D865" t="n">
+        <v>155600</v>
+      </c>
+      <c r="E865" t="n">
+        <v>155600</v>
+      </c>
+      <c r="F865" t="n">
+        <v>1.0968</v>
+      </c>
+      <c r="G865" t="n">
+        <v>-3182.786170757322</v>
+      </c>
+      <c r="H865" t="n">
+        <v>0</v>
+      </c>
+      <c r="I865" t="inlineStr"/>
+      <c r="J865" t="inlineStr"/>
+      <c r="K865" t="inlineStr"/>
+      <c r="L865" t="n">
+        <v>1</v>
+      </c>
+      <c r="M865" t="inlineStr"/>
+    </row>
+    <row r="866">
+      <c r="A866" s="1" t="n">
+        <v>864</v>
+      </c>
+      <c r="B866" t="n">
+        <v>155600</v>
+      </c>
+      <c r="C866" t="n">
+        <v>155700</v>
+      </c>
+      <c r="D866" t="n">
+        <v>155700</v>
+      </c>
+      <c r="E866" t="n">
+        <v>155600</v>
+      </c>
+      <c r="F866" t="n">
+        <v>0.5173</v>
+      </c>
+      <c r="G866" t="n">
+        <v>-3182.268870757322</v>
+      </c>
+      <c r="H866" t="n">
+        <v>0</v>
+      </c>
+      <c r="I866" t="inlineStr"/>
+      <c r="J866" t="inlineStr"/>
+      <c r="K866" t="inlineStr"/>
+      <c r="L866" t="n">
+        <v>1</v>
+      </c>
+      <c r="M866" t="inlineStr"/>
+    </row>
+    <row r="867">
+      <c r="A867" s="1" t="n">
+        <v>865</v>
+      </c>
+      <c r="B867" t="n">
+        <v>155600</v>
+      </c>
+      <c r="C867" t="n">
+        <v>155700</v>
+      </c>
+      <c r="D867" t="n">
+        <v>155700</v>
+      </c>
+      <c r="E867" t="n">
+        <v>155600</v>
+      </c>
+      <c r="F867" t="n">
+        <v>20</v>
+      </c>
+      <c r="G867" t="n">
+        <v>-3182.268870757322</v>
+      </c>
+      <c r="H867" t="n">
+        <v>0</v>
+      </c>
+      <c r="I867" t="inlineStr"/>
+      <c r="J867" t="inlineStr"/>
+      <c r="K867" t="inlineStr"/>
+      <c r="L867" t="n">
+        <v>1</v>
+      </c>
+      <c r="M867" t="inlineStr"/>
+    </row>
+    <row r="868">
+      <c r="A868" s="1" t="n">
+        <v>866</v>
+      </c>
+      <c r="B868" t="n">
+        <v>155500</v>
+      </c>
+      <c r="C868" t="n">
+        <v>155400</v>
+      </c>
+      <c r="D868" t="n">
+        <v>155500</v>
+      </c>
+      <c r="E868" t="n">
+        <v>155400</v>
+      </c>
+      <c r="F868" t="n">
+        <v>4.1526</v>
+      </c>
+      <c r="G868" t="n">
+        <v>-3186.421470757321</v>
+      </c>
+      <c r="H868" t="n">
+        <v>0</v>
+      </c>
+      <c r="I868" t="inlineStr"/>
+      <c r="J868" t="inlineStr"/>
+      <c r="K868" t="inlineStr"/>
+      <c r="L868" t="n">
+        <v>1</v>
+      </c>
+      <c r="M868" t="inlineStr"/>
+    </row>
+    <row r="869">
+      <c r="A869" s="1" t="n">
+        <v>867</v>
+      </c>
+      <c r="B869" t="n">
+        <v>155500</v>
+      </c>
+      <c r="C869" t="n">
+        <v>155500</v>
+      </c>
+      <c r="D869" t="n">
+        <v>155500</v>
+      </c>
+      <c r="E869" t="n">
+        <v>155500</v>
+      </c>
+      <c r="F869" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G869" t="n">
+        <v>-3186.391470757321</v>
+      </c>
+      <c r="H869" t="n">
+        <v>0</v>
+      </c>
+      <c r="I869" t="inlineStr"/>
+      <c r="J869" t="inlineStr"/>
+      <c r="K869" t="inlineStr"/>
+      <c r="L869" t="n">
+        <v>1</v>
+      </c>
+      <c r="M869" t="inlineStr"/>
+    </row>
+    <row r="870">
+      <c r="A870" s="1" t="n">
+        <v>868</v>
+      </c>
+      <c r="B870" t="n">
+        <v>155600</v>
+      </c>
+      <c r="C870" t="n">
+        <v>155500</v>
+      </c>
+      <c r="D870" t="n">
+        <v>155600</v>
+      </c>
+      <c r="E870" t="n">
+        <v>155500</v>
+      </c>
+      <c r="F870" t="n">
+        <v>9.7165</v>
+      </c>
+      <c r="G870" t="n">
+        <v>-3186.391470757321</v>
+      </c>
+      <c r="H870" t="n">
+        <v>0</v>
+      </c>
+      <c r="I870" t="inlineStr"/>
+      <c r="J870" t="inlineStr"/>
+      <c r="K870" t="inlineStr"/>
+      <c r="L870" t="n">
+        <v>1</v>
+      </c>
+      <c r="M870" t="inlineStr"/>
+    </row>
+    <row r="871">
+      <c r="A871" s="1" t="n">
+        <v>869</v>
+      </c>
+      <c r="B871" t="n">
+        <v>155300</v>
+      </c>
+      <c r="C871" t="n">
+        <v>155300</v>
+      </c>
+      <c r="D871" t="n">
+        <v>155300</v>
+      </c>
+      <c r="E871" t="n">
+        <v>155300</v>
+      </c>
+      <c r="F871" t="n">
+        <v>0.2668</v>
+      </c>
+      <c r="G871" t="n">
+        <v>-3186.658270757321</v>
+      </c>
+      <c r="H871" t="n">
+        <v>0</v>
+      </c>
+      <c r="I871" t="inlineStr"/>
+      <c r="J871" t="inlineStr"/>
+      <c r="K871" t="inlineStr"/>
+      <c r="L871" t="n">
+        <v>1</v>
+      </c>
+      <c r="M871" t="inlineStr"/>
+    </row>
+    <row r="872">
+      <c r="A872" s="1" t="n">
+        <v>870</v>
+      </c>
+      <c r="B872" t="n">
+        <v>155300</v>
+      </c>
+      <c r="C872" t="n">
+        <v>155300</v>
+      </c>
+      <c r="D872" t="n">
+        <v>155300</v>
+      </c>
+      <c r="E872" t="n">
+        <v>155300</v>
+      </c>
+      <c r="F872" t="n">
+        <v>6</v>
+      </c>
+      <c r="G872" t="n">
+        <v>-3186.658270757321</v>
+      </c>
+      <c r="H872" t="n">
+        <v>0</v>
+      </c>
+      <c r="I872" t="inlineStr"/>
+      <c r="J872" t="inlineStr"/>
+      <c r="K872" t="inlineStr"/>
+      <c r="L872" t="n">
+        <v>1</v>
+      </c>
+      <c r="M872" t="inlineStr"/>
+    </row>
+    <row r="873">
+      <c r="A873" s="1" t="n">
+        <v>871</v>
+      </c>
+      <c r="B873" t="n">
+        <v>155300</v>
+      </c>
+      <c r="C873" t="n">
+        <v>155300</v>
+      </c>
+      <c r="D873" t="n">
+        <v>155300</v>
+      </c>
+      <c r="E873" t="n">
+        <v>155300</v>
+      </c>
+      <c r="F873" t="n">
+        <v>49.8665</v>
+      </c>
+      <c r="G873" t="n">
+        <v>-3186.658270757321</v>
+      </c>
+      <c r="H873" t="n">
+        <v>0</v>
+      </c>
+      <c r="I873" t="inlineStr"/>
+      <c r="J873" t="inlineStr"/>
+      <c r="K873" t="inlineStr"/>
+      <c r="L873" t="n">
+        <v>1</v>
+      </c>
+      <c r="M873" t="inlineStr"/>
+    </row>
+    <row r="874">
+      <c r="A874" s="1" t="n">
+        <v>872</v>
+      </c>
+      <c r="B874" t="n">
+        <v>155300</v>
+      </c>
+      <c r="C874" t="n">
+        <v>155300</v>
+      </c>
+      <c r="D874" t="n">
+        <v>155300</v>
+      </c>
+      <c r="E874" t="n">
+        <v>155300</v>
+      </c>
+      <c r="F874" t="n">
+        <v>10</v>
+      </c>
+      <c r="G874" t="n">
+        <v>-3186.658270757321</v>
+      </c>
+      <c r="H874" t="n">
+        <v>0</v>
+      </c>
+      <c r="I874" t="inlineStr"/>
+      <c r="J874" t="inlineStr"/>
+      <c r="K874" t="inlineStr"/>
+      <c r="L874" t="n">
+        <v>1</v>
+      </c>
+      <c r="M874" t="inlineStr"/>
+    </row>
+    <row r="875">
+      <c r="A875" s="1" t="n">
+        <v>873</v>
+      </c>
+      <c r="B875" t="n">
+        <v>155100</v>
+      </c>
+      <c r="C875" t="n">
+        <v>155100</v>
+      </c>
+      <c r="D875" t="n">
+        <v>155100</v>
+      </c>
+      <c r="E875" t="n">
+        <v>155100</v>
+      </c>
+      <c r="F875" t="n">
+        <v>25.876</v>
+      </c>
+      <c r="G875" t="n">
+        <v>-3212.534270757321</v>
+      </c>
+      <c r="H875" t="n">
+        <v>0</v>
+      </c>
+      <c r="I875" t="inlineStr"/>
+      <c r="J875" t="inlineStr"/>
+      <c r="K875" t="inlineStr"/>
+      <c r="L875" t="n">
+        <v>1</v>
+      </c>
+      <c r="M875" t="inlineStr"/>
+    </row>
+    <row r="876">
+      <c r="A876" s="1" t="n">
+        <v>874</v>
+      </c>
+      <c r="B876" t="n">
+        <v>155400</v>
+      </c>
+      <c r="C876" t="n">
+        <v>155400</v>
+      </c>
+      <c r="D876" t="n">
+        <v>155400</v>
+      </c>
+      <c r="E876" t="n">
+        <v>155400</v>
+      </c>
+      <c r="F876" t="n">
+        <v>5</v>
+      </c>
+      <c r="G876" t="n">
+        <v>-3207.534270757321</v>
+      </c>
+      <c r="H876" t="n">
+        <v>0</v>
+      </c>
+      <c r="I876" t="inlineStr"/>
+      <c r="J876" t="inlineStr"/>
+      <c r="K876" t="inlineStr"/>
+      <c r="L876" t="n">
+        <v>1</v>
+      </c>
+      <c r="M876" t="inlineStr"/>
+    </row>
+    <row r="877">
+      <c r="A877" s="1" t="n">
+        <v>875</v>
+      </c>
+      <c r="B877" t="n">
+        <v>155200</v>
+      </c>
+      <c r="C877" t="n">
+        <v>155200</v>
+      </c>
+      <c r="D877" t="n">
+        <v>155200</v>
+      </c>
+      <c r="E877" t="n">
+        <v>155200</v>
+      </c>
+      <c r="F877" t="n">
+        <v>8.6999</v>
+      </c>
+      <c r="G877" t="n">
+        <v>-3216.234170757321</v>
+      </c>
+      <c r="H877" t="n">
+        <v>0</v>
+      </c>
+      <c r="I877" t="inlineStr"/>
+      <c r="J877" t="inlineStr"/>
+      <c r="K877" t="inlineStr"/>
+      <c r="L877" t="n">
+        <v>1</v>
+      </c>
+      <c r="M877" t="inlineStr"/>
+    </row>
+    <row r="878">
+      <c r="A878" s="1" t="n">
+        <v>876</v>
+      </c>
+      <c r="B878" t="n">
+        <v>155500</v>
+      </c>
+      <c r="C878" t="n">
+        <v>155400</v>
+      </c>
+      <c r="D878" t="n">
+        <v>155500</v>
+      </c>
+      <c r="E878" t="n">
+        <v>155400</v>
+      </c>
+      <c r="F878" t="n">
+        <v>15</v>
+      </c>
+      <c r="G878" t="n">
+        <v>-3201.234170757321</v>
+      </c>
+      <c r="H878" t="n">
+        <v>0</v>
+      </c>
+      <c r="I878" t="inlineStr"/>
+      <c r="J878" t="inlineStr"/>
+      <c r="K878" t="inlineStr"/>
+      <c r="L878" t="n">
+        <v>1</v>
+      </c>
+      <c r="M878" t="inlineStr"/>
+    </row>
+    <row r="879">
+      <c r="A879" s="1" t="n">
+        <v>877</v>
+      </c>
+      <c r="B879" t="n">
+        <v>155600</v>
+      </c>
+      <c r="C879" t="n">
+        <v>155500</v>
+      </c>
+      <c r="D879" t="n">
+        <v>155600</v>
+      </c>
+      <c r="E879" t="n">
+        <v>155500</v>
+      </c>
+      <c r="F879" t="n">
+        <v>2.1519</v>
+      </c>
+      <c r="G879" t="n">
+        <v>-3199.082270757322</v>
+      </c>
+      <c r="H879" t="n">
+        <v>0</v>
+      </c>
+      <c r="I879" t="inlineStr"/>
+      <c r="J879" t="inlineStr"/>
+      <c r="K879" t="inlineStr"/>
+      <c r="L879" t="n">
+        <v>1</v>
+      </c>
+      <c r="M879" t="inlineStr"/>
+    </row>
+    <row r="880">
+      <c r="A880" s="1" t="n">
+        <v>878</v>
+      </c>
+      <c r="B880" t="n">
+        <v>155300</v>
+      </c>
+      <c r="C880" t="n">
+        <v>155300</v>
+      </c>
+      <c r="D880" t="n">
+        <v>155300</v>
+      </c>
+      <c r="E880" t="n">
+        <v>155300</v>
+      </c>
+      <c r="F880" t="n">
+        <v>3.882</v>
+      </c>
+      <c r="G880" t="n">
+        <v>-3202.964270757322</v>
+      </c>
+      <c r="H880" t="n">
+        <v>0</v>
+      </c>
+      <c r="I880" t="inlineStr"/>
+      <c r="J880" t="inlineStr"/>
+      <c r="K880" t="inlineStr"/>
+      <c r="L880" t="n">
+        <v>1</v>
+      </c>
+      <c r="M880" t="inlineStr"/>
+    </row>
+    <row r="881">
+      <c r="A881" s="1" t="n">
+        <v>879</v>
+      </c>
+      <c r="B881" t="n">
+        <v>155300</v>
+      </c>
+      <c r="C881" t="n">
+        <v>155300</v>
+      </c>
+      <c r="D881" t="n">
+        <v>155300</v>
+      </c>
+      <c r="E881" t="n">
+        <v>155300</v>
+      </c>
+      <c r="F881" t="n">
+        <v>35.2455</v>
+      </c>
+      <c r="G881" t="n">
+        <v>-3202.964270757322</v>
+      </c>
+      <c r="H881" t="n">
+        <v>0</v>
+      </c>
+      <c r="I881" t="inlineStr"/>
+      <c r="J881" t="inlineStr"/>
+      <c r="K881" t="inlineStr"/>
+      <c r="L881" t="n">
+        <v>1</v>
+      </c>
+      <c r="M881" t="inlineStr"/>
+    </row>
+    <row r="882">
+      <c r="A882" s="1" t="n">
+        <v>880</v>
+      </c>
+      <c r="B882" t="n">
+        <v>155200</v>
+      </c>
+      <c r="C882" t="n">
+        <v>155500</v>
+      </c>
+      <c r="D882" t="n">
+        <v>155500</v>
+      </c>
+      <c r="E882" t="n">
+        <v>155200</v>
+      </c>
+      <c r="F882" t="n">
+        <v>15.5881</v>
+      </c>
+      <c r="G882" t="n">
+        <v>-3187.376170757322</v>
+      </c>
+      <c r="H882" t="n">
+        <v>0</v>
+      </c>
+      <c r="I882" t="inlineStr"/>
+      <c r="J882" t="inlineStr"/>
+      <c r="K882" t="inlineStr"/>
+      <c r="L882" t="n">
+        <v>1</v>
+      </c>
+      <c r="M882" t="inlineStr"/>
+    </row>
+    <row r="883">
+      <c r="A883" s="1" t="n">
+        <v>881</v>
+      </c>
+      <c r="B883" t="n">
+        <v>155400</v>
+      </c>
+      <c r="C883" t="n">
+        <v>155400</v>
+      </c>
+      <c r="D883" t="n">
+        <v>155400</v>
+      </c>
+      <c r="E883" t="n">
+        <v>155400</v>
+      </c>
+      <c r="F883" t="n">
+        <v>5.4279</v>
+      </c>
+      <c r="G883" t="n">
+        <v>-3192.804070757322</v>
+      </c>
+      <c r="H883" t="n">
+        <v>0</v>
+      </c>
+      <c r="I883" t="inlineStr"/>
+      <c r="J883" t="inlineStr"/>
+      <c r="K883" t="inlineStr"/>
+      <c r="L883" t="n">
+        <v>1</v>
+      </c>
+      <c r="M883" t="inlineStr"/>
+    </row>
+    <row r="884">
+      <c r="A884" s="1" t="n">
+        <v>882</v>
+      </c>
+      <c r="B884" t="n">
+        <v>155400</v>
+      </c>
+      <c r="C884" t="n">
+        <v>155400</v>
+      </c>
+      <c r="D884" t="n">
+        <v>155400</v>
+      </c>
+      <c r="E884" t="n">
+        <v>155400</v>
+      </c>
+      <c r="F884" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G884" t="n">
+        <v>-3192.804070757322</v>
+      </c>
+      <c r="H884" t="n">
+        <v>0</v>
+      </c>
+      <c r="I884" t="inlineStr"/>
+      <c r="J884" t="inlineStr"/>
+      <c r="K884" t="inlineStr"/>
+      <c r="L884" t="n">
+        <v>1</v>
+      </c>
+      <c r="M884" t="inlineStr"/>
+    </row>
+    <row r="885">
+      <c r="A885" s="1" t="n">
+        <v>883</v>
+      </c>
+      <c r="B885" t="n">
+        <v>155400</v>
+      </c>
+      <c r="C885" t="n">
+        <v>155400</v>
+      </c>
+      <c r="D885" t="n">
+        <v>155400</v>
+      </c>
+      <c r="E885" t="n">
+        <v>155400</v>
+      </c>
+      <c r="F885" t="n">
+        <v>4.1809</v>
+      </c>
+      <c r="G885" t="n">
+        <v>-3192.804070757322</v>
+      </c>
+      <c r="H885" t="n">
+        <v>0</v>
+      </c>
+      <c r="I885" t="inlineStr"/>
+      <c r="J885" t="inlineStr"/>
+      <c r="K885" t="inlineStr"/>
+      <c r="L885" t="n">
+        <v>1</v>
+      </c>
+      <c r="M885" t="inlineStr"/>
+    </row>
+    <row r="886">
+      <c r="A886" s="1" t="n">
+        <v>884</v>
+      </c>
+      <c r="B886" t="n">
+        <v>155300</v>
+      </c>
+      <c r="C886" t="n">
+        <v>155500</v>
+      </c>
+      <c r="D886" t="n">
+        <v>155500</v>
+      </c>
+      <c r="E886" t="n">
+        <v>155200</v>
+      </c>
+      <c r="F886" t="n">
+        <v>24.363</v>
+      </c>
+      <c r="G886" t="n">
+        <v>-3168.441070757322</v>
+      </c>
+      <c r="H886" t="n">
+        <v>0</v>
+      </c>
+      <c r="I886" t="inlineStr"/>
+      <c r="J886" t="inlineStr"/>
+      <c r="K886" t="inlineStr"/>
+      <c r="L886" t="n">
+        <v>1</v>
+      </c>
+      <c r="M886" t="inlineStr"/>
+    </row>
+    <row r="887">
+      <c r="A887" s="1" t="n">
+        <v>885</v>
+      </c>
+      <c r="B887" t="n">
+        <v>155400</v>
+      </c>
+      <c r="C887" t="n">
+        <v>155400</v>
+      </c>
+      <c r="D887" t="n">
+        <v>155400</v>
+      </c>
+      <c r="E887" t="n">
+        <v>155400</v>
+      </c>
+      <c r="F887" t="n">
+        <v>0.2902</v>
+      </c>
+      <c r="G887" t="n">
+        <v>-3168.731270757322</v>
+      </c>
+      <c r="H887" t="n">
+        <v>0</v>
+      </c>
+      <c r="I887" t="inlineStr"/>
+      <c r="J887" t="inlineStr"/>
+      <c r="K887" t="inlineStr"/>
+      <c r="L887" t="n">
+        <v>1</v>
+      </c>
+      <c r="M887" t="inlineStr"/>
+    </row>
+    <row r="888">
+      <c r="A888" s="1" t="n">
+        <v>886</v>
+      </c>
+      <c r="B888" t="n">
+        <v>155300</v>
+      </c>
+      <c r="C888" t="n">
+        <v>155300</v>
+      </c>
+      <c r="D888" t="n">
+        <v>155300</v>
+      </c>
+      <c r="E888" t="n">
+        <v>155300</v>
+      </c>
+      <c r="F888" t="n">
+        <v>7.7364</v>
+      </c>
+      <c r="G888" t="n">
+        <v>-3176.467670757322</v>
+      </c>
+      <c r="H888" t="n">
+        <v>0</v>
+      </c>
+      <c r="I888" t="inlineStr"/>
+      <c r="J888" t="inlineStr"/>
+      <c r="K888" t="inlineStr"/>
+      <c r="L888" t="n">
+        <v>1</v>
+      </c>
+      <c r="M888" t="inlineStr"/>
+    </row>
+    <row r="889">
+      <c r="A889" s="1" t="n">
+        <v>887</v>
+      </c>
+      <c r="B889" t="n">
+        <v>155300</v>
+      </c>
+      <c r="C889" t="n">
+        <v>155300</v>
+      </c>
+      <c r="D889" t="n">
+        <v>155300</v>
+      </c>
+      <c r="E889" t="n">
+        <v>155300</v>
+      </c>
+      <c r="F889" t="n">
+        <v>3.9074</v>
+      </c>
+      <c r="G889" t="n">
+        <v>-3176.467670757322</v>
+      </c>
+      <c r="H889" t="n">
+        <v>0</v>
+      </c>
+      <c r="I889" t="inlineStr"/>
+      <c r="J889" t="inlineStr"/>
+      <c r="K889" t="inlineStr"/>
+      <c r="L889" t="n">
+        <v>1</v>
+      </c>
+      <c r="M889" t="inlineStr"/>
+    </row>
+    <row r="890">
+      <c r="A890" s="1" t="n">
+        <v>888</v>
+      </c>
+      <c r="B890" t="n">
+        <v>155300</v>
+      </c>
+      <c r="C890" t="n">
+        <v>155300</v>
+      </c>
+      <c r="D890" t="n">
+        <v>155300</v>
+      </c>
+      <c r="E890" t="n">
+        <v>155300</v>
+      </c>
+      <c r="F890" t="n">
+        <v>3.9015</v>
+      </c>
+      <c r="G890" t="n">
+        <v>-3176.467670757322</v>
+      </c>
+      <c r="H890" t="n">
+        <v>0</v>
+      </c>
+      <c r="I890" t="inlineStr"/>
+      <c r="J890" t="inlineStr"/>
+      <c r="K890" t="inlineStr"/>
+      <c r="L890" t="n">
+        <v>1</v>
+      </c>
+      <c r="M890" t="inlineStr"/>
+    </row>
+    <row r="891">
+      <c r="A891" s="1" t="n">
+        <v>889</v>
+      </c>
+      <c r="B891" t="n">
+        <v>155400</v>
+      </c>
+      <c r="C891" t="n">
+        <v>155400</v>
+      </c>
+      <c r="D891" t="n">
+        <v>155400</v>
+      </c>
+      <c r="E891" t="n">
+        <v>155400</v>
+      </c>
+      <c r="F891" t="n">
+        <v>0.2761</v>
+      </c>
+      <c r="G891" t="n">
+        <v>-3176.191570757322</v>
+      </c>
+      <c r="H891" t="n">
+        <v>0</v>
+      </c>
+      <c r="I891" t="inlineStr"/>
+      <c r="J891" t="inlineStr"/>
+      <c r="K891" t="inlineStr"/>
+      <c r="L891" t="n">
+        <v>1</v>
+      </c>
+      <c r="M891" t="inlineStr"/>
+    </row>
+    <row r="892">
+      <c r="A892" s="1" t="n">
+        <v>890</v>
+      </c>
+      <c r="B892" t="n">
+        <v>155600</v>
+      </c>
+      <c r="C892" t="n">
+        <v>155400</v>
+      </c>
+      <c r="D892" t="n">
+        <v>155800</v>
+      </c>
+      <c r="E892" t="n">
+        <v>155400</v>
+      </c>
+      <c r="F892" t="n">
+        <v>138.6902</v>
+      </c>
+      <c r="G892" t="n">
+        <v>-3176.191570757322</v>
+      </c>
+      <c r="H892" t="n">
+        <v>0</v>
+      </c>
+      <c r="I892" t="inlineStr"/>
+      <c r="J892" t="inlineStr"/>
+      <c r="K892" t="inlineStr"/>
+      <c r="L892" t="n">
+        <v>1</v>
+      </c>
+      <c r="M892" t="inlineStr"/>
+    </row>
+    <row r="893">
+      <c r="A893" s="1" t="n">
+        <v>891</v>
+      </c>
+      <c r="B893" t="n">
+        <v>155500</v>
+      </c>
+      <c r="C893" t="n">
+        <v>155700</v>
+      </c>
+      <c r="D893" t="n">
+        <v>155700</v>
+      </c>
+      <c r="E893" t="n">
+        <v>155500</v>
+      </c>
+      <c r="F893" t="n">
+        <v>27.3199</v>
+      </c>
+      <c r="G893" t="n">
+        <v>-3148.871670757322</v>
+      </c>
+      <c r="H893" t="n">
+        <v>0</v>
+      </c>
+      <c r="I893" t="inlineStr"/>
+      <c r="J893" t="inlineStr"/>
+      <c r="K893" t="inlineStr"/>
+      <c r="L893" t="n">
+        <v>1</v>
+      </c>
+      <c r="M893" t="inlineStr"/>
+    </row>
+    <row r="894">
+      <c r="A894" s="1" t="n">
+        <v>892</v>
+      </c>
+      <c r="B894" t="n">
+        <v>155700</v>
+      </c>
+      <c r="C894" t="n">
+        <v>155700</v>
+      </c>
+      <c r="D894" t="n">
+        <v>155700</v>
+      </c>
+      <c r="E894" t="n">
+        <v>155700</v>
+      </c>
+      <c r="F894" t="n">
+        <v>25.1743</v>
+      </c>
+      <c r="G894" t="n">
+        <v>-3148.871670757322</v>
+      </c>
+      <c r="H894" t="n">
+        <v>0</v>
+      </c>
+      <c r="I894" t="inlineStr"/>
+      <c r="J894" t="inlineStr"/>
+      <c r="K894" t="inlineStr"/>
+      <c r="L894" t="n">
+        <v>1</v>
+      </c>
+      <c r="M894" t="inlineStr"/>
+    </row>
+    <row r="895">
+      <c r="A895" s="1" t="n">
+        <v>893</v>
+      </c>
+      <c r="B895" t="n">
+        <v>155700</v>
+      </c>
+      <c r="C895" t="n">
+        <v>155700</v>
+      </c>
+      <c r="D895" t="n">
+        <v>155800</v>
+      </c>
+      <c r="E895" t="n">
+        <v>155700</v>
+      </c>
+      <c r="F895" t="n">
+        <v>43.3993</v>
+      </c>
+      <c r="G895" t="n">
+        <v>-3148.871670757322</v>
+      </c>
+      <c r="H895" t="n">
+        <v>0</v>
+      </c>
+      <c r="I895" t="inlineStr"/>
+      <c r="J895" t="inlineStr"/>
+      <c r="K895" t="inlineStr"/>
+      <c r="L895" t="n">
+        <v>1</v>
+      </c>
+      <c r="M895" t="inlineStr"/>
+    </row>
+    <row r="896">
+      <c r="A896" s="1" t="n">
+        <v>894</v>
+      </c>
+      <c r="B896" t="n">
+        <v>155700</v>
+      </c>
+      <c r="C896" t="n">
+        <v>155500</v>
+      </c>
+      <c r="D896" t="n">
+        <v>155700</v>
+      </c>
+      <c r="E896" t="n">
+        <v>155500</v>
+      </c>
+      <c r="F896" t="n">
+        <v>42.4173</v>
+      </c>
+      <c r="G896" t="n">
+        <v>-3191.288970757322</v>
+      </c>
+      <c r="H896" t="n">
+        <v>0</v>
+      </c>
+      <c r="I896" t="inlineStr"/>
+      <c r="J896" t="inlineStr"/>
+      <c r="K896" t="inlineStr"/>
+      <c r="L896" t="n">
+        <v>1</v>
+      </c>
+      <c r="M896" t="inlineStr"/>
+    </row>
+    <row r="897">
+      <c r="A897" s="1" t="n">
+        <v>895</v>
+      </c>
+      <c r="B897" t="n">
+        <v>155500</v>
+      </c>
+      <c r="C897" t="n">
+        <v>155300</v>
+      </c>
+      <c r="D897" t="n">
+        <v>155500</v>
+      </c>
+      <c r="E897" t="n">
+        <v>155300</v>
+      </c>
+      <c r="F897" t="n">
+        <v>9.1652</v>
+      </c>
+      <c r="G897" t="n">
+        <v>-3200.454170757322</v>
+      </c>
+      <c r="H897" t="n">
+        <v>0</v>
+      </c>
+      <c r="I897" t="inlineStr"/>
+      <c r="J897" t="inlineStr"/>
+      <c r="K897" t="inlineStr"/>
+      <c r="L897" t="n">
+        <v>1</v>
+      </c>
+      <c r="M897" t="inlineStr"/>
+    </row>
+    <row r="898">
+      <c r="A898" s="1" t="n">
+        <v>896</v>
+      </c>
+      <c r="B898" t="n">
+        <v>155400</v>
+      </c>
+      <c r="C898" t="n">
+        <v>155300</v>
+      </c>
+      <c r="D898" t="n">
+        <v>155400</v>
+      </c>
+      <c r="E898" t="n">
+        <v>155300</v>
+      </c>
+      <c r="F898" t="n">
+        <v>35</v>
+      </c>
+      <c r="G898" t="n">
+        <v>-3200.454170757322</v>
+      </c>
+      <c r="H898" t="n">
+        <v>0</v>
+      </c>
+      <c r="I898" t="inlineStr"/>
+      <c r="J898" t="inlineStr"/>
+      <c r="K898" t="inlineStr"/>
+      <c r="L898" t="n">
+        <v>1</v>
+      </c>
+      <c r="M898" t="inlineStr"/>
+    </row>
+    <row r="899">
+      <c r="A899" s="1" t="n">
+        <v>897</v>
+      </c>
+      <c r="B899" t="n">
+        <v>155500</v>
+      </c>
+      <c r="C899" t="n">
+        <v>155600</v>
+      </c>
+      <c r="D899" t="n">
+        <v>155600</v>
+      </c>
+      <c r="E899" t="n">
+        <v>155500</v>
+      </c>
+      <c r="F899" t="n">
+        <v>0.6988</v>
+      </c>
+      <c r="G899" t="n">
+        <v>-3199.755370757322</v>
+      </c>
+      <c r="H899" t="n">
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>155300</v>
+      </c>
+      <c r="J899" t="n">
+        <v>155300</v>
+      </c>
+      <c r="K899" t="inlineStr"/>
+      <c r="L899" t="n">
+        <v>1</v>
+      </c>
+      <c r="M899" t="inlineStr"/>
+    </row>
+    <row r="900">
+      <c r="A900" s="1" t="n">
+        <v>898</v>
+      </c>
+      <c r="B900" t="n">
+        <v>155700</v>
+      </c>
+      <c r="C900" t="n">
+        <v>155700</v>
+      </c>
+      <c r="D900" t="n">
+        <v>155700</v>
+      </c>
+      <c r="E900" t="n">
+        <v>155700</v>
+      </c>
+      <c r="F900" t="n">
+        <v>0.9993</v>
+      </c>
+      <c r="G900" t="n">
+        <v>-3198.756070757322</v>
+      </c>
+      <c r="H900" t="n">
+        <v>0</v>
+      </c>
+      <c r="I900" t="inlineStr"/>
+      <c r="J900" t="n">
+        <v>155300</v>
+      </c>
+      <c r="K900" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L849" t="n">
-        <v>1</v>
-      </c>
-      <c r="M849" t="inlineStr"/>
-    </row>
-    <row r="850">
-      <c r="A850" s="1" t="n">
-        <v>848</v>
-      </c>
-      <c r="B850" t="n">
+      <c r="L900" t="n">
+        <v>1</v>
+      </c>
+      <c r="M900" t="inlineStr"/>
+    </row>
+    <row r="901">
+      <c r="A901" s="1" t="n">
+        <v>899</v>
+      </c>
+      <c r="B901" t="n">
+        <v>155800</v>
+      </c>
+      <c r="C901" t="n">
+        <v>155800</v>
+      </c>
+      <c r="D901" t="n">
+        <v>155800</v>
+      </c>
+      <c r="E901" t="n">
+        <v>155800</v>
+      </c>
+      <c r="F901" t="n">
+        <v>0.6321</v>
+      </c>
+      <c r="G901" t="n">
+        <v>-3198.123970757322</v>
+      </c>
+      <c r="H901" t="n">
+        <v>0</v>
+      </c>
+      <c r="I901" t="inlineStr"/>
+      <c r="J901" t="n">
         <v>155300</v>
       </c>
-      <c r="C850" t="n">
-        <v>155400</v>
-      </c>
-      <c r="D850" t="n">
-        <v>155400</v>
-      </c>
-      <c r="E850" t="n">
-        <v>155300</v>
-      </c>
-      <c r="F850" t="n">
-        <v>3.0296</v>
-      </c>
-      <c r="G850" t="n">
-        <v>-3331.078270757321</v>
-      </c>
-      <c r="H850" t="n">
-        <v>1</v>
-      </c>
-      <c r="I850" t="n">
-        <v>155300</v>
-      </c>
-      <c r="J850" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K850" t="inlineStr">
+      <c r="K901" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L850" t="n">
-        <v>1</v>
-      </c>
-      <c r="M850" t="inlineStr"/>
-    </row>
-    <row r="851">
-      <c r="A851" s="1" t="n">
-        <v>849</v>
-      </c>
-      <c r="B851" t="n">
-        <v>155300</v>
-      </c>
-      <c r="C851" t="n">
-        <v>155100</v>
-      </c>
-      <c r="D851" t="n">
-        <v>155300</v>
-      </c>
-      <c r="E851" t="n">
-        <v>155100</v>
-      </c>
-      <c r="F851" t="n">
-        <v>13.751</v>
-      </c>
-      <c r="G851" t="n">
-        <v>-3344.829270757321</v>
-      </c>
-      <c r="H851" t="n">
-        <v>1</v>
-      </c>
-      <c r="I851" t="n">
-        <v>155400</v>
-      </c>
-      <c r="J851" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K851" t="inlineStr">
+      <c r="L901" t="n">
+        <v>1</v>
+      </c>
+      <c r="M901" t="inlineStr"/>
+    </row>
+    <row r="902">
+      <c r="A902" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="B902" t="n">
+        <v>155600</v>
+      </c>
+      <c r="C902" t="n">
+        <v>155600</v>
+      </c>
+      <c r="D902" t="n">
+        <v>155600</v>
+      </c>
+      <c r="E902" t="n">
+        <v>155600</v>
+      </c>
+      <c r="F902" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G902" t="n">
+        <v>-3198.268970757322</v>
+      </c>
+      <c r="H902" t="n">
+        <v>0</v>
+      </c>
+      <c r="I902" t="inlineStr"/>
+      <c r="J902" t="inlineStr"/>
+      <c r="K902" t="inlineStr"/>
+      <c r="L902" t="n">
+        <v>1</v>
+      </c>
+      <c r="M902" t="inlineStr"/>
+    </row>
+    <row r="903">
+      <c r="A903" s="1" t="n">
+        <v>901</v>
+      </c>
+      <c r="B903" t="n">
+        <v>155700</v>
+      </c>
+      <c r="C903" t="n">
+        <v>155600</v>
+      </c>
+      <c r="D903" t="n">
+        <v>155700</v>
+      </c>
+      <c r="E903" t="n">
+        <v>155600</v>
+      </c>
+      <c r="F903" t="n">
+        <v>1.0434</v>
+      </c>
+      <c r="G903" t="n">
+        <v>-3198.268970757322</v>
+      </c>
+      <c r="H903" t="n">
+        <v>0</v>
+      </c>
+      <c r="I903" t="inlineStr"/>
+      <c r="J903" t="inlineStr"/>
+      <c r="K903" t="inlineStr"/>
+      <c r="L903" t="n">
+        <v>1</v>
+      </c>
+      <c r="M903" t="inlineStr"/>
+    </row>
+    <row r="904">
+      <c r="A904" s="1" t="n">
+        <v>902</v>
+      </c>
+      <c r="B904" t="n">
+        <v>155700</v>
+      </c>
+      <c r="C904" t="n">
+        <v>155600</v>
+      </c>
+      <c r="D904" t="n">
+        <v>155700</v>
+      </c>
+      <c r="E904" t="n">
+        <v>155600</v>
+      </c>
+      <c r="F904" t="n">
+        <v>3.1088</v>
+      </c>
+      <c r="G904" t="n">
+        <v>-3198.268970757322</v>
+      </c>
+      <c r="H904" t="n">
+        <v>1</v>
+      </c>
+      <c r="I904" t="n">
+        <v>155600</v>
+      </c>
+      <c r="J904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L851" t="n">
-        <v>1</v>
-      </c>
-      <c r="M851" t="inlineStr"/>
-    </row>
-    <row r="852">
-      <c r="A852" s="1" t="n">
-        <v>850</v>
-      </c>
-      <c r="B852" t="n">
-        <v>154800</v>
-      </c>
-      <c r="C852" t="n">
-        <v>155100</v>
-      </c>
-      <c r="D852" t="n">
-        <v>155100</v>
-      </c>
-      <c r="E852" t="n">
-        <v>154800</v>
-      </c>
-      <c r="F852" t="n">
-        <v>4.0285</v>
-      </c>
-      <c r="G852" t="n">
-        <v>-3344.829270757321</v>
-      </c>
-      <c r="H852" t="n">
-        <v>1</v>
-      </c>
-      <c r="I852" t="n">
-        <v>155100</v>
-      </c>
-      <c r="J852" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L852" t="n">
-        <v>1</v>
-      </c>
-      <c r="M852" t="inlineStr"/>
-    </row>
-    <row r="853">
-      <c r="A853" s="1" t="n">
-        <v>851</v>
-      </c>
-      <c r="B853" t="n">
-        <v>155100</v>
-      </c>
-      <c r="C853" t="n">
-        <v>155200</v>
-      </c>
-      <c r="D853" t="n">
-        <v>155200</v>
-      </c>
-      <c r="E853" t="n">
-        <v>155100</v>
-      </c>
-      <c r="F853" t="n">
-        <v>18.9522</v>
-      </c>
-      <c r="G853" t="n">
-        <v>-3325.877070757321</v>
-      </c>
-      <c r="H853" t="n">
-        <v>1</v>
-      </c>
-      <c r="I853" t="n">
-        <v>155100</v>
-      </c>
-      <c r="J853" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L853" t="n">
-        <v>1</v>
-      </c>
-      <c r="M853" t="inlineStr"/>
-    </row>
-    <row r="854">
-      <c r="A854" s="1" t="n">
-        <v>852</v>
-      </c>
-      <c r="B854" t="n">
-        <v>155200</v>
-      </c>
-      <c r="C854" t="n">
-        <v>155500</v>
-      </c>
-      <c r="D854" t="n">
-        <v>155500</v>
-      </c>
-      <c r="E854" t="n">
-        <v>155200</v>
-      </c>
-      <c r="F854" t="n">
-        <v>56.5291</v>
-      </c>
-      <c r="G854" t="n">
-        <v>-3269.347970757321</v>
-      </c>
-      <c r="H854" t="n">
-        <v>1</v>
-      </c>
-      <c r="I854" t="n">
-        <v>155200</v>
-      </c>
-      <c r="J854" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L854" t="n">
-        <v>1</v>
-      </c>
-      <c r="M854" t="inlineStr"/>
-    </row>
-    <row r="855">
-      <c r="A855" s="1" t="n">
-        <v>853</v>
-      </c>
-      <c r="B855" t="n">
-        <v>155700</v>
-      </c>
-      <c r="C855" t="n">
-        <v>155900</v>
-      </c>
-      <c r="D855" t="n">
-        <v>156100</v>
-      </c>
-      <c r="E855" t="n">
-        <v>155700</v>
-      </c>
-      <c r="F855" t="n">
-        <v>59.7192</v>
-      </c>
-      <c r="G855" t="n">
-        <v>-3209.628770757321</v>
-      </c>
-      <c r="H855" t="n">
-        <v>1</v>
-      </c>
-      <c r="I855" t="n">
-        <v>155500</v>
-      </c>
-      <c r="J855" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L855" t="n">
-        <v>1</v>
-      </c>
-      <c r="M855" t="inlineStr"/>
-    </row>
-    <row r="856">
-      <c r="A856" s="1" t="n">
-        <v>854</v>
-      </c>
-      <c r="B856" t="n">
-        <v>156000</v>
-      </c>
-      <c r="C856" t="n">
-        <v>155500</v>
-      </c>
-      <c r="D856" t="n">
-        <v>156000</v>
-      </c>
-      <c r="E856" t="n">
-        <v>155500</v>
-      </c>
-      <c r="F856" t="n">
-        <v>18.1251</v>
-      </c>
-      <c r="G856" t="n">
-        <v>-3227.753870757321</v>
-      </c>
-      <c r="H856" t="n">
-        <v>1</v>
-      </c>
-      <c r="I856" t="n">
-        <v>155900</v>
-      </c>
-      <c r="J856" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L856" t="n">
-        <v>1</v>
-      </c>
-      <c r="M856" t="inlineStr"/>
-    </row>
-    <row r="857">
-      <c r="A857" s="1" t="n">
-        <v>855</v>
-      </c>
-      <c r="B857" t="n">
-        <v>155600</v>
-      </c>
-      <c r="C857" t="n">
-        <v>155500</v>
-      </c>
-      <c r="D857" t="n">
-        <v>155600</v>
-      </c>
-      <c r="E857" t="n">
-        <v>155500</v>
-      </c>
-      <c r="F857" t="n">
-        <v>1.1631</v>
-      </c>
-      <c r="G857" t="n">
-        <v>-3227.753870757321</v>
-      </c>
-      <c r="H857" t="n">
-        <v>1</v>
-      </c>
-      <c r="I857" t="n">
-        <v>155500</v>
-      </c>
-      <c r="J857" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L857" t="n">
-        <v>1</v>
-      </c>
-      <c r="M857" t="inlineStr"/>
-    </row>
-    <row r="858">
-      <c r="A858" s="1" t="n">
-        <v>856</v>
-      </c>
-      <c r="B858" t="n">
-        <v>155500</v>
-      </c>
-      <c r="C858" t="n">
-        <v>155400</v>
-      </c>
-      <c r="D858" t="n">
-        <v>155500</v>
-      </c>
-      <c r="E858" t="n">
-        <v>155400</v>
-      </c>
-      <c r="F858" t="n">
-        <v>3.3424</v>
-      </c>
-      <c r="G858" t="n">
-        <v>-3231.096270757321</v>
-      </c>
-      <c r="H858" t="n">
-        <v>1</v>
-      </c>
-      <c r="I858" t="n">
-        <v>155500</v>
-      </c>
-      <c r="J858" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L858" t="n">
-        <v>1</v>
-      </c>
-      <c r="M858" t="inlineStr"/>
-    </row>
-    <row r="859">
-      <c r="A859" s="1" t="n">
-        <v>857</v>
-      </c>
-      <c r="B859" t="n">
-        <v>155400</v>
-      </c>
-      <c r="C859" t="n">
-        <v>155400</v>
-      </c>
-      <c r="D859" t="n">
-        <v>155400</v>
-      </c>
-      <c r="E859" t="n">
-        <v>155400</v>
-      </c>
-      <c r="F859" t="n">
-        <v>8.6998</v>
-      </c>
-      <c r="G859" t="n">
-        <v>-3231.096270757321</v>
-      </c>
-      <c r="H859" t="n">
-        <v>1</v>
-      </c>
-      <c r="I859" t="n">
-        <v>155400</v>
-      </c>
-      <c r="J859" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L859" t="n">
-        <v>1</v>
-      </c>
-      <c r="M859" t="inlineStr"/>
-    </row>
-    <row r="860">
-      <c r="A860" s="1" t="n">
-        <v>858</v>
-      </c>
-      <c r="B860" t="n">
-        <v>155500</v>
-      </c>
-      <c r="C860" t="n">
-        <v>155500</v>
-      </c>
-      <c r="D860" t="n">
-        <v>155500</v>
-      </c>
-      <c r="E860" t="n">
-        <v>155500</v>
-      </c>
-      <c r="F860" t="n">
-        <v>5</v>
-      </c>
-      <c r="G860" t="n">
-        <v>-3226.096270757321</v>
-      </c>
-      <c r="H860" t="n">
-        <v>1</v>
-      </c>
-      <c r="I860" t="n">
-        <v>155400</v>
-      </c>
-      <c r="J860" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L860" t="n">
-        <v>1</v>
-      </c>
-      <c r="M860" t="inlineStr"/>
-    </row>
-    <row r="861">
-      <c r="A861" s="1" t="n">
-        <v>859</v>
-      </c>
-      <c r="B861" t="n">
-        <v>155500</v>
-      </c>
-      <c r="C861" t="n">
-        <v>155600</v>
-      </c>
-      <c r="D861" t="n">
-        <v>155600</v>
-      </c>
-      <c r="E861" t="n">
-        <v>155400</v>
-      </c>
-      <c r="F861" t="n">
-        <v>31.4697</v>
-      </c>
-      <c r="G861" t="n">
-        <v>-3194.626570757321</v>
-      </c>
-      <c r="H861" t="n">
-        <v>1</v>
-      </c>
-      <c r="I861" t="n">
-        <v>155500</v>
-      </c>
-      <c r="J861" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L861" t="n">
-        <v>1</v>
-      </c>
-      <c r="M861" t="inlineStr"/>
-    </row>
-    <row r="862">
-      <c r="A862" s="1" t="n">
-        <v>860</v>
-      </c>
-      <c r="B862" t="n">
-        <v>155600</v>
-      </c>
-      <c r="C862" t="n">
-        <v>155600</v>
-      </c>
-      <c r="D862" t="n">
-        <v>155600</v>
-      </c>
-      <c r="E862" t="n">
-        <v>155600</v>
-      </c>
-      <c r="F862" t="n">
-        <v>1.0758</v>
-      </c>
-      <c r="G862" t="n">
-        <v>-3194.626570757321</v>
-      </c>
-      <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L862" t="n">
-        <v>1</v>
-      </c>
-      <c r="M862" t="inlineStr"/>
-    </row>
-    <row r="863">
-      <c r="A863" s="1" t="n">
-        <v>861</v>
-      </c>
-      <c r="B863" t="n">
-        <v>155600</v>
-      </c>
-      <c r="C863" t="n">
-        <v>155700</v>
-      </c>
-      <c r="D863" t="n">
-        <v>155700</v>
-      </c>
-      <c r="E863" t="n">
-        <v>155600</v>
-      </c>
-      <c r="F863" t="n">
-        <v>13.0597</v>
-      </c>
-      <c r="G863" t="n">
-        <v>-3181.566870757321</v>
-      </c>
-      <c r="H863" t="n">
-        <v>1</v>
-      </c>
-      <c r="I863" t="n">
-        <v>155600</v>
-      </c>
-      <c r="J863" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L863" t="n">
-        <v>1</v>
-      </c>
-      <c r="M863" t="inlineStr"/>
-    </row>
-    <row r="864">
-      <c r="A864" s="1" t="n">
-        <v>862</v>
-      </c>
-      <c r="B864" t="n">
-        <v>155600</v>
-      </c>
-      <c r="C864" t="n">
-        <v>155600</v>
-      </c>
-      <c r="D864" t="n">
-        <v>155600</v>
-      </c>
-      <c r="E864" t="n">
-        <v>155600</v>
-      </c>
-      <c r="F864" t="n">
-        <v>1.2193</v>
-      </c>
-      <c r="G864" t="n">
-        <v>-3182.786170757322</v>
-      </c>
-      <c r="H864" t="n">
-        <v>1</v>
-      </c>
-      <c r="I864" t="n">
-        <v>155700</v>
-      </c>
-      <c r="J864" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L864" t="n">
-        <v>1</v>
-      </c>
-      <c r="M864" t="inlineStr"/>
-    </row>
-    <row r="865">
-      <c r="A865" s="1" t="n">
-        <v>863</v>
-      </c>
-      <c r="B865" t="n">
-        <v>155600</v>
-      </c>
-      <c r="C865" t="n">
-        <v>155600</v>
-      </c>
-      <c r="D865" t="n">
-        <v>155600</v>
-      </c>
-      <c r="E865" t="n">
-        <v>155600</v>
-      </c>
-      <c r="F865" t="n">
-        <v>1.0968</v>
-      </c>
-      <c r="G865" t="n">
-        <v>-3182.786170757322</v>
-      </c>
-      <c r="H865" t="n">
-        <v>1</v>
-      </c>
-      <c r="I865" t="n">
-        <v>155600</v>
-      </c>
-      <c r="J865" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L865" t="n">
-        <v>1</v>
-      </c>
-      <c r="M865" t="inlineStr"/>
-    </row>
-    <row r="866">
-      <c r="A866" s="1" t="n">
-        <v>864</v>
-      </c>
-      <c r="B866" t="n">
-        <v>155600</v>
-      </c>
-      <c r="C866" t="n">
-        <v>155700</v>
-      </c>
-      <c r="D866" t="n">
-        <v>155700</v>
-      </c>
-      <c r="E866" t="n">
-        <v>155600</v>
-      </c>
-      <c r="F866" t="n">
-        <v>0.5173</v>
-      </c>
-      <c r="G866" t="n">
-        <v>-3182.268870757322</v>
-      </c>
-      <c r="H866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
-      <c r="J866" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L866" t="n">
-        <v>1</v>
-      </c>
-      <c r="M866" t="inlineStr"/>
-    </row>
-    <row r="867">
-      <c r="A867" s="1" t="n">
-        <v>865</v>
-      </c>
-      <c r="B867" t="n">
-        <v>155600</v>
-      </c>
-      <c r="C867" t="n">
-        <v>155700</v>
-      </c>
-      <c r="D867" t="n">
-        <v>155700</v>
-      </c>
-      <c r="E867" t="n">
-        <v>155600</v>
-      </c>
-      <c r="F867" t="n">
-        <v>20</v>
-      </c>
-      <c r="G867" t="n">
-        <v>-3182.268870757322</v>
-      </c>
-      <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
-      <c r="J867" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L867" t="n">
-        <v>1</v>
-      </c>
-      <c r="M867" t="inlineStr"/>
-    </row>
-    <row r="868">
-      <c r="A868" s="1" t="n">
-        <v>866</v>
-      </c>
-      <c r="B868" t="n">
-        <v>155500</v>
-      </c>
-      <c r="C868" t="n">
-        <v>155400</v>
-      </c>
-      <c r="D868" t="n">
-        <v>155500</v>
-      </c>
-      <c r="E868" t="n">
-        <v>155400</v>
-      </c>
-      <c r="F868" t="n">
-        <v>4.1526</v>
-      </c>
-      <c r="G868" t="n">
-        <v>-3186.421470757321</v>
-      </c>
-      <c r="H868" t="n">
-        <v>1</v>
-      </c>
-      <c r="I868" t="n">
-        <v>155700</v>
-      </c>
-      <c r="J868" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L868" t="n">
-        <v>1</v>
-      </c>
-      <c r="M868" t="inlineStr"/>
-    </row>
-    <row r="869">
-      <c r="A869" s="1" t="n">
-        <v>867</v>
-      </c>
-      <c r="B869" t="n">
-        <v>155500</v>
-      </c>
-      <c r="C869" t="n">
-        <v>155500</v>
-      </c>
-      <c r="D869" t="n">
-        <v>155500</v>
-      </c>
-      <c r="E869" t="n">
-        <v>155500</v>
-      </c>
-      <c r="F869" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G869" t="n">
-        <v>-3186.391470757321</v>
-      </c>
-      <c r="H869" t="n">
-        <v>1</v>
-      </c>
-      <c r="I869" t="n">
-        <v>155400</v>
-      </c>
-      <c r="J869" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L869" t="n">
-        <v>1</v>
-      </c>
-      <c r="M869" t="inlineStr"/>
-    </row>
-    <row r="870">
-      <c r="A870" s="1" t="n">
-        <v>868</v>
-      </c>
-      <c r="B870" t="n">
-        <v>155600</v>
-      </c>
-      <c r="C870" t="n">
-        <v>155500</v>
-      </c>
-      <c r="D870" t="n">
-        <v>155600</v>
-      </c>
-      <c r="E870" t="n">
-        <v>155500</v>
-      </c>
-      <c r="F870" t="n">
-        <v>9.7165</v>
-      </c>
-      <c r="G870" t="n">
-        <v>-3186.391470757321</v>
-      </c>
-      <c r="H870" t="n">
-        <v>1</v>
-      </c>
-      <c r="I870" t="n">
-        <v>155500</v>
-      </c>
-      <c r="J870" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L870" t="n">
-        <v>1</v>
-      </c>
-      <c r="M870" t="inlineStr"/>
-    </row>
-    <row r="871">
-      <c r="A871" s="1" t="n">
-        <v>869</v>
-      </c>
-      <c r="B871" t="n">
-        <v>155300</v>
-      </c>
-      <c r="C871" t="n">
-        <v>155300</v>
-      </c>
-      <c r="D871" t="n">
-        <v>155300</v>
-      </c>
-      <c r="E871" t="n">
-        <v>155300</v>
-      </c>
-      <c r="F871" t="n">
-        <v>0.2668</v>
-      </c>
-      <c r="G871" t="n">
-        <v>-3186.658270757321</v>
-      </c>
-      <c r="H871" t="n">
-        <v>1</v>
-      </c>
-      <c r="I871" t="n">
-        <v>155500</v>
-      </c>
-      <c r="J871" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L871" t="n">
-        <v>1</v>
-      </c>
-      <c r="M871" t="inlineStr"/>
-    </row>
-    <row r="872">
-      <c r="A872" s="1" t="n">
-        <v>870</v>
-      </c>
-      <c r="B872" t="n">
-        <v>155300</v>
-      </c>
-      <c r="C872" t="n">
-        <v>155300</v>
-      </c>
-      <c r="D872" t="n">
-        <v>155300</v>
-      </c>
-      <c r="E872" t="n">
-        <v>155300</v>
-      </c>
-      <c r="F872" t="n">
-        <v>6</v>
-      </c>
-      <c r="G872" t="n">
-        <v>-3186.658270757321</v>
-      </c>
-      <c r="H872" t="n">
-        <v>1</v>
-      </c>
-      <c r="I872" t="n">
-        <v>155300</v>
-      </c>
-      <c r="J872" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L872" t="n">
-        <v>1</v>
-      </c>
-      <c r="M872" t="inlineStr"/>
-    </row>
-    <row r="873">
-      <c r="A873" s="1" t="n">
-        <v>871</v>
-      </c>
-      <c r="B873" t="n">
-        <v>155300</v>
-      </c>
-      <c r="C873" t="n">
-        <v>155300</v>
-      </c>
-      <c r="D873" t="n">
-        <v>155300</v>
-      </c>
-      <c r="E873" t="n">
-        <v>155300</v>
-      </c>
-      <c r="F873" t="n">
-        <v>49.8665</v>
-      </c>
-      <c r="G873" t="n">
-        <v>-3186.658270757321</v>
-      </c>
-      <c r="H873" t="n">
-        <v>1</v>
-      </c>
-      <c r="I873" t="n">
-        <v>155300</v>
-      </c>
-      <c r="J873" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L873" t="n">
-        <v>1</v>
-      </c>
-      <c r="M873" t="inlineStr"/>
-    </row>
-    <row r="874">
-      <c r="A874" s="1" t="n">
-        <v>872</v>
-      </c>
-      <c r="B874" t="n">
-        <v>155300</v>
-      </c>
-      <c r="C874" t="n">
-        <v>155300</v>
-      </c>
-      <c r="D874" t="n">
-        <v>155300</v>
-      </c>
-      <c r="E874" t="n">
-        <v>155300</v>
-      </c>
-      <c r="F874" t="n">
-        <v>10</v>
-      </c>
-      <c r="G874" t="n">
-        <v>-3186.658270757321</v>
-      </c>
-      <c r="H874" t="n">
-        <v>1</v>
-      </c>
-      <c r="I874" t="n">
-        <v>155300</v>
-      </c>
-      <c r="J874" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L874" t="n">
-        <v>1</v>
-      </c>
-      <c r="M874" t="inlineStr"/>
-    </row>
-    <row r="875">
-      <c r="A875" s="1" t="n">
-        <v>873</v>
-      </c>
-      <c r="B875" t="n">
-        <v>155100</v>
-      </c>
-      <c r="C875" t="n">
-        <v>155100</v>
-      </c>
-      <c r="D875" t="n">
-        <v>155100</v>
-      </c>
-      <c r="E875" t="n">
-        <v>155100</v>
-      </c>
-      <c r="F875" t="n">
-        <v>25.876</v>
-      </c>
-      <c r="G875" t="n">
-        <v>-3212.534270757321</v>
-      </c>
-      <c r="H875" t="n">
-        <v>0</v>
-      </c>
-      <c r="I875" t="inlineStr"/>
-      <c r="J875" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L875" t="n">
-        <v>1</v>
-      </c>
-      <c r="M875" t="inlineStr"/>
-    </row>
-    <row r="876">
-      <c r="A876" s="1" t="n">
-        <v>874</v>
-      </c>
-      <c r="B876" t="n">
-        <v>155400</v>
-      </c>
-      <c r="C876" t="n">
-        <v>155400</v>
-      </c>
-      <c r="D876" t="n">
-        <v>155400</v>
-      </c>
-      <c r="E876" t="n">
-        <v>155400</v>
-      </c>
-      <c r="F876" t="n">
-        <v>5</v>
-      </c>
-      <c r="G876" t="n">
-        <v>-3207.534270757321</v>
-      </c>
-      <c r="H876" t="n">
-        <v>1</v>
-      </c>
-      <c r="I876" t="n">
-        <v>155100</v>
-      </c>
-      <c r="J876" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L876" t="n">
-        <v>1</v>
-      </c>
-      <c r="M876" t="inlineStr"/>
-    </row>
-    <row r="877">
-      <c r="A877" s="1" t="n">
-        <v>875</v>
-      </c>
-      <c r="B877" t="n">
-        <v>155200</v>
-      </c>
-      <c r="C877" t="n">
-        <v>155200</v>
-      </c>
-      <c r="D877" t="n">
-        <v>155200</v>
-      </c>
-      <c r="E877" t="n">
-        <v>155200</v>
-      </c>
-      <c r="F877" t="n">
-        <v>8.6999</v>
-      </c>
-      <c r="G877" t="n">
-        <v>-3216.234170757321</v>
-      </c>
-      <c r="H877" t="n">
-        <v>1</v>
-      </c>
-      <c r="I877" t="n">
-        <v>155400</v>
-      </c>
-      <c r="J877" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L877" t="n">
-        <v>1</v>
-      </c>
-      <c r="M877" t="inlineStr"/>
-    </row>
-    <row r="878">
-      <c r="A878" s="1" t="n">
-        <v>876</v>
-      </c>
-      <c r="B878" t="n">
-        <v>155500</v>
-      </c>
-      <c r="C878" t="n">
-        <v>155400</v>
-      </c>
-      <c r="D878" t="n">
-        <v>155500</v>
-      </c>
-      <c r="E878" t="n">
-        <v>155400</v>
-      </c>
-      <c r="F878" t="n">
-        <v>15</v>
-      </c>
-      <c r="G878" t="n">
-        <v>-3201.234170757321</v>
-      </c>
-      <c r="H878" t="n">
-        <v>1</v>
-      </c>
-      <c r="I878" t="n">
-        <v>155200</v>
-      </c>
-      <c r="J878" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L878" t="n">
-        <v>1</v>
-      </c>
-      <c r="M878" t="inlineStr"/>
-    </row>
-    <row r="879">
-      <c r="A879" s="1" t="n">
-        <v>877</v>
-      </c>
-      <c r="B879" t="n">
-        <v>155600</v>
-      </c>
-      <c r="C879" t="n">
-        <v>155500</v>
-      </c>
-      <c r="D879" t="n">
-        <v>155600</v>
-      </c>
-      <c r="E879" t="n">
-        <v>155500</v>
-      </c>
-      <c r="F879" t="n">
-        <v>2.1519</v>
-      </c>
-      <c r="G879" t="n">
-        <v>-3199.082270757322</v>
-      </c>
-      <c r="H879" t="n">
-        <v>1</v>
-      </c>
-      <c r="I879" t="n">
-        <v>155400</v>
-      </c>
-      <c r="J879" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L879" t="n">
-        <v>1</v>
-      </c>
-      <c r="M879" t="inlineStr"/>
-    </row>
-    <row r="880">
-      <c r="A880" s="1" t="n">
-        <v>878</v>
-      </c>
-      <c r="B880" t="n">
-        <v>155300</v>
-      </c>
-      <c r="C880" t="n">
-        <v>155300</v>
-      </c>
-      <c r="D880" t="n">
-        <v>155300</v>
-      </c>
-      <c r="E880" t="n">
-        <v>155300</v>
-      </c>
-      <c r="F880" t="n">
-        <v>3.882</v>
-      </c>
-      <c r="G880" t="n">
-        <v>-3202.964270757322</v>
-      </c>
-      <c r="H880" t="n">
-        <v>0</v>
-      </c>
-      <c r="I880" t="inlineStr"/>
-      <c r="J880" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L880" t="n">
-        <v>1</v>
-      </c>
-      <c r="M880" t="inlineStr"/>
-    </row>
-    <row r="881">
-      <c r="A881" s="1" t="n">
-        <v>879</v>
-      </c>
-      <c r="B881" t="n">
-        <v>155300</v>
-      </c>
-      <c r="C881" t="n">
-        <v>155300</v>
-      </c>
-      <c r="D881" t="n">
-        <v>155300</v>
-      </c>
-      <c r="E881" t="n">
-        <v>155300</v>
-      </c>
-      <c r="F881" t="n">
-        <v>35.2455</v>
-      </c>
-      <c r="G881" t="n">
-        <v>-3202.964270757322</v>
-      </c>
-      <c r="H881" t="n">
-        <v>1</v>
-      </c>
-      <c r="I881" t="n">
-        <v>155300</v>
-      </c>
-      <c r="J881" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L881" t="n">
-        <v>1</v>
-      </c>
-      <c r="M881" t="inlineStr"/>
-    </row>
-    <row r="882">
-      <c r="A882" s="1" t="n">
-        <v>880</v>
-      </c>
-      <c r="B882" t="n">
-        <v>155200</v>
-      </c>
-      <c r="C882" t="n">
-        <v>155500</v>
-      </c>
-      <c r="D882" t="n">
-        <v>155500</v>
-      </c>
-      <c r="E882" t="n">
-        <v>155200</v>
-      </c>
-      <c r="F882" t="n">
-        <v>15.5881</v>
-      </c>
-      <c r="G882" t="n">
-        <v>-3187.376170757322</v>
-      </c>
-      <c r="H882" t="n">
-        <v>0</v>
-      </c>
-      <c r="I882" t="inlineStr"/>
-      <c r="J882" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L882" t="n">
-        <v>1</v>
-      </c>
-      <c r="M882" t="inlineStr"/>
-    </row>
-    <row r="883">
-      <c r="A883" s="1" t="n">
-        <v>881</v>
-      </c>
-      <c r="B883" t="n">
-        <v>155400</v>
-      </c>
-      <c r="C883" t="n">
-        <v>155400</v>
-      </c>
-      <c r="D883" t="n">
-        <v>155400</v>
-      </c>
-      <c r="E883" t="n">
-        <v>155400</v>
-      </c>
-      <c r="F883" t="n">
-        <v>5.4279</v>
-      </c>
-      <c r="G883" t="n">
-        <v>-3192.804070757322</v>
-      </c>
-      <c r="H883" t="n">
-        <v>1</v>
-      </c>
-      <c r="I883" t="n">
-        <v>155500</v>
-      </c>
-      <c r="J883" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L883" t="n">
-        <v>1</v>
-      </c>
-      <c r="M883" t="inlineStr"/>
-    </row>
-    <row r="884">
-      <c r="A884" s="1" t="n">
-        <v>882</v>
-      </c>
-      <c r="B884" t="n">
-        <v>155400</v>
-      </c>
-      <c r="C884" t="n">
-        <v>155400</v>
-      </c>
-      <c r="D884" t="n">
-        <v>155400</v>
-      </c>
-      <c r="E884" t="n">
-        <v>155400</v>
-      </c>
-      <c r="F884" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G884" t="n">
-        <v>-3192.804070757322</v>
-      </c>
-      <c r="H884" t="n">
-        <v>1</v>
-      </c>
-      <c r="I884" t="n">
-        <v>155400</v>
-      </c>
-      <c r="J884" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L884" t="n">
-        <v>1</v>
-      </c>
-      <c r="M884" t="inlineStr"/>
-    </row>
-    <row r="885">
-      <c r="A885" s="1" t="n">
-        <v>883</v>
-      </c>
-      <c r="B885" t="n">
-        <v>155400</v>
-      </c>
-      <c r="C885" t="n">
-        <v>155400</v>
-      </c>
-      <c r="D885" t="n">
-        <v>155400</v>
-      </c>
-      <c r="E885" t="n">
-        <v>155400</v>
-      </c>
-      <c r="F885" t="n">
-        <v>4.1809</v>
-      </c>
-      <c r="G885" t="n">
-        <v>-3192.804070757322</v>
-      </c>
-      <c r="H885" t="n">
-        <v>1</v>
-      </c>
-      <c r="I885" t="n">
-        <v>155400</v>
-      </c>
-      <c r="J885" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L885" t="n">
-        <v>1</v>
-      </c>
-      <c r="M885" t="inlineStr"/>
-    </row>
-    <row r="886">
-      <c r="A886" s="1" t="n">
-        <v>884</v>
-      </c>
-      <c r="B886" t="n">
-        <v>155300</v>
-      </c>
-      <c r="C886" t="n">
-        <v>155500</v>
-      </c>
-      <c r="D886" t="n">
-        <v>155500</v>
-      </c>
-      <c r="E886" t="n">
-        <v>155200</v>
-      </c>
-      <c r="F886" t="n">
-        <v>24.363</v>
-      </c>
-      <c r="G886" t="n">
-        <v>-3168.441070757322</v>
-      </c>
-      <c r="H886" t="n">
-        <v>1</v>
-      </c>
-      <c r="I886" t="n">
-        <v>155400</v>
-      </c>
-      <c r="J886" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L886" t="n">
-        <v>1</v>
-      </c>
-      <c r="M886" t="inlineStr"/>
-    </row>
-    <row r="887">
-      <c r="A887" s="1" t="n">
-        <v>885</v>
-      </c>
-      <c r="B887" t="n">
-        <v>155400</v>
-      </c>
-      <c r="C887" t="n">
-        <v>155400</v>
-      </c>
-      <c r="D887" t="n">
-        <v>155400</v>
-      </c>
-      <c r="E887" t="n">
-        <v>155400</v>
-      </c>
-      <c r="F887" t="n">
-        <v>0.2902</v>
-      </c>
-      <c r="G887" t="n">
-        <v>-3168.731270757322</v>
-      </c>
-      <c r="H887" t="n">
-        <v>1</v>
-      </c>
-      <c r="I887" t="n">
-        <v>155500</v>
-      </c>
-      <c r="J887" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L887" t="n">
-        <v>1</v>
-      </c>
-      <c r="M887" t="inlineStr"/>
-    </row>
-    <row r="888">
-      <c r="A888" s="1" t="n">
-        <v>886</v>
-      </c>
-      <c r="B888" t="n">
-        <v>155300</v>
-      </c>
-      <c r="C888" t="n">
-        <v>155300</v>
-      </c>
-      <c r="D888" t="n">
-        <v>155300</v>
-      </c>
-      <c r="E888" t="n">
-        <v>155300</v>
-      </c>
-      <c r="F888" t="n">
-        <v>7.7364</v>
-      </c>
-      <c r="G888" t="n">
-        <v>-3176.467670757322</v>
-      </c>
-      <c r="H888" t="n">
-        <v>1</v>
-      </c>
-      <c r="I888" t="n">
-        <v>155400</v>
-      </c>
-      <c r="J888" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L888" t="n">
-        <v>1</v>
-      </c>
-      <c r="M888" t="inlineStr"/>
-    </row>
-    <row r="889">
-      <c r="A889" s="1" t="n">
-        <v>887</v>
-      </c>
-      <c r="B889" t="n">
-        <v>155300</v>
-      </c>
-      <c r="C889" t="n">
-        <v>155300</v>
-      </c>
-      <c r="D889" t="n">
-        <v>155300</v>
-      </c>
-      <c r="E889" t="n">
-        <v>155300</v>
-      </c>
-      <c r="F889" t="n">
-        <v>3.9074</v>
-      </c>
-      <c r="G889" t="n">
-        <v>-3176.467670757322</v>
-      </c>
-      <c r="H889" t="n">
-        <v>1</v>
-      </c>
-      <c r="I889" t="n">
-        <v>155300</v>
-      </c>
-      <c r="J889" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L889" t="n">
-        <v>1</v>
-      </c>
-      <c r="M889" t="inlineStr"/>
-    </row>
-    <row r="890">
-      <c r="A890" s="1" t="n">
-        <v>888</v>
-      </c>
-      <c r="B890" t="n">
-        <v>155300</v>
-      </c>
-      <c r="C890" t="n">
-        <v>155300</v>
-      </c>
-      <c r="D890" t="n">
-        <v>155300</v>
-      </c>
-      <c r="E890" t="n">
-        <v>155300</v>
-      </c>
-      <c r="F890" t="n">
-        <v>3.9015</v>
-      </c>
-      <c r="G890" t="n">
-        <v>-3176.467670757322</v>
-      </c>
-      <c r="H890" t="n">
-        <v>1</v>
-      </c>
-      <c r="I890" t="n">
-        <v>155300</v>
-      </c>
-      <c r="J890" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L890" t="n">
-        <v>1</v>
-      </c>
-      <c r="M890" t="inlineStr"/>
-    </row>
-    <row r="891">
-      <c r="A891" s="1" t="n">
-        <v>889</v>
-      </c>
-      <c r="B891" t="n">
-        <v>155400</v>
-      </c>
-      <c r="C891" t="n">
-        <v>155400</v>
-      </c>
-      <c r="D891" t="n">
-        <v>155400</v>
-      </c>
-      <c r="E891" t="n">
-        <v>155400</v>
-      </c>
-      <c r="F891" t="n">
-        <v>0.2761</v>
-      </c>
-      <c r="G891" t="n">
-        <v>-3176.191570757322</v>
-      </c>
-      <c r="H891" t="n">
-        <v>1</v>
-      </c>
-      <c r="I891" t="n">
-        <v>155300</v>
-      </c>
-      <c r="J891" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L891" t="n">
-        <v>1</v>
-      </c>
-      <c r="M891" t="inlineStr"/>
-    </row>
-    <row r="892">
-      <c r="A892" s="1" t="n">
-        <v>890</v>
-      </c>
-      <c r="B892" t="n">
-        <v>155600</v>
-      </c>
-      <c r="C892" t="n">
-        <v>155400</v>
-      </c>
-      <c r="D892" t="n">
-        <v>155800</v>
-      </c>
-      <c r="E892" t="n">
-        <v>155400</v>
-      </c>
-      <c r="F892" t="n">
-        <v>138.6902</v>
-      </c>
-      <c r="G892" t="n">
-        <v>-3176.191570757322</v>
-      </c>
-      <c r="H892" t="n">
-        <v>1</v>
-      </c>
-      <c r="I892" t="n">
-        <v>155400</v>
-      </c>
-      <c r="J892" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L892" t="n">
-        <v>1</v>
-      </c>
-      <c r="M892" t="inlineStr"/>
-    </row>
-    <row r="893">
-      <c r="A893" s="1" t="n">
-        <v>891</v>
-      </c>
-      <c r="B893" t="n">
-        <v>155500</v>
-      </c>
-      <c r="C893" t="n">
-        <v>155700</v>
-      </c>
-      <c r="D893" t="n">
-        <v>155700</v>
-      </c>
-      <c r="E893" t="n">
-        <v>155500</v>
-      </c>
-      <c r="F893" t="n">
-        <v>27.3199</v>
-      </c>
-      <c r="G893" t="n">
-        <v>-3148.871670757322</v>
-      </c>
-      <c r="H893" t="n">
-        <v>0</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
-      <c r="J893" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L893" t="n">
-        <v>1</v>
-      </c>
-      <c r="M893" t="inlineStr"/>
-    </row>
-    <row r="894">
-      <c r="A894" s="1" t="n">
-        <v>892</v>
-      </c>
-      <c r="B894" t="n">
-        <v>155700</v>
-      </c>
-      <c r="C894" t="n">
-        <v>155700</v>
-      </c>
-      <c r="D894" t="n">
-        <v>155700</v>
-      </c>
-      <c r="E894" t="n">
-        <v>155700</v>
-      </c>
-      <c r="F894" t="n">
-        <v>25.1743</v>
-      </c>
-      <c r="G894" t="n">
-        <v>-3148.871670757322</v>
-      </c>
-      <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
-      <c r="J894" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L894" t="n">
-        <v>1</v>
-      </c>
-      <c r="M894" t="inlineStr"/>
-    </row>
-    <row r="895">
-      <c r="A895" s="1" t="n">
-        <v>893</v>
-      </c>
-      <c r="B895" t="n">
-        <v>155700</v>
-      </c>
-      <c r="C895" t="n">
-        <v>155700</v>
-      </c>
-      <c r="D895" t="n">
-        <v>155800</v>
-      </c>
-      <c r="E895" t="n">
-        <v>155700</v>
-      </c>
-      <c r="F895" t="n">
-        <v>43.3993</v>
-      </c>
-      <c r="G895" t="n">
-        <v>-3148.871670757322</v>
-      </c>
-      <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
-      <c r="J895" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L895" t="n">
-        <v>1</v>
-      </c>
-      <c r="M895" t="inlineStr"/>
-    </row>
-    <row r="896">
-      <c r="A896" s="1" t="n">
-        <v>894</v>
-      </c>
-      <c r="B896" t="n">
-        <v>155700</v>
-      </c>
-      <c r="C896" t="n">
-        <v>155500</v>
-      </c>
-      <c r="D896" t="n">
-        <v>155700</v>
-      </c>
-      <c r="E896" t="n">
-        <v>155500</v>
-      </c>
-      <c r="F896" t="n">
-        <v>42.4173</v>
-      </c>
-      <c r="G896" t="n">
-        <v>-3191.288970757322</v>
-      </c>
-      <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
-      <c r="J896" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L896" t="n">
-        <v>1</v>
-      </c>
-      <c r="M896" t="inlineStr"/>
-    </row>
-    <row r="897">
-      <c r="A897" s="1" t="n">
-        <v>895</v>
-      </c>
-      <c r="B897" t="n">
-        <v>155500</v>
-      </c>
-      <c r="C897" t="n">
-        <v>155300</v>
-      </c>
-      <c r="D897" t="n">
-        <v>155500</v>
-      </c>
-      <c r="E897" t="n">
-        <v>155300</v>
-      </c>
-      <c r="F897" t="n">
-        <v>9.1652</v>
-      </c>
-      <c r="G897" t="n">
-        <v>-3200.454170757322</v>
-      </c>
-      <c r="H897" t="n">
-        <v>1</v>
-      </c>
-      <c r="I897" t="n">
-        <v>155500</v>
-      </c>
-      <c r="J897" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L897" t="n">
-        <v>1</v>
-      </c>
-      <c r="M897" t="inlineStr"/>
-    </row>
-    <row r="898">
-      <c r="A898" s="1" t="n">
-        <v>896</v>
-      </c>
-      <c r="B898" t="n">
-        <v>155400</v>
-      </c>
-      <c r="C898" t="n">
-        <v>155300</v>
-      </c>
-      <c r="D898" t="n">
-        <v>155400</v>
-      </c>
-      <c r="E898" t="n">
-        <v>155300</v>
-      </c>
-      <c r="F898" t="n">
-        <v>35</v>
-      </c>
-      <c r="G898" t="n">
-        <v>-3200.454170757322</v>
-      </c>
-      <c r="H898" t="n">
-        <v>1</v>
-      </c>
-      <c r="I898" t="n">
-        <v>155300</v>
-      </c>
-      <c r="J898" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L898" t="n">
-        <v>1</v>
-      </c>
-      <c r="M898" t="inlineStr"/>
-    </row>
-    <row r="899">
-      <c r="A899" s="1" t="n">
-        <v>897</v>
-      </c>
-      <c r="B899" t="n">
-        <v>155500</v>
-      </c>
-      <c r="C899" t="n">
-        <v>155600</v>
-      </c>
-      <c r="D899" t="n">
-        <v>155600</v>
-      </c>
-      <c r="E899" t="n">
-        <v>155500</v>
-      </c>
-      <c r="F899" t="n">
-        <v>0.6988</v>
-      </c>
-      <c r="G899" t="n">
-        <v>-3199.755370757322</v>
-      </c>
-      <c r="H899" t="n">
-        <v>1</v>
-      </c>
-      <c r="I899" t="n">
-        <v>155300</v>
-      </c>
-      <c r="J899" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L899" t="n">
-        <v>1</v>
-      </c>
-      <c r="M899" t="inlineStr"/>
-    </row>
-    <row r="900">
-      <c r="A900" s="1" t="n">
-        <v>898</v>
-      </c>
-      <c r="B900" t="n">
-        <v>155700</v>
-      </c>
-      <c r="C900" t="n">
-        <v>155700</v>
-      </c>
-      <c r="D900" t="n">
-        <v>155700</v>
-      </c>
-      <c r="E900" t="n">
-        <v>155700</v>
-      </c>
-      <c r="F900" t="n">
-        <v>0.9993</v>
-      </c>
-      <c r="G900" t="n">
-        <v>-3198.756070757322</v>
-      </c>
-      <c r="H900" t="n">
-        <v>1</v>
-      </c>
-      <c r="I900" t="n">
-        <v>155600</v>
-      </c>
-      <c r="J900" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L900" t="n">
-        <v>1</v>
-      </c>
-      <c r="M900" t="inlineStr"/>
-    </row>
-    <row r="901">
-      <c r="A901" s="1" t="n">
-        <v>899</v>
-      </c>
-      <c r="B901" t="n">
-        <v>155800</v>
-      </c>
-      <c r="C901" t="n">
-        <v>155800</v>
-      </c>
-      <c r="D901" t="n">
-        <v>155800</v>
-      </c>
-      <c r="E901" t="n">
-        <v>155800</v>
-      </c>
-      <c r="F901" t="n">
-        <v>0.6321</v>
-      </c>
-      <c r="G901" t="n">
-        <v>-3198.123970757322</v>
-      </c>
-      <c r="H901" t="n">
-        <v>1</v>
-      </c>
-      <c r="I901" t="n">
-        <v>155700</v>
-      </c>
-      <c r="J901" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L901" t="n">
-        <v>1</v>
-      </c>
-      <c r="M901" t="inlineStr"/>
-    </row>
-    <row r="902">
-      <c r="A902" s="1" t="n">
-        <v>900</v>
-      </c>
-      <c r="B902" t="n">
-        <v>155600</v>
-      </c>
-      <c r="C902" t="n">
-        <v>155600</v>
-      </c>
-      <c r="D902" t="n">
-        <v>155600</v>
-      </c>
-      <c r="E902" t="n">
-        <v>155600</v>
-      </c>
-      <c r="F902" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="G902" t="n">
-        <v>-3198.268970757322</v>
-      </c>
-      <c r="H902" t="n">
-        <v>1</v>
-      </c>
-      <c r="I902" t="n">
-        <v>155800</v>
-      </c>
-      <c r="J902" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L902" t="n">
-        <v>1</v>
-      </c>
-      <c r="M902" t="inlineStr"/>
-    </row>
-    <row r="903">
-      <c r="A903" s="1" t="n">
-        <v>901</v>
-      </c>
-      <c r="B903" t="n">
-        <v>155700</v>
-      </c>
-      <c r="C903" t="n">
-        <v>155600</v>
-      </c>
-      <c r="D903" t="n">
-        <v>155700</v>
-      </c>
-      <c r="E903" t="n">
-        <v>155600</v>
-      </c>
-      <c r="F903" t="n">
-        <v>1.0434</v>
-      </c>
-      <c r="G903" t="n">
-        <v>-3198.268970757322</v>
-      </c>
-      <c r="H903" t="n">
-        <v>1</v>
-      </c>
-      <c r="I903" t="n">
-        <v>155600</v>
-      </c>
-      <c r="J903" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L903" t="n">
-        <v>1</v>
-      </c>
-      <c r="M903" t="inlineStr"/>
-    </row>
-    <row r="904">
-      <c r="A904" s="1" t="n">
-        <v>902</v>
-      </c>
-      <c r="B904" t="n">
-        <v>155700</v>
-      </c>
-      <c r="C904" t="n">
-        <v>155600</v>
-      </c>
-      <c r="D904" t="n">
-        <v>155700</v>
-      </c>
-      <c r="E904" t="n">
-        <v>155600</v>
-      </c>
-      <c r="F904" t="n">
-        <v>3.1088</v>
-      </c>
-      <c r="G904" t="n">
-        <v>-3198.268970757322</v>
-      </c>
-      <c r="H904" t="n">
-        <v>1</v>
-      </c>
-      <c r="I904" t="n">
-        <v>155600</v>
-      </c>
-      <c r="J904" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30687,9 +30277,7 @@
       <c r="I905" t="n">
         <v>155600</v>
       </c>
-      <c r="J905" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30728,9 +30316,7 @@
       <c r="I906" t="n">
         <v>155600</v>
       </c>
-      <c r="J906" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30769,9 +30355,7 @@
       <c r="I907" t="n">
         <v>155500</v>
       </c>
-      <c r="J907" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30810,9 +30394,7 @@
       <c r="I908" t="n">
         <v>155500</v>
       </c>
-      <c r="J908" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30851,9 +30433,7 @@
       <c r="I909" t="n">
         <v>155500</v>
       </c>
-      <c r="J909" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30892,9 +30472,7 @@
       <c r="I910" t="n">
         <v>155400</v>
       </c>
-      <c r="J910" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30933,9 +30511,7 @@
       <c r="I911" t="n">
         <v>155400</v>
       </c>
-      <c r="J911" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30974,9 +30550,7 @@
       <c r="I912" t="n">
         <v>155300</v>
       </c>
-      <c r="J912" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31015,9 +30589,7 @@
       <c r="I913" t="n">
         <v>155500</v>
       </c>
-      <c r="J913" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31056,9 +30628,7 @@
       <c r="I914" t="n">
         <v>155300</v>
       </c>
-      <c r="J914" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31097,9 +30667,7 @@
       <c r="I915" t="n">
         <v>155200</v>
       </c>
-      <c r="J915" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31138,9 +30706,7 @@
       <c r="I916" t="n">
         <v>155200</v>
       </c>
-      <c r="J916" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31179,9 +30745,7 @@
       <c r="I917" t="n">
         <v>155400</v>
       </c>
-      <c r="J917" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31220,9 +30784,7 @@
       <c r="I918" t="n">
         <v>155400</v>
       </c>
-      <c r="J918" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31261,9 +30823,7 @@
       <c r="I919" t="n">
         <v>155500</v>
       </c>
-      <c r="J919" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31302,9 +30862,7 @@
       <c r="I920" t="n">
         <v>155500</v>
       </c>
-      <c r="J920" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31343,9 +30901,7 @@
       <c r="I921" t="n">
         <v>155300</v>
       </c>
-      <c r="J921" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31384,9 +30940,7 @@
       <c r="I922" t="n">
         <v>155200</v>
       </c>
-      <c r="J922" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31425,9 +30979,7 @@
       <c r="I923" t="n">
         <v>155200</v>
       </c>
-      <c r="J923" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31466,9 +31018,7 @@
       <c r="I924" t="n">
         <v>155400</v>
       </c>
-      <c r="J924" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31507,9 +31057,7 @@
       <c r="I925" t="n">
         <v>155400</v>
       </c>
-      <c r="J925" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31548,9 +31096,7 @@
       <c r="I926" t="n">
         <v>155600</v>
       </c>
-      <c r="J926" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31584,14 +31130,10 @@
         <v>-3197.162525103621</v>
       </c>
       <c r="H927" t="n">
-        <v>1</v>
-      </c>
-      <c r="I927" t="n">
-        <v>155700</v>
-      </c>
-      <c r="J927" t="n">
-        <v>155100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I927" t="inlineStr"/>
+      <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31625,14 +31167,10 @@
         <v>-3209.778425103621</v>
       </c>
       <c r="H928" t="n">
-        <v>1</v>
-      </c>
-      <c r="I928" t="n">
-        <v>155700</v>
-      </c>
-      <c r="J928" t="n">
-        <v>155100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I928" t="inlineStr"/>
+      <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31666,14 +31204,10 @@
         <v>-3210.161825103621</v>
       </c>
       <c r="H929" t="n">
-        <v>1</v>
-      </c>
-      <c r="I929" t="n">
-        <v>155600</v>
-      </c>
-      <c r="J929" t="n">
-        <v>155100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I929" t="inlineStr"/>
+      <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31707,14 +31241,10 @@
         <v>-3212.511825103621</v>
       </c>
       <c r="H930" t="n">
-        <v>1</v>
-      </c>
-      <c r="I930" t="n">
-        <v>155500</v>
-      </c>
-      <c r="J930" t="n">
-        <v>155100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I930" t="inlineStr"/>
+      <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31753,9 +31283,7 @@
       <c r="I931" t="n">
         <v>155300</v>
       </c>
-      <c r="J931" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31794,9 +31322,7 @@
       <c r="I932" t="n">
         <v>155300</v>
       </c>
-      <c r="J932" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31835,9 +31361,7 @@
       <c r="I933" t="n">
         <v>155600</v>
       </c>
-      <c r="J933" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31876,9 +31400,7 @@
       <c r="I934" t="n">
         <v>155300</v>
       </c>
-      <c r="J934" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31917,9 +31439,7 @@
       <c r="I935" t="n">
         <v>155300</v>
       </c>
-      <c r="J935" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31958,9 +31478,7 @@
       <c r="I936" t="n">
         <v>155400</v>
       </c>
-      <c r="J936" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31999,9 +31517,7 @@
       <c r="I937" t="n">
         <v>155400</v>
       </c>
-      <c r="J937" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32040,9 +31556,7 @@
       <c r="I938" t="n">
         <v>155400</v>
       </c>
-      <c r="J938" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32081,9 +31595,7 @@
       <c r="I939" t="n">
         <v>155400</v>
       </c>
-      <c r="J939" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32122,9 +31634,7 @@
       <c r="I940" t="n">
         <v>155500</v>
       </c>
-      <c r="J940" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32163,9 +31673,7 @@
       <c r="I941" t="n">
         <v>155800</v>
       </c>
-      <c r="J941" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32199,14 +31707,10 @@
         <v>-3204.44362510362</v>
       </c>
       <c r="H942" t="n">
-        <v>1</v>
-      </c>
-      <c r="I942" t="n">
-        <v>155900</v>
-      </c>
-      <c r="J942" t="n">
-        <v>155100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I942" t="inlineStr"/>
+      <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32240,14 +31744,10 @@
         <v>-3209.44362510362</v>
       </c>
       <c r="H943" t="n">
-        <v>1</v>
-      </c>
-      <c r="I943" t="n">
-        <v>156100</v>
-      </c>
-      <c r="J943" t="n">
-        <v>155100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I943" t="inlineStr"/>
+      <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32281,14 +31781,10 @@
         <v>-3194.733025103621</v>
       </c>
       <c r="H944" t="n">
-        <v>1</v>
-      </c>
-      <c r="I944" t="n">
-        <v>155800</v>
-      </c>
-      <c r="J944" t="n">
-        <v>155100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I944" t="inlineStr"/>
+      <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32322,14 +31818,10 @@
         <v>-3204.25382510362</v>
       </c>
       <c r="H945" t="n">
-        <v>1</v>
-      </c>
-      <c r="I945" t="n">
-        <v>155900</v>
-      </c>
-      <c r="J945" t="n">
-        <v>155100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I945" t="inlineStr"/>
+      <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32363,14 +31855,10 @@
         <v>-3202.46012510362</v>
       </c>
       <c r="H946" t="n">
-        <v>1</v>
-      </c>
-      <c r="I946" t="n">
-        <v>155700</v>
-      </c>
-      <c r="J946" t="n">
-        <v>155100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I946" t="inlineStr"/>
+      <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32404,14 +31892,10 @@
         <v>-3201.46822510362</v>
       </c>
       <c r="H947" t="n">
-        <v>1</v>
-      </c>
-      <c r="I947" t="n">
-        <v>155900</v>
-      </c>
-      <c r="J947" t="n">
-        <v>155100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I947" t="inlineStr"/>
+      <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32445,14 +31929,10 @@
         <v>-3201.46822510362</v>
       </c>
       <c r="H948" t="n">
-        <v>1</v>
-      </c>
-      <c r="I948" t="n">
-        <v>156100</v>
-      </c>
-      <c r="J948" t="n">
-        <v>155100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I948" t="inlineStr"/>
+      <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32486,14 +31966,10 @@
         <v>-3200.96172510362</v>
       </c>
       <c r="H949" t="n">
-        <v>1</v>
-      </c>
-      <c r="I949" t="n">
-        <v>156100</v>
-      </c>
-      <c r="J949" t="n">
-        <v>155100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I949" t="inlineStr"/>
+      <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32530,9 +32006,7 @@
         <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32569,9 +32043,7 @@
         <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32608,9 +32080,7 @@
         <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32647,9 +32117,7 @@
         <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32686,9 +32154,7 @@
         <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
-      <c r="J954" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32725,9 +32191,7 @@
         <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
-      <c r="J955" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32764,9 +32228,7 @@
         <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
-      <c r="J956" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32803,9 +32265,7 @@
         <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
-      <c r="J957" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32842,9 +32302,7 @@
         <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
-      <c r="J958" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32881,9 +32339,7 @@
         <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
-      <c r="J959" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32920,9 +32376,7 @@
         <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
-      <c r="J960" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32959,9 +32413,7 @@
         <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
-      <c r="J961" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32998,9 +32450,7 @@
         <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
-      <c r="J962" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J962" t="inlineStr"/>
       <c r="K962" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33037,9 +32487,7 @@
         <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
-      <c r="J963" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33076,9 +32524,7 @@
         <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
-      <c r="J964" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33115,9 +32561,7 @@
         <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
-      <c r="J965" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33154,9 +32598,7 @@
         <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
-      <c r="J966" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33193,9 +32635,7 @@
         <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
-      <c r="J967" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33232,9 +32672,7 @@
         <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33271,9 +32709,7 @@
         <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
-      <c r="J969" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33310,9 +32746,7 @@
         <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33349,9 +32783,7 @@
         <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33388,9 +32820,7 @@
         <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
-      <c r="J972" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33427,9 +32857,7 @@
         <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
-      <c r="J973" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33466,9 +32894,7 @@
         <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
-      <c r="J974" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33505,9 +32931,7 @@
         <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
-      <c r="J975" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33541,20 +32965,16 @@
         <v>-2762.494108344426</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="n">
-        <v>155100</v>
-      </c>
+      <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L976" t="n">
-        <v>1</v>
-      </c>
+      <c r="L976" t="inlineStr"/>
       <c r="M976" t="inlineStr"/>
     </row>
     <row r="977">
@@ -33580,17 +33000,11 @@
         <v>-2762.494108344426</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K977" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J977" t="inlineStr"/>
+      <c r="K977" t="inlineStr"/>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -33619,17 +33033,11 @@
         <v>-2762.494108344426</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K978" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J978" t="inlineStr"/>
+      <c r="K978" t="inlineStr"/>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -33658,17 +33066,11 @@
         <v>-2762.494108344426</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K979" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J979" t="inlineStr"/>
+      <c r="K979" t="inlineStr"/>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -33697,17 +33099,11 @@
         <v>-2762.494108344426</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K980" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J980" t="inlineStr"/>
+      <c r="K980" t="inlineStr"/>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -33736,17 +33132,11 @@
         <v>-2762.494108344426</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K981" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J981" t="inlineStr"/>
+      <c r="K981" t="inlineStr"/>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -33778,14 +33168,8 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K982" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J982" t="inlineStr"/>
+      <c r="K982" t="inlineStr"/>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -33817,14 +33201,8 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K983" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J983" t="inlineStr"/>
+      <c r="K983" t="inlineStr"/>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -33856,14 +33234,8 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K984" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J984" t="inlineStr"/>
+      <c r="K984" t="inlineStr"/>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -33895,14 +33267,8 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K985" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J985" t="inlineStr"/>
+      <c r="K985" t="inlineStr"/>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -33934,14 +33300,8 @@
         <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K986" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J986" t="inlineStr"/>
+      <c r="K986" t="inlineStr"/>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -33973,14 +33333,8 @@
         <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
-      <c r="J987" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K987" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J987" t="inlineStr"/>
+      <c r="K987" t="inlineStr"/>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -34012,14 +33366,8 @@
         <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
-      <c r="J988" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K988" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J988" t="inlineStr"/>
+      <c r="K988" t="inlineStr"/>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -34051,14 +33399,8 @@
         <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
-      <c r="J989" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K989" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J989" t="inlineStr"/>
+      <c r="K989" t="inlineStr"/>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -34087,17 +33429,11 @@
         <v>-2710.096708344425</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
-      <c r="J990" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J990" t="inlineStr"/>
+      <c r="K990" t="inlineStr"/>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -34126,17 +33462,11 @@
         <v>-2710.096708344425</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
-      <c r="J991" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J991" t="inlineStr"/>
+      <c r="K991" t="inlineStr"/>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -34165,17 +33495,11 @@
         <v>-2705.287108344425</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
-      <c r="J992" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J992" t="inlineStr"/>
+      <c r="K992" t="inlineStr"/>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -34204,17 +33528,11 @@
         <v>-2792.082608344425</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
-      <c r="J993" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K993" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J993" t="inlineStr"/>
+      <c r="K993" t="inlineStr"/>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -34243,17 +33561,11 @@
         <v>-2792.082608344425</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
-      <c r="J994" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K994" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J994" t="inlineStr"/>
+      <c r="K994" t="inlineStr"/>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -34282,17 +33594,11 @@
         <v>-2792.082608344425</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
-      <c r="J995" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K995" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J995" t="inlineStr"/>
+      <c r="K995" t="inlineStr"/>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -34321,17 +33627,11 @@
         <v>-2804.017008344425</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
-      <c r="J996" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K996" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J996" t="inlineStr"/>
+      <c r="K996" t="inlineStr"/>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -34360,17 +33660,11 @@
         <v>-2804.017008344425</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
-      <c r="J997" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J997" t="inlineStr"/>
+      <c r="K997" t="inlineStr"/>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -34399,17 +33693,11 @@
         <v>-3046.215208344425</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
-      <c r="J998" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K998" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J998" t="inlineStr"/>
+      <c r="K998" t="inlineStr"/>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -34438,17 +33726,11 @@
         <v>-3006.179208344425</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
-      <c r="J999" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K999" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J999" t="inlineStr"/>
+      <c r="K999" t="inlineStr"/>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -34477,17 +33759,11 @@
         <v>-2997.743008344425</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1000" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr"/>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -34516,17 +33792,11 @@
         <v>-2963.961408344425</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1001" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr"/>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -34558,14 +33828,8 @@
         <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1002" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr"/>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -34597,14 +33861,8 @@
         <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1003" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr"/>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -34636,14 +33894,8 @@
         <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
-      <c r="J1004" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1004" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr"/>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -34675,14 +33927,8 @@
         <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1005" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr"/>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -34714,14 +33960,8 @@
         <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
-      <c r="J1006" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1006" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr"/>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -34753,14 +33993,8 @@
         <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
-      <c r="J1007" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1007" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr"/>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -34792,14 +34026,8 @@
         <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1008" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr"/>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -34831,14 +34059,8 @@
         <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr"/>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -34870,14 +34092,8 @@
         <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
-      <c r="J1010" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1010" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr"/>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -34909,14 +34125,8 @@
         <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
-      <c r="J1011" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1011" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr"/>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -34948,14 +34158,8 @@
         <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
-      <c r="J1012" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1012" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr"/>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -34987,14 +34191,8 @@
         <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
-      <c r="J1013" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1013" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr"/>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -35026,14 +34224,8 @@
         <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
-      <c r="J1014" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1014" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr"/>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -35065,14 +34257,8 @@
         <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
-      <c r="J1015" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1015" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr"/>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -35104,14 +34290,8 @@
         <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1016" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr"/>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -35143,14 +34323,8 @@
         <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1017" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr"/>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -35182,14 +34356,8 @@
         <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1018" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr"/>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -35221,14 +34389,8 @@
         <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1019" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr"/>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -35260,14 +34422,8 @@
         <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1020" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr"/>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -35299,14 +34455,8 @@
         <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
-      <c r="J1021" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1021" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr"/>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -35338,14 +34488,8 @@
         <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1022" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr"/>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -35377,14 +34521,8 @@
         <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1023" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr"/>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -35416,14 +34554,8 @@
         <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1024" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr"/>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -35455,14 +34587,8 @@
         <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1025" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr"/>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -35494,14 +34620,8 @@
         <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1026" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr"/>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -35533,14 +34653,8 @@
         <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1027" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr"/>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -35572,14 +34686,8 @@
         <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1028" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr"/>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -35611,14 +34719,8 @@
         <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1029" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr"/>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -35650,14 +34752,8 @@
         <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1030" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr"/>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -35689,14 +34785,8 @@
         <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1031" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr"/>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -35728,14 +34818,8 @@
         <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1032" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr"/>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -35767,14 +34851,8 @@
         <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1033" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr"/>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -35806,14 +34884,8 @@
         <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1034" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr"/>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -35845,14 +34917,8 @@
         <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1035" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr"/>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -35884,14 +34950,8 @@
         <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1036" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr"/>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -35923,14 +34983,8 @@
         <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1037" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1037" t="inlineStr"/>
+      <c r="K1037" t="inlineStr"/>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -35962,14 +35016,8 @@
         <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1038" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1038" t="inlineStr"/>
+      <c r="K1038" t="inlineStr"/>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -36001,14 +35049,8 @@
         <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1039" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1039" t="inlineStr"/>
+      <c r="K1039" t="inlineStr"/>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -36040,14 +35082,8 @@
         <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
-      <c r="J1040" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1040" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1040" t="inlineStr"/>
+      <c r="K1040" t="inlineStr"/>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -36079,14 +35115,8 @@
         <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1041" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1041" t="inlineStr"/>
+      <c r="K1041" t="inlineStr"/>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -36118,14 +35148,8 @@
         <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
-      <c r="J1042" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1042" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1042" t="inlineStr"/>
+      <c r="K1042" t="inlineStr"/>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -36157,14 +35181,8 @@
         <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
-      <c r="J1043" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1043" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1043" t="inlineStr"/>
+      <c r="K1043" t="inlineStr"/>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -36196,14 +35214,8 @@
         <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
-      <c r="J1044" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1044" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1044" t="inlineStr"/>
+      <c r="K1044" t="inlineStr"/>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -36235,14 +35247,8 @@
         <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
-      <c r="J1045" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1045" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1045" t="inlineStr"/>
+      <c r="K1045" t="inlineStr"/>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -36274,14 +35280,8 @@
         <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
-      <c r="J1046" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1046" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1046" t="inlineStr"/>
+      <c r="K1046" t="inlineStr"/>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -36313,14 +35313,8 @@
         <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
-      <c r="J1047" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1047" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1047" t="inlineStr"/>
+      <c r="K1047" t="inlineStr"/>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -36352,20 +35346,14 @@
         <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
-      <c r="J1048" t="n">
-        <v>155100</v>
-      </c>
-      <c r="K1048" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1048" t="inlineStr"/>
+      <c r="K1048" t="inlineStr"/>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
       <c r="M1048" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-10 BackTest ETH.xlsx
+++ b/BackTest/2020-01-10 BackTest ETH.xlsx
@@ -2893,7 +2893,7 @@
         <v>413.286065125926</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>413.286065125926</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>565.2148299279373</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>565.2148299279373</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>569.7383736779374</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>569.7383736779374</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>569.7383736779374</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>575.5468736779374</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>527.1082250815556</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>530.9288250815556</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>530.9288250815556</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>530.9288250815556</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>531.4288250815556</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>532.7629250815556</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>476.8207250815556</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>587.6990250815556</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>546.9829250815557</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>554.2156250815557</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>574.5873250815557</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>442.6533888370143</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>473.7694888370143</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>447.2048014928747</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>447.2048014928747</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>447.2048014928747</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>447.2048014928747</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>465.2850281429369</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>464.9680281429369</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>530.2428014928746</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>530.2428014928746</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>501.6323014928746</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>501.6323014928746</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>501.6323014928746</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>370.1225014928746</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>384.4092014928746</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>451.4376014928746</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>423.1352014928746</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>443.3279014928746</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>441.8250014928746</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>441.8250014928746</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>76.14060149287462</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>76.14060149287462</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>73.14060149287462</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>73.14060149287462</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>67.73160149287462</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -29689,10 +29689,14 @@
         <v>-3176.467670757322</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
-      <c r="J888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>155400</v>
+      </c>
+      <c r="J888" t="n">
+        <v>155400</v>
+      </c>
       <c r="K888" t="inlineStr"/>
       <c r="L888" t="n">
         <v>1</v>
@@ -29722,11 +29726,19 @@
         <v>-3176.467670757322</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
-      <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I889" t="n">
+        <v>155300</v>
+      </c>
+      <c r="J889" t="n">
+        <v>155400</v>
+      </c>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -29755,11 +29767,19 @@
         <v>-3176.467670757322</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
-      </c>
-      <c r="I890" t="inlineStr"/>
-      <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I890" t="n">
+        <v>155300</v>
+      </c>
+      <c r="J890" t="n">
+        <v>155400</v>
+      </c>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -29788,10 +29808,14 @@
         <v>-3176.191570757322</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
-      <c r="J891" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I891" t="n">
+        <v>155300</v>
+      </c>
+      <c r="J891" t="n">
+        <v>155300</v>
+      </c>
       <c r="K891" t="inlineStr"/>
       <c r="L891" t="n">
         <v>1</v>
@@ -29821,11 +29845,19 @@
         <v>-3176.191570757322</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
-      <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>155400</v>
+      </c>
+      <c r="J892" t="n">
+        <v>155300</v>
+      </c>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -29857,8 +29889,14 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="J893" t="n">
+        <v>155300</v>
+      </c>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -29986,11 +30024,17 @@
         <v>-3200.454170757322</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>155500</v>
+      </c>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30019,11 +30063,17 @@
         <v>-3200.454170757322</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>155300</v>
+      </c>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30057,10 +30107,12 @@
       <c r="I899" t="n">
         <v>155300</v>
       </c>
-      <c r="J899" t="n">
-        <v>155300</v>
-      </c>
-      <c r="K899" t="inlineStr"/>
+      <c r="J899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30089,15 +30141,15 @@
         <v>-3198.756070757322</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
-      <c r="J900" t="n">
-        <v>155300</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>155600</v>
+      </c>
+      <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L900" t="n">
@@ -30128,15 +30180,15 @@
         <v>-3198.123970757322</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
-      </c>
-      <c r="I901" t="inlineStr"/>
-      <c r="J901" t="n">
-        <v>155300</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I901" t="n">
+        <v>155700</v>
+      </c>
+      <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L901" t="n">
@@ -30167,11 +30219,17 @@
         <v>-3198.268970757322</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>155800</v>
+      </c>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30200,11 +30258,17 @@
         <v>-3198.268970757322</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>155600</v>
+      </c>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30241,7 +30305,7 @@
       <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L904" t="n">
@@ -30428,11 +30492,9 @@
         <v>-3209.016670757322</v>
       </c>
       <c r="H909" t="n">
-        <v>1</v>
-      </c>
-      <c r="I909" t="n">
-        <v>155500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
@@ -31130,9 +31192,11 @@
         <v>-3197.162525103621</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
-      </c>
-      <c r="I927" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I927" t="n">
+        <v>155700</v>
+      </c>
       <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
@@ -31167,9 +31231,11 @@
         <v>-3209.778425103621</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
-      </c>
-      <c r="I928" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I928" t="n">
+        <v>155700</v>
+      </c>
       <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
@@ -31204,9 +31270,11 @@
         <v>-3210.161825103621</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
-      </c>
-      <c r="I929" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I929" t="n">
+        <v>155600</v>
+      </c>
       <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr">
         <is>
@@ -31241,9 +31309,11 @@
         <v>-3212.511825103621</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
-      </c>
-      <c r="I930" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I930" t="n">
+        <v>155500</v>
+      </c>
       <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr">
         <is>
@@ -31707,9 +31777,11 @@
         <v>-3204.44362510362</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
-      </c>
-      <c r="I942" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I942" t="n">
+        <v>155900</v>
+      </c>
       <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr">
         <is>
@@ -32965,16 +33037,18 @@
         <v>-2762.494108344426</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L976" t="inlineStr"/>
+      <c r="L976" t="n">
+        <v>1</v>
+      </c>
       <c r="M976" t="inlineStr"/>
     </row>
     <row r="977">
@@ -33000,11 +33074,15 @@
         <v>-2762.494108344426</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -33033,11 +33111,15 @@
         <v>-2762.494108344426</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -33066,11 +33148,15 @@
         <v>-2762.494108344426</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -33099,11 +33185,15 @@
         <v>-2762.494108344426</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -33132,11 +33222,15 @@
         <v>-2762.494108344426</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -33169,7 +33263,11 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -33202,7 +33300,11 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -33235,7 +33337,11 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -33268,7 +33374,11 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -33301,7 +33411,11 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -33334,7 +33448,11 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -33367,7 +33485,11 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -33400,7 +33522,11 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -33429,11 +33555,15 @@
         <v>-2710.096708344425</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -33462,11 +33592,15 @@
         <v>-2710.096708344425</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -33495,11 +33629,15 @@
         <v>-2705.287108344425</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -33528,11 +33666,15 @@
         <v>-2792.082608344425</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -33561,11 +33703,15 @@
         <v>-2792.082608344425</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -33594,11 +33740,15 @@
         <v>-2792.082608344425</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -33627,11 +33777,15 @@
         <v>-2804.017008344425</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -33660,11 +33814,15 @@
         <v>-2804.017008344425</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -33693,11 +33851,15 @@
         <v>-3046.215208344425</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -33726,11 +33888,15 @@
         <v>-3006.179208344425</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -33759,11 +33925,15 @@
         <v>-2997.743008344425</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -33792,11 +33962,15 @@
         <v>-2963.961408344425</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -33829,7 +34003,11 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -33862,7 +34040,11 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -33895,7 +34077,11 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -33928,7 +34114,11 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -33961,7 +34151,11 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -33994,7 +34188,11 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -34027,7 +34225,11 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -34060,7 +34262,11 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -34093,7 +34299,11 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -34126,7 +34336,11 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -34159,7 +34373,11 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -34192,7 +34410,11 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -34225,7 +34447,11 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -34258,7 +34484,11 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -34291,7 +34521,11 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -34324,7 +34558,11 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -34357,7 +34595,11 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34390,7 +34632,11 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34423,7 +34669,11 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -34456,7 +34706,11 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -34489,7 +34743,11 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -34522,7 +34780,11 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -34555,7 +34817,11 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -34588,7 +34854,11 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -34621,7 +34891,11 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -34654,7 +34928,11 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -34687,7 +34965,11 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -34720,7 +35002,11 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -34753,7 +35039,11 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -34786,7 +35076,11 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -34819,7 +35113,11 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -34852,7 +35150,11 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -34885,7 +35187,11 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -34918,7 +35224,11 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -34951,7 +35261,11 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -34984,7 +35298,11 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -35017,7 +35335,11 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
+      <c r="K1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -35050,7 +35372,11 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -35083,7 +35409,11 @@
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -35116,7 +35446,11 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -35149,7 +35483,11 @@
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -35182,7 +35520,11 @@
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
+      <c r="K1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -35215,7 +35557,11 @@
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr"/>
+      <c r="K1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -35248,7 +35594,11 @@
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr"/>
+      <c r="K1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -35281,7 +35631,11 @@
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr"/>
+      <c r="K1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -35314,7 +35668,11 @@
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr"/>
+      <c r="K1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -35347,7 +35705,11 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr"/>
+      <c r="K1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
